--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488B99F-A42D-48E5-9C3D-36F2173368B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC4A5B-D825-4152-A6EE-C016CD33889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$292</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -947,24 +946,24 @@
   <dimension ref="A1:J292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="75.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="45.26953125" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -996,7 +995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039831</v>
+        <v>7703039850</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>68</v>
@@ -1028,7 +1027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>7703039832</v>
+        <v>7703039851</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>68</v>
@@ -1060,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>7703039833</v>
+        <v>7703039852</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>68</v>
@@ -1092,7 +1091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
       <c r="D191" s="16"/>
@@ -1779,7 +1778,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -2827,15 +2826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2844,6 +2834,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3042,20 +3041,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC4A5B-D825-4152-A6EE-C016CD33889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A1D716-A525-4DD4-A570-2AC1CF7A2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,24 +946,24 @@
   <dimension ref="A1:J292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="75.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -995,7 +995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039850</v>
+        <v>7703039863</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>68</v>
@@ -1027,7 +1027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>7703039851</v>
+        <v>7703039862</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>68</v>
@@ -1059,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>7703039852</v>
+        <v>7703039861</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>68</v>
@@ -1091,7 +1091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
       <c r="D191" s="16"/>
@@ -1778,7 +1778,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>2</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>2</v>
       </c>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A1D716-A525-4DD4-A570-2AC1CF7A2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0701F-4596-4250-A67D-5C82C2041C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
   <si>
     <t>Usager</t>
   </si>
@@ -225,21 +225,6 @@
   </si>
   <si>
     <t>2 rue des 3 moulins 77000 melun</t>
-  </si>
-  <si>
-    <t>0911223346</t>
-  </si>
-  <si>
-    <t>0911223347</t>
-  </si>
-  <si>
-    <t>1PMTYE991215114515JY07</t>
-  </si>
-  <si>
-    <t>1PMTYE991215114515JY08</t>
-  </si>
-  <si>
-    <t>TS-PT-SalariéQualifié</t>
   </si>
   <si>
     <t>Profiles</t>
@@ -530,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,9 +566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,8 +938,8 @@
     <col min="3" max="3" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="24" customWidth="1"/>
     <col min="8" max="8" width="45.28515625" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" customWidth="1"/>
@@ -965,7 +947,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>54</v>
@@ -979,10 +961,10 @@
       <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -995,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1009,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039863</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>69</v>
+        <v>7703039864</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>61</v>
@@ -1027,68 +1009,56 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>7703039862</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>7703039861</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>65</v>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="12">
+        <v>7703039343</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="12">
+        <v>7703039344</v>
+      </c>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,12 +1073,12 @@
         <v>2</v>
       </c>
       <c r="E165" s="12">
-        <v>7703039343</v>
-      </c>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
+        <v>7703039345</v>
+      </c>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
       <c r="H165" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>45</v>
@@ -1129,12 +1099,12 @@
         <v>2</v>
       </c>
       <c r="E166" s="12">
-        <v>7703039344</v>
-      </c>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
+        <v>7703039346</v>
+      </c>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
       <c r="H166" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>45</v>
@@ -1155,12 +1125,12 @@
         <v>2</v>
       </c>
       <c r="E167" s="12">
-        <v>7703039345</v>
-      </c>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22"/>
+        <v>7703039347</v>
+      </c>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
       <c r="H167" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>45</v>
@@ -1181,12 +1151,12 @@
         <v>2</v>
       </c>
       <c r="E168" s="12">
-        <v>7703039346</v>
-      </c>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
+        <v>7703039348</v>
+      </c>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
       <c r="H168" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>45</v>
@@ -1207,12 +1177,12 @@
         <v>2</v>
       </c>
       <c r="E169" s="12">
-        <v>7703039347</v>
-      </c>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
+        <v>7703039349</v>
+      </c>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
       <c r="H169" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>45</v>
@@ -1233,12 +1203,12 @@
         <v>2</v>
       </c>
       <c r="E170" s="12">
-        <v>7703039348</v>
-      </c>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
+        <v>7703039350</v>
+      </c>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
       <c r="H170" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>45</v>
@@ -1259,12 +1229,12 @@
         <v>2</v>
       </c>
       <c r="E171" s="12">
-        <v>7703039349</v>
-      </c>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
+        <v>7703039351</v>
+      </c>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
       <c r="H171" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>45</v>
@@ -1285,12 +1255,12 @@
         <v>2</v>
       </c>
       <c r="E172" s="12">
-        <v>7703039350</v>
-      </c>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
+        <v>7703039352</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
       <c r="H172" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>45</v>
@@ -1311,12 +1281,12 @@
         <v>2</v>
       </c>
       <c r="E173" s="12">
-        <v>7703039351</v>
-      </c>
-      <c r="F173" s="22"/>
-      <c r="G173" s="22"/>
+        <v>7703039353</v>
+      </c>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
       <c r="H173" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>45</v>
@@ -1337,12 +1307,12 @@
         <v>2</v>
       </c>
       <c r="E174" s="12">
-        <v>7703039352</v>
-      </c>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
+        <v>7703039354</v>
+      </c>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
       <c r="H174" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>45</v>
@@ -1363,12 +1333,12 @@
         <v>2</v>
       </c>
       <c r="E175" s="12">
-        <v>7703039353</v>
-      </c>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
+        <v>7703039355</v>
+      </c>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
       <c r="H175" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>45</v>
@@ -1389,12 +1359,12 @@
         <v>2</v>
       </c>
       <c r="E176" s="12">
-        <v>7703039354</v>
-      </c>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
+        <v>7703039356</v>
+      </c>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
       <c r="H176" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>45</v>
@@ -1415,12 +1385,12 @@
         <v>2</v>
       </c>
       <c r="E177" s="12">
-        <v>7703039355</v>
-      </c>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
+        <v>7703039357</v>
+      </c>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
       <c r="H177" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>45</v>
@@ -1441,12 +1411,12 @@
         <v>2</v>
       </c>
       <c r="E178" s="12">
-        <v>7703039356</v>
-      </c>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
+        <v>7703039358</v>
+      </c>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
       <c r="H178" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>45</v>
@@ -1467,12 +1437,12 @@
         <v>2</v>
       </c>
       <c r="E179" s="12">
-        <v>7703039357</v>
-      </c>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
+        <v>7703039359</v>
+      </c>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
       <c r="H179" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>45</v>
@@ -1493,12 +1463,12 @@
         <v>2</v>
       </c>
       <c r="E180" s="12">
-        <v>7703039358</v>
-      </c>
-      <c r="F180" s="22"/>
-      <c r="G180" s="22"/>
+        <v>7703039360</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
       <c r="H180" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>45</v>
@@ -1519,12 +1489,12 @@
         <v>2</v>
       </c>
       <c r="E181" s="12">
-        <v>7703039359</v>
-      </c>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
+        <v>7703039361</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
       <c r="H181" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>45</v>
@@ -1545,12 +1515,12 @@
         <v>2</v>
       </c>
       <c r="E182" s="12">
-        <v>7703039360</v>
-      </c>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
+        <v>7703039362</v>
+      </c>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
       <c r="H182" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>45</v>
@@ -1571,12 +1541,12 @@
         <v>2</v>
       </c>
       <c r="E183" s="12">
-        <v>7703039361</v>
-      </c>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
+        <v>7703039363</v>
+      </c>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
       <c r="H183" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>45</v>
@@ -1597,12 +1567,12 @@
         <v>2</v>
       </c>
       <c r="E184" s="12">
-        <v>7703039362</v>
-      </c>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
+        <v>7703039364</v>
+      </c>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
       <c r="H184" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>45</v>
@@ -1623,12 +1593,12 @@
         <v>2</v>
       </c>
       <c r="E185" s="12">
-        <v>7703039363</v>
-      </c>
-      <c r="F185" s="22"/>
-      <c r="G185" s="22"/>
+        <v>7703039365</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
       <c r="H185" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>45</v>
@@ -1649,12 +1619,12 @@
         <v>2</v>
       </c>
       <c r="E186" s="12">
-        <v>7703039364</v>
-      </c>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
+        <v>7703039366</v>
+      </c>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
       <c r="H186" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>45</v>
@@ -1675,12 +1645,12 @@
         <v>2</v>
       </c>
       <c r="E187" s="12">
-        <v>7703039365</v>
-      </c>
-      <c r="F187" s="22"/>
-      <c r="G187" s="22"/>
+        <v>7703039367</v>
+      </c>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
       <c r="H187" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>45</v>
@@ -1701,12 +1671,12 @@
         <v>2</v>
       </c>
       <c r="E188" s="12">
-        <v>7703039366</v>
-      </c>
-      <c r="F188" s="22"/>
-      <c r="G188" s="22"/>
+        <v>7703039368</v>
+      </c>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
       <c r="H188" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>45</v>
@@ -1716,67 +1686,67 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E189" s="12">
-        <v>7703039367</v>
-      </c>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="14"/>
       <c r="F189" s="22"/>
       <c r="G189" s="22"/>
-      <c r="H189" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I189" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J189" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" s="12">
-        <v>7703039368</v>
-      </c>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
-      <c r="H190" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I190" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="15"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="23"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="16"/>
-      <c r="J191" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="15"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="12">
+        <v>7703039429</v>
+      </c>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="5"/>
+      <c r="D252" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="12">
+        <v>7703039430</v>
+      </c>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -1790,12 +1760,12 @@
         <v>2</v>
       </c>
       <c r="E253" s="12">
-        <v>7703039429</v>
-      </c>
-      <c r="F253" s="22"/>
-      <c r="G253" s="22"/>
+        <v>7703039431</v>
+      </c>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
       <c r="H253" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I253" s="6" t="s">
         <v>47</v>
@@ -1816,12 +1786,12 @@
         <v>2</v>
       </c>
       <c r="E254" s="12">
-        <v>7703039430</v>
-      </c>
-      <c r="F254" s="22"/>
-      <c r="G254" s="22"/>
+        <v>7703039432</v>
+      </c>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
       <c r="H254" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I254" s="6" t="s">
         <v>47</v>
@@ -1842,12 +1812,12 @@
         <v>2</v>
       </c>
       <c r="E255" s="12">
-        <v>7703039431</v>
-      </c>
-      <c r="F255" s="22"/>
-      <c r="G255" s="22"/>
+        <v>7703039433</v>
+      </c>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
       <c r="H255" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I255" s="6" t="s">
         <v>47</v>
@@ -1868,12 +1838,12 @@
         <v>2</v>
       </c>
       <c r="E256" s="12">
-        <v>7703039432</v>
-      </c>
-      <c r="F256" s="22"/>
-      <c r="G256" s="22"/>
+        <v>7703039434</v>
+      </c>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
       <c r="H256" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I256" s="6" t="s">
         <v>47</v>
@@ -1894,12 +1864,12 @@
         <v>2</v>
       </c>
       <c r="E257" s="12">
-        <v>7703039433</v>
-      </c>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
+        <v>7703039435</v>
+      </c>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
       <c r="H257" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I257" s="6" t="s">
         <v>47</v>
@@ -1920,12 +1890,12 @@
         <v>2</v>
       </c>
       <c r="E258" s="12">
-        <v>7703039434</v>
-      </c>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
+        <v>7703039436</v>
+      </c>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
       <c r="H258" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I258" s="6" t="s">
         <v>47</v>
@@ -1946,12 +1916,12 @@
         <v>2</v>
       </c>
       <c r="E259" s="12">
-        <v>7703039435</v>
-      </c>
-      <c r="F259" s="22"/>
-      <c r="G259" s="22"/>
+        <v>7703039437</v>
+      </c>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
       <c r="H259" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I259" s="6" t="s">
         <v>47</v>
@@ -1972,12 +1942,12 @@
         <v>2</v>
       </c>
       <c r="E260" s="12">
-        <v>7703039436</v>
-      </c>
-      <c r="F260" s="22"/>
-      <c r="G260" s="22"/>
+        <v>7703039438</v>
+      </c>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
       <c r="H260" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I260" s="6" t="s">
         <v>47</v>
@@ -1998,12 +1968,12 @@
         <v>2</v>
       </c>
       <c r="E261" s="12">
-        <v>7703039437</v>
-      </c>
-      <c r="F261" s="22"/>
-      <c r="G261" s="22"/>
+        <v>7703039439</v>
+      </c>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
       <c r="H261" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I261" s="6" t="s">
         <v>47</v>
@@ -2024,12 +1994,12 @@
         <v>2</v>
       </c>
       <c r="E262" s="12">
-        <v>7703039438</v>
-      </c>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
+        <v>7703039440</v>
+      </c>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
       <c r="H262" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I262" s="6" t="s">
         <v>47</v>
@@ -2050,12 +2020,12 @@
         <v>2</v>
       </c>
       <c r="E263" s="12">
-        <v>7703039439</v>
-      </c>
-      <c r="F263" s="22"/>
-      <c r="G263" s="22"/>
+        <v>7703039441</v>
+      </c>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
       <c r="H263" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I263" s="6" t="s">
         <v>47</v>
@@ -2076,12 +2046,12 @@
         <v>2</v>
       </c>
       <c r="E264" s="12">
-        <v>7703039440</v>
-      </c>
-      <c r="F264" s="22"/>
-      <c r="G264" s="22"/>
+        <v>7703039442</v>
+      </c>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
       <c r="H264" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I264" s="6" t="s">
         <v>47</v>
@@ -2102,12 +2072,12 @@
         <v>2</v>
       </c>
       <c r="E265" s="12">
-        <v>7703039441</v>
-      </c>
-      <c r="F265" s="22"/>
-      <c r="G265" s="22"/>
+        <v>7703039443</v>
+      </c>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
       <c r="H265" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I265" s="6" t="s">
         <v>47</v>
@@ -2128,12 +2098,12 @@
         <v>2</v>
       </c>
       <c r="E266" s="12">
-        <v>7703039442</v>
-      </c>
-      <c r="F266" s="22"/>
-      <c r="G266" s="22"/>
+        <v>7703039444</v>
+      </c>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
       <c r="H266" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I266" s="6" t="s">
         <v>47</v>
@@ -2154,12 +2124,12 @@
         <v>2</v>
       </c>
       <c r="E267" s="12">
-        <v>7703039443</v>
-      </c>
-      <c r="F267" s="22"/>
-      <c r="G267" s="22"/>
+        <v>7703039445</v>
+      </c>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
       <c r="H267" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I267" s="6" t="s">
         <v>47</v>
@@ -2180,12 +2150,12 @@
         <v>2</v>
       </c>
       <c r="E268" s="12">
-        <v>7703039444</v>
-      </c>
-      <c r="F268" s="22"/>
-      <c r="G268" s="22"/>
+        <v>7703039446</v>
+      </c>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
       <c r="H268" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I268" s="6" t="s">
         <v>47</v>
@@ -2206,12 +2176,12 @@
         <v>2</v>
       </c>
       <c r="E269" s="12">
-        <v>7703039445</v>
-      </c>
-      <c r="F269" s="22"/>
-      <c r="G269" s="22"/>
+        <v>7703039447</v>
+      </c>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
       <c r="H269" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I269" s="6" t="s">
         <v>47</v>
@@ -2232,12 +2202,12 @@
         <v>2</v>
       </c>
       <c r="E270" s="12">
-        <v>7703039446</v>
-      </c>
-      <c r="F270" s="22"/>
-      <c r="G270" s="22"/>
+        <v>7703039448</v>
+      </c>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
       <c r="H270" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I270" s="6" t="s">
         <v>47</v>
@@ -2258,12 +2228,12 @@
         <v>2</v>
       </c>
       <c r="E271" s="12">
-        <v>7703039447</v>
-      </c>
-      <c r="F271" s="22"/>
-      <c r="G271" s="22"/>
+        <v>7703039449</v>
+      </c>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
       <c r="H271" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I271" s="6" t="s">
         <v>47</v>
@@ -2284,12 +2254,12 @@
         <v>2</v>
       </c>
       <c r="E272" s="12">
-        <v>7703039448</v>
-      </c>
-      <c r="F272" s="22"/>
-      <c r="G272" s="22"/>
+        <v>7703039450</v>
+      </c>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
       <c r="H272" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I272" s="6" t="s">
         <v>47</v>
@@ -2310,12 +2280,12 @@
         <v>2</v>
       </c>
       <c r="E273" s="12">
-        <v>7703039449</v>
-      </c>
-      <c r="F273" s="22"/>
-      <c r="G273" s="22"/>
+        <v>7703039451</v>
+      </c>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
       <c r="H273" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I273" s="6" t="s">
         <v>47</v>
@@ -2336,12 +2306,12 @@
         <v>2</v>
       </c>
       <c r="E274" s="12">
-        <v>7703039450</v>
-      </c>
-      <c r="F274" s="22"/>
-      <c r="G274" s="22"/>
+        <v>7703039452</v>
+      </c>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
       <c r="H274" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I274" s="6" t="s">
         <v>47</v>
@@ -2362,12 +2332,12 @@
         <v>2</v>
       </c>
       <c r="E275" s="12">
-        <v>7703039451</v>
-      </c>
-      <c r="F275" s="22"/>
-      <c r="G275" s="22"/>
+        <v>7703039453</v>
+      </c>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21"/>
       <c r="H275" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I275" s="6" t="s">
         <v>47</v>
@@ -2388,12 +2358,12 @@
         <v>2</v>
       </c>
       <c r="E276" s="12">
-        <v>7703039452</v>
-      </c>
-      <c r="F276" s="22"/>
-      <c r="G276" s="22"/>
+        <v>7703039454</v>
+      </c>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
       <c r="H276" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I276" s="6" t="s">
         <v>47</v>
@@ -2414,12 +2384,12 @@
         <v>2</v>
       </c>
       <c r="E277" s="12">
-        <v>7703039453</v>
-      </c>
-      <c r="F277" s="22"/>
-      <c r="G277" s="22"/>
+        <v>7703039455</v>
+      </c>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
       <c r="H277" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I277" s="6" t="s">
         <v>47</v>
@@ -2440,12 +2410,12 @@
         <v>2</v>
       </c>
       <c r="E278" s="12">
-        <v>7703039454</v>
-      </c>
-      <c r="F278" s="22"/>
-      <c r="G278" s="22"/>
+        <v>7703039456</v>
+      </c>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
       <c r="H278" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I278" s="6" t="s">
         <v>47</v>
@@ -2466,12 +2436,12 @@
         <v>2</v>
       </c>
       <c r="E279" s="12">
-        <v>7703039455</v>
-      </c>
-      <c r="F279" s="22"/>
-      <c r="G279" s="22"/>
+        <v>7703039457</v>
+      </c>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
       <c r="H279" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I279" s="6" t="s">
         <v>47</v>
@@ -2492,12 +2462,12 @@
         <v>2</v>
       </c>
       <c r="E280" s="12">
-        <v>7703039456</v>
-      </c>
-      <c r="F280" s="22"/>
-      <c r="G280" s="22"/>
+        <v>7703039458</v>
+      </c>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
       <c r="H280" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I280" s="6" t="s">
         <v>47</v>
@@ -2518,12 +2488,12 @@
         <v>2</v>
       </c>
       <c r="E281" s="12">
-        <v>7703039457</v>
-      </c>
-      <c r="F281" s="22"/>
-      <c r="G281" s="22"/>
+        <v>7703039459</v>
+      </c>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
       <c r="H281" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I281" s="6" t="s">
         <v>47</v>
@@ -2544,12 +2514,12 @@
         <v>2</v>
       </c>
       <c r="E282" s="12">
-        <v>7703039458</v>
-      </c>
-      <c r="F282" s="22"/>
-      <c r="G282" s="22"/>
+        <v>7703039460</v>
+      </c>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
       <c r="H282" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I282" s="6" t="s">
         <v>47</v>
@@ -2570,12 +2540,12 @@
         <v>2</v>
       </c>
       <c r="E283" s="12">
-        <v>7703039459</v>
-      </c>
-      <c r="F283" s="22"/>
-      <c r="G283" s="22"/>
+        <v>7703039461</v>
+      </c>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
       <c r="H283" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I283" s="6" t="s">
         <v>47</v>
@@ -2596,12 +2566,12 @@
         <v>2</v>
       </c>
       <c r="E284" s="12">
-        <v>7703039460</v>
-      </c>
-      <c r="F284" s="22"/>
-      <c r="G284" s="22"/>
+        <v>7703039462</v>
+      </c>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
       <c r="H284" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I284" s="6" t="s">
         <v>47</v>
@@ -2622,12 +2592,12 @@
         <v>2</v>
       </c>
       <c r="E285" s="12">
-        <v>7703039461</v>
-      </c>
-      <c r="F285" s="22"/>
-      <c r="G285" s="22"/>
+        <v>7703039463</v>
+      </c>
+      <c r="F285" s="21"/>
+      <c r="G285" s="21"/>
       <c r="H285" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I285" s="6" t="s">
         <v>47</v>
@@ -2648,12 +2618,12 @@
         <v>2</v>
       </c>
       <c r="E286" s="12">
-        <v>7703039462</v>
-      </c>
-      <c r="F286" s="22"/>
-      <c r="G286" s="22"/>
+        <v>7703039464</v>
+      </c>
+      <c r="F286" s="21"/>
+      <c r="G286" s="21"/>
       <c r="H286" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I286" s="6" t="s">
         <v>47</v>
@@ -2674,12 +2644,12 @@
         <v>2</v>
       </c>
       <c r="E287" s="12">
-        <v>7703039463</v>
-      </c>
-      <c r="F287" s="22"/>
-      <c r="G287" s="22"/>
+        <v>7703039465</v>
+      </c>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
       <c r="H287" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I287" s="6" t="s">
         <v>47</v>
@@ -2700,12 +2670,12 @@
         <v>2</v>
       </c>
       <c r="E288" s="12">
-        <v>7703039464</v>
-      </c>
-      <c r="F288" s="22"/>
-      <c r="G288" s="22"/>
+        <v>7703039466</v>
+      </c>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
       <c r="H288" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I288" s="6" t="s">
         <v>47</v>
@@ -2726,12 +2696,12 @@
         <v>2</v>
       </c>
       <c r="E289" s="12">
-        <v>7703039465</v>
-      </c>
-      <c r="F289" s="22"/>
-      <c r="G289" s="22"/>
+        <v>7703039467</v>
+      </c>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
       <c r="H289" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I289" s="6" t="s">
         <v>47</v>
@@ -2740,81 +2710,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>2</v>
       </c>
-      <c r="B290" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="5"/>
-      <c r="D290" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E290" s="12">
-        <v>7703039466</v>
-      </c>
-      <c r="F290" s="22"/>
-      <c r="G290" s="22"/>
-      <c r="H290" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I290" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J290" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>2</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C291" s="5"/>
-      <c r="D291" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E291" s="12">
-        <v>7703039467</v>
-      </c>
-      <c r="F291" s="22"/>
-      <c r="G291" s="22"/>
-      <c r="H291" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I291" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J291" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>2</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C292" s="8"/>
-      <c r="D292" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E292" s="13">
+      <c r="B290" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E290" s="13">
         <v>7703039468</v>
       </c>
-      <c r="F292" s="24"/>
-      <c r="G292" s="24"/>
-      <c r="H292" s="8" t="s">
+      <c r="F290" s="23"/>
+      <c r="G290" s="23"/>
+      <c r="H290" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I292" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J292" s="8" t="s">
+      <c r="I290" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J290" s="8" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0701F-4596-4250-A67D-5C82C2041C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E750830-7B86-4B9F-B9F1-12EFA5048120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$288</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="64">
   <si>
     <t>Usager</t>
   </si>
   <si>
-    <t>Etudiant</t>
-  </si>
-  <si>
     <t>Visiteur</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>TypeTitreDeSejour</t>
   </si>
   <si>
-    <t>RenouvellementDeTitreSéjour</t>
-  </si>
-  <si>
     <t>0911223344</t>
   </si>
   <si>
@@ -234,6 +228,9 @@
   </si>
   <si>
     <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>RenouvellementDeTitreSejour</t>
   </si>
 </sst>
 </file>
@@ -925,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,1793 +944,1793 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7703039887</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>7703039864</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>58</v>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" s="12">
+        <v>7703039343</v>
+      </c>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="12">
+        <v>7703039344</v>
+      </c>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" s="12">
-        <v>7703039343</v>
+        <v>7703039345</v>
       </c>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
       <c r="H163" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I163" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="12">
-        <v>7703039344</v>
+        <v>7703039346</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
       <c r="H164" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I164" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J164" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" s="12">
-        <v>7703039345</v>
+        <v>7703039347</v>
       </c>
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
       <c r="H165" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I165" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J165" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="12">
-        <v>7703039346</v>
+        <v>7703039348</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
       <c r="H166" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I166" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J166" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" s="12">
-        <v>7703039347</v>
+        <v>7703039349</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
       <c r="H167" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I167" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J167" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J167" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" s="12">
-        <v>7703039348</v>
+        <v>7703039350</v>
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I168" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J168" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" s="12">
-        <v>7703039349</v>
+        <v>7703039351</v>
       </c>
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
       <c r="H169" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I169" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J169" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" s="12">
-        <v>7703039350</v>
+        <v>7703039352</v>
       </c>
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
       <c r="H170" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I170" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J170" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" s="12">
-        <v>7703039351</v>
+        <v>7703039353</v>
       </c>
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I171" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J171" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J171" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" s="12">
-        <v>7703039352</v>
+        <v>7703039354</v>
       </c>
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
       <c r="H172" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I172" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J172" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="12">
-        <v>7703039353</v>
+        <v>7703039355</v>
       </c>
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
       <c r="H173" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I173" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J173" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J173" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="12">
-        <v>7703039354</v>
+        <v>7703039356</v>
       </c>
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
       <c r="H174" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I174" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J174" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J174" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="12">
-        <v>7703039355</v>
+        <v>7703039357</v>
       </c>
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
       <c r="H175" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I175" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J175" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J175" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" s="12">
-        <v>7703039356</v>
+        <v>7703039358</v>
       </c>
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
       <c r="H176" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I176" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J176" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J176" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" s="12">
-        <v>7703039357</v>
+        <v>7703039359</v>
       </c>
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
       <c r="H177" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I177" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J177" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="12">
-        <v>7703039358</v>
+        <v>7703039360</v>
       </c>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
       <c r="H178" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I178" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J178" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" s="12">
-        <v>7703039359</v>
+        <v>7703039361</v>
       </c>
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
       <c r="H179" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I179" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J179" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J179" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="12">
-        <v>7703039360</v>
+        <v>7703039362</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
       <c r="H180" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I180" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J180" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J180" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="12">
-        <v>7703039361</v>
+        <v>7703039363</v>
       </c>
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
       <c r="H181" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I181" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J181" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182" s="12">
-        <v>7703039362</v>
+        <v>7703039364</v>
       </c>
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
       <c r="H182" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I182" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J182" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" s="12">
-        <v>7703039363</v>
+        <v>7703039365</v>
       </c>
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
       <c r="H183" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I183" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J183" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J183" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="12">
-        <v>7703039364</v>
+        <v>7703039366</v>
       </c>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
       <c r="H184" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I184" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J184" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J184" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" s="12">
-        <v>7703039365</v>
+        <v>7703039367</v>
       </c>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
       <c r="H185" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I185" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" s="12">
-        <v>7703039366</v>
+        <v>7703039368</v>
       </c>
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
       <c r="H186" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I186" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J186" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>2</v>
-      </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="15"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" s="12">
+        <v>7703039429</v>
+      </c>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="12">
-        <v>7703039367</v>
-      </c>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I187" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E188" s="12">
-        <v>7703039368</v>
-      </c>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I188" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="22"/>
-      <c r="G189" s="22"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="16"/>
-      <c r="J189" s="15"/>
+      <c r="I249" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" s="12">
+        <v>7703039430</v>
+      </c>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251" s="12">
-        <v>7703039429</v>
+        <v>7703039431</v>
       </c>
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
       <c r="H251" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252" s="12">
-        <v>7703039430</v>
+        <v>7703039432</v>
       </c>
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
       <c r="H252" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E253" s="12">
-        <v>7703039431</v>
+        <v>7703039433</v>
       </c>
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
       <c r="H253" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254" s="12">
-        <v>7703039432</v>
+        <v>7703039434</v>
       </c>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
       <c r="H254" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E255" s="12">
-        <v>7703039433</v>
+        <v>7703039435</v>
       </c>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
       <c r="H255" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256" s="12">
-        <v>7703039434</v>
+        <v>7703039436</v>
       </c>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
       <c r="H256" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E257" s="12">
-        <v>7703039435</v>
+        <v>7703039437</v>
       </c>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
       <c r="H257" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258" s="12">
-        <v>7703039436</v>
+        <v>7703039438</v>
       </c>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
       <c r="H258" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259" s="12">
-        <v>7703039437</v>
+        <v>7703039439</v>
       </c>
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
       <c r="H259" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260" s="12">
-        <v>7703039438</v>
+        <v>7703039440</v>
       </c>
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
       <c r="H260" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E261" s="12">
-        <v>7703039439</v>
+        <v>7703039441</v>
       </c>
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
       <c r="H261" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262" s="12">
-        <v>7703039440</v>
+        <v>7703039442</v>
       </c>
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
       <c r="H262" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" s="12">
-        <v>7703039441</v>
+        <v>7703039443</v>
       </c>
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
       <c r="H263" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E264" s="12">
-        <v>7703039442</v>
+        <v>7703039444</v>
       </c>
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
       <c r="H264" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265" s="12">
-        <v>7703039443</v>
+        <v>7703039445</v>
       </c>
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
       <c r="H265" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" s="12">
-        <v>7703039444</v>
+        <v>7703039446</v>
       </c>
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
       <c r="H266" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E267" s="12">
-        <v>7703039445</v>
+        <v>7703039447</v>
       </c>
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
       <c r="H267" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268" s="12">
-        <v>7703039446</v>
+        <v>7703039448</v>
       </c>
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
       <c r="H268" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269" s="12">
-        <v>7703039447</v>
+        <v>7703039449</v>
       </c>
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
       <c r="H269" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270" s="12">
-        <v>7703039448</v>
+        <v>7703039450</v>
       </c>
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
       <c r="H270" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271" s="12">
-        <v>7703039449</v>
+        <v>7703039451</v>
       </c>
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
       <c r="H271" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272" s="12">
-        <v>7703039450</v>
+        <v>7703039452</v>
       </c>
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
       <c r="H272" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" s="12">
-        <v>7703039451</v>
+        <v>7703039453</v>
       </c>
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
       <c r="H273" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E274" s="12">
-        <v>7703039452</v>
+        <v>7703039454</v>
       </c>
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
       <c r="H274" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" s="12">
-        <v>7703039453</v>
+        <v>7703039455</v>
       </c>
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
       <c r="H275" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E276" s="12">
-        <v>7703039454</v>
+        <v>7703039456</v>
       </c>
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
       <c r="H276" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E277" s="12">
-        <v>7703039455</v>
+        <v>7703039457</v>
       </c>
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
       <c r="H277" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E278" s="12">
-        <v>7703039456</v>
+        <v>7703039458</v>
       </c>
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
       <c r="H278" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I278" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E279" s="12">
-        <v>7703039457</v>
+        <v>7703039459</v>
       </c>
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
       <c r="H279" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280" s="12">
-        <v>7703039458</v>
+        <v>7703039460</v>
       </c>
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
       <c r="H280" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E281" s="12">
-        <v>7703039459</v>
+        <v>7703039461</v>
       </c>
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
       <c r="H281" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" s="12">
-        <v>7703039460</v>
+        <v>7703039462</v>
       </c>
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
       <c r="H282" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J282" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E283" s="12">
-        <v>7703039461</v>
+        <v>7703039463</v>
       </c>
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
       <c r="H283" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I283" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E284" s="12">
-        <v>7703039462</v>
+        <v>7703039464</v>
       </c>
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
       <c r="H284" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E285" s="12">
-        <v>7703039463</v>
+        <v>7703039465</v>
       </c>
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
       <c r="H285" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I285" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E286" s="12">
-        <v>7703039464</v>
+        <v>7703039466</v>
       </c>
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
       <c r="H286" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E287" s="12">
-        <v>7703039465</v>
+        <v>7703039467</v>
       </c>
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
       <c r="H287" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="5"/>
-      <c r="D288" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E288" s="12">
-        <v>7703039466</v>
-      </c>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I288" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J288" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C289" s="5"/>
-      <c r="D289" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E289" s="12">
-        <v>7703039467</v>
-      </c>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="8"/>
+      <c r="D288" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" s="13">
+        <v>7703039468</v>
+      </c>
+      <c r="F288" s="23"/>
+      <c r="G288" s="23"/>
+      <c r="H288" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I289" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J289" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>2</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="8"/>
-      <c r="D290" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E290" s="13">
-        <v>7703039468</v>
-      </c>
-      <c r="F290" s="23"/>
-      <c r="G290" s="23"/>
-      <c r="H290" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I290" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J290" s="8" t="s">
-        <v>48</v>
+      <c r="I288" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J288" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E750830-7B86-4B9F-B9F1-12EFA5048120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B9393-D15D-4B5D-8A18-1B7E5945B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="615" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039887</v>
+        <v>7703039888</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,6 +2741,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2749,15 +2758,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B9393-D15D-4B5D-8A18-1B7E5945B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C6F37-FA1F-4DDF-9ADF-C07822135BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="615" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039888</v>
+        <v>7703039890</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,15 +2741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2758,6 +2749,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C6F37-FA1F-4DDF-9ADF-C07822135BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE23A76-F85A-4242-9D10-C1C047DBF114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039890</v>
+        <v>7703039891</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,6 +2741,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2749,15 +2758,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE23A76-F85A-4242-9D10-C1C047DBF114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455C98E-275D-415E-95FC-FE5503103FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039891</v>
+        <v>7703039892</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,15 +2741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2758,6 +2749,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455C98E-275D-415E-95FC-FE5503103FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2186979-9B70-43E2-9BE3-7FAE64D3D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039892</v>
+        <v>7703039893</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,6 +2741,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2749,15 +2758,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2186979-9B70-43E2-9BE3-7FAE64D3D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CE6AD-B67A-4D68-A289-45AB275E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039893</v>
+        <v>7703039894</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -2741,15 +2741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2758,6 +2749,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CE6AD-B67A-4D68-A289-45AB275E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB62CE3B-4D22-43E1-86AE-5694C1F0E104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
   <si>
     <t>Usager</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>RenouvellementDeTitreSejour</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieQualifie</t>
+  </si>
+  <si>
+    <t>24/12/2022</t>
+  </si>
+  <si>
+    <t>23/12/2023</t>
   </si>
 </sst>
 </file>
@@ -924,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -985,16 +997,16 @@
         <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E2" s="11">
-        <v>7703039894</v>
+        <v>7703040623</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>59</v>
@@ -1003,6 +1015,102 @@
         <v>54</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11">
+        <v>7703040624</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7703040625</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7703039915</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB62CE3B-4D22-43E1-86AE-5694C1F0E104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210EAC7-4837-48C0-928C-41EF1C0D8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040623</v>
+        <v>7703040626</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>66</v>
@@ -1032,7 +1032,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="11">
-        <v>7703040624</v>
+        <v>7703040627</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>66</v>
@@ -1064,7 +1064,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="11">
-        <v>7703040625</v>
+        <v>7703040628</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>66</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>7703039915</v>
+        <v>7703039870</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>61</v>
@@ -2849,6 +2849,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2857,15 +2866,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3064,20 +3064,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210EAC7-4837-48C0-928C-41EF1C0D8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E0B57-4529-4B18-97A1-057289E8289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>58</v>
@@ -1000,7 +1000,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040626</v>
+        <v>7703040649</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>66</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>7703040627</v>
+        <v>7703039878</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>59</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>58</v>
@@ -1064,7 +1064,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="11">
-        <v>7703040628</v>
+        <v>7703040650</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>66</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E5" s="11">
-        <v>7703039870</v>
+        <v>7703040651</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>59</v>
@@ -2849,15 +2849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2866,6 +2857,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3064,20 +3064,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E0B57-4529-4B18-97A1-057289E8289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C91F4-1AE7-4CD7-AB3B-C55F0E54432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040649</v>
+        <v>7703040652</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>66</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>7703039878</v>
+        <v>7703039879</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>61</v>
@@ -1064,7 +1064,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="11">
-        <v>7703040650</v>
+        <v>7703040653</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>66</v>
@@ -1096,7 +1096,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="11">
-        <v>7703040651</v>
+        <v>7703040654</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>66</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C91F4-1AE7-4CD7-AB3B-C55F0E54432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE82B6F-FD47-4C38-BBAB-20660DA63C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$287</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="69">
   <si>
     <t>Usager</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>23/12/2023</t>
+  </si>
+  <si>
+    <t>23/12/20223</t>
   </si>
 </sst>
 </file>
@@ -934,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J288"/>
+  <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,13 +1003,13 @@
         <v>64</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040652</v>
+        <v>7703040664</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>59</v>
@@ -1029,16 +1032,16 @@
         <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11">
-        <v>7703039879</v>
+        <v>7703040665</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>59</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>58</v>
@@ -1064,7 +1067,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="11">
-        <v>7703040653</v>
+        <v>7703040666</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>66</v>
@@ -1087,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>7703040654</v>
+        <v>7703039883</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>59</v>
@@ -1114,6 +1117,32 @@
         <v>56</v>
       </c>
     </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="12">
+        <v>7703039343</v>
+      </c>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
@@ -1126,12 +1155,12 @@
         <v>1</v>
       </c>
       <c r="E161" s="12">
-        <v>7703039343</v>
+        <v>7703039344</v>
       </c>
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
       <c r="H161" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>44</v>
@@ -1152,12 +1181,12 @@
         <v>1</v>
       </c>
       <c r="E162" s="12">
-        <v>7703039344</v>
+        <v>7703039345</v>
       </c>
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>44</v>
@@ -1178,12 +1207,12 @@
         <v>1</v>
       </c>
       <c r="E163" s="12">
-        <v>7703039345</v>
+        <v>7703039346</v>
       </c>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
       <c r="H163" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>44</v>
@@ -1204,12 +1233,12 @@
         <v>1</v>
       </c>
       <c r="E164" s="12">
-        <v>7703039346</v>
+        <v>7703039347</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
       <c r="H164" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>44</v>
@@ -1230,12 +1259,12 @@
         <v>1</v>
       </c>
       <c r="E165" s="12">
-        <v>7703039347</v>
+        <v>7703039348</v>
       </c>
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
       <c r="H165" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>44</v>
@@ -1256,12 +1285,12 @@
         <v>1</v>
       </c>
       <c r="E166" s="12">
-        <v>7703039348</v>
+        <v>7703039349</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
       <c r="H166" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>44</v>
@@ -1282,12 +1311,12 @@
         <v>1</v>
       </c>
       <c r="E167" s="12">
-        <v>7703039349</v>
+        <v>7703039350</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
       <c r="H167" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>44</v>
@@ -1308,12 +1337,12 @@
         <v>1</v>
       </c>
       <c r="E168" s="12">
-        <v>7703039350</v>
+        <v>7703039351</v>
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
       <c r="H168" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>44</v>
@@ -1334,12 +1363,12 @@
         <v>1</v>
       </c>
       <c r="E169" s="12">
-        <v>7703039351</v>
+        <v>7703039352</v>
       </c>
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
       <c r="H169" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>44</v>
@@ -1360,12 +1389,12 @@
         <v>1</v>
       </c>
       <c r="E170" s="12">
-        <v>7703039352</v>
+        <v>7703039353</v>
       </c>
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
       <c r="H170" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>44</v>
@@ -1386,12 +1415,12 @@
         <v>1</v>
       </c>
       <c r="E171" s="12">
-        <v>7703039353</v>
+        <v>7703039354</v>
       </c>
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
       <c r="H171" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>44</v>
@@ -1412,12 +1441,12 @@
         <v>1</v>
       </c>
       <c r="E172" s="12">
-        <v>7703039354</v>
+        <v>7703039355</v>
       </c>
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
       <c r="H172" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>44</v>
@@ -1438,12 +1467,12 @@
         <v>1</v>
       </c>
       <c r="E173" s="12">
-        <v>7703039355</v>
+        <v>7703039356</v>
       </c>
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
       <c r="H173" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>44</v>
@@ -1464,12 +1493,12 @@
         <v>1</v>
       </c>
       <c r="E174" s="12">
-        <v>7703039356</v>
+        <v>7703039357</v>
       </c>
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
       <c r="H174" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>44</v>
@@ -1490,12 +1519,12 @@
         <v>1</v>
       </c>
       <c r="E175" s="12">
-        <v>7703039357</v>
+        <v>7703039358</v>
       </c>
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
       <c r="H175" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>44</v>
@@ -1516,12 +1545,12 @@
         <v>1</v>
       </c>
       <c r="E176" s="12">
-        <v>7703039358</v>
+        <v>7703039359</v>
       </c>
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
       <c r="H176" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>44</v>
@@ -1542,12 +1571,12 @@
         <v>1</v>
       </c>
       <c r="E177" s="12">
-        <v>7703039359</v>
+        <v>7703039360</v>
       </c>
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
       <c r="H177" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>44</v>
@@ -1568,12 +1597,12 @@
         <v>1</v>
       </c>
       <c r="E178" s="12">
-        <v>7703039360</v>
+        <v>7703039361</v>
       </c>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
       <c r="H178" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>44</v>
@@ -1594,12 +1623,12 @@
         <v>1</v>
       </c>
       <c r="E179" s="12">
-        <v>7703039361</v>
+        <v>7703039362</v>
       </c>
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
       <c r="H179" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>44</v>
@@ -1620,12 +1649,12 @@
         <v>1</v>
       </c>
       <c r="E180" s="12">
-        <v>7703039362</v>
+        <v>7703039363</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
       <c r="H180" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>44</v>
@@ -1646,12 +1675,12 @@
         <v>1</v>
       </c>
       <c r="E181" s="12">
-        <v>7703039363</v>
+        <v>7703039364</v>
       </c>
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
       <c r="H181" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>44</v>
@@ -1672,12 +1701,12 @@
         <v>1</v>
       </c>
       <c r="E182" s="12">
-        <v>7703039364</v>
+        <v>7703039365</v>
       </c>
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
       <c r="H182" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>44</v>
@@ -1698,12 +1727,12 @@
         <v>1</v>
       </c>
       <c r="E183" s="12">
-        <v>7703039365</v>
+        <v>7703039366</v>
       </c>
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
       <c r="H183" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>44</v>
@@ -1724,12 +1753,12 @@
         <v>1</v>
       </c>
       <c r="E184" s="12">
-        <v>7703039366</v>
+        <v>7703039367</v>
       </c>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
       <c r="H184" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>44</v>
@@ -1750,12 +1779,12 @@
         <v>1</v>
       </c>
       <c r="E185" s="12">
-        <v>7703039367</v>
+        <v>7703039368</v>
       </c>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
       <c r="H185" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>44</v>
@@ -1765,41 +1794,41 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E186" s="12">
-        <v>7703039368</v>
-      </c>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I186" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="22"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="16"/>
-      <c r="J187" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="15"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" s="12">
+        <v>7703039429</v>
+      </c>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -1813,12 +1842,12 @@
         <v>1</v>
       </c>
       <c r="E249" s="12">
-        <v>7703039429</v>
+        <v>7703039430</v>
       </c>
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
       <c r="H249" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I249" s="6" t="s">
         <v>46</v>
@@ -1839,12 +1868,12 @@
         <v>1</v>
       </c>
       <c r="E250" s="12">
-        <v>7703039430</v>
+        <v>7703039431</v>
       </c>
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
       <c r="H250" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I250" s="6" t="s">
         <v>46</v>
@@ -1865,12 +1894,12 @@
         <v>1</v>
       </c>
       <c r="E251" s="12">
-        <v>7703039431</v>
+        <v>7703039432</v>
       </c>
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
       <c r="H251" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I251" s="6" t="s">
         <v>46</v>
@@ -1891,12 +1920,12 @@
         <v>1</v>
       </c>
       <c r="E252" s="12">
-        <v>7703039432</v>
+        <v>7703039433</v>
       </c>
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
       <c r="H252" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I252" s="6" t="s">
         <v>46</v>
@@ -1917,12 +1946,12 @@
         <v>1</v>
       </c>
       <c r="E253" s="12">
-        <v>7703039433</v>
+        <v>7703039434</v>
       </c>
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
       <c r="H253" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I253" s="6" t="s">
         <v>46</v>
@@ -1943,12 +1972,12 @@
         <v>1</v>
       </c>
       <c r="E254" s="12">
-        <v>7703039434</v>
+        <v>7703039435</v>
       </c>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
       <c r="H254" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I254" s="6" t="s">
         <v>46</v>
@@ -1969,12 +1998,12 @@
         <v>1</v>
       </c>
       <c r="E255" s="12">
-        <v>7703039435</v>
+        <v>7703039436</v>
       </c>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
       <c r="H255" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I255" s="6" t="s">
         <v>46</v>
@@ -1995,12 +2024,12 @@
         <v>1</v>
       </c>
       <c r="E256" s="12">
-        <v>7703039436</v>
+        <v>7703039437</v>
       </c>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
       <c r="H256" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I256" s="6" t="s">
         <v>46</v>
@@ -2021,12 +2050,12 @@
         <v>1</v>
       </c>
       <c r="E257" s="12">
-        <v>7703039437</v>
+        <v>7703039438</v>
       </c>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
       <c r="H257" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I257" s="6" t="s">
         <v>46</v>
@@ -2047,12 +2076,12 @@
         <v>1</v>
       </c>
       <c r="E258" s="12">
-        <v>7703039438</v>
+        <v>7703039439</v>
       </c>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
       <c r="H258" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I258" s="6" t="s">
         <v>46</v>
@@ -2073,12 +2102,12 @@
         <v>1</v>
       </c>
       <c r="E259" s="12">
-        <v>7703039439</v>
+        <v>7703039440</v>
       </c>
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
       <c r="H259" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I259" s="6" t="s">
         <v>46</v>
@@ -2099,12 +2128,12 @@
         <v>1</v>
       </c>
       <c r="E260" s="12">
-        <v>7703039440</v>
+        <v>7703039441</v>
       </c>
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
       <c r="H260" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I260" s="6" t="s">
         <v>46</v>
@@ -2125,12 +2154,12 @@
         <v>1</v>
       </c>
       <c r="E261" s="12">
-        <v>7703039441</v>
+        <v>7703039442</v>
       </c>
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
       <c r="H261" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I261" s="6" t="s">
         <v>46</v>
@@ -2151,12 +2180,12 @@
         <v>1</v>
       </c>
       <c r="E262" s="12">
-        <v>7703039442</v>
+        <v>7703039443</v>
       </c>
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
       <c r="H262" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I262" s="6" t="s">
         <v>46</v>
@@ -2177,12 +2206,12 @@
         <v>1</v>
       </c>
       <c r="E263" s="12">
-        <v>7703039443</v>
+        <v>7703039444</v>
       </c>
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
       <c r="H263" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I263" s="6" t="s">
         <v>46</v>
@@ -2203,12 +2232,12 @@
         <v>1</v>
       </c>
       <c r="E264" s="12">
-        <v>7703039444</v>
+        <v>7703039445</v>
       </c>
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
       <c r="H264" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I264" s="6" t="s">
         <v>46</v>
@@ -2229,12 +2258,12 @@
         <v>1</v>
       </c>
       <c r="E265" s="12">
-        <v>7703039445</v>
+        <v>7703039446</v>
       </c>
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
       <c r="H265" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I265" s="6" t="s">
         <v>46</v>
@@ -2255,12 +2284,12 @@
         <v>1</v>
       </c>
       <c r="E266" s="12">
-        <v>7703039446</v>
+        <v>7703039447</v>
       </c>
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
       <c r="H266" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I266" s="6" t="s">
         <v>46</v>
@@ -2281,12 +2310,12 @@
         <v>1</v>
       </c>
       <c r="E267" s="12">
-        <v>7703039447</v>
+        <v>7703039448</v>
       </c>
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
       <c r="H267" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I267" s="6" t="s">
         <v>46</v>
@@ -2307,12 +2336,12 @@
         <v>1</v>
       </c>
       <c r="E268" s="12">
-        <v>7703039448</v>
+        <v>7703039449</v>
       </c>
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
       <c r="H268" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I268" s="6" t="s">
         <v>46</v>
@@ -2333,12 +2362,12 @@
         <v>1</v>
       </c>
       <c r="E269" s="12">
-        <v>7703039449</v>
+        <v>7703039450</v>
       </c>
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
       <c r="H269" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I269" s="6" t="s">
         <v>46</v>
@@ -2359,12 +2388,12 @@
         <v>1</v>
       </c>
       <c r="E270" s="12">
-        <v>7703039450</v>
+        <v>7703039451</v>
       </c>
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
       <c r="H270" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I270" s="6" t="s">
         <v>46</v>
@@ -2385,12 +2414,12 @@
         <v>1</v>
       </c>
       <c r="E271" s="12">
-        <v>7703039451</v>
+        <v>7703039452</v>
       </c>
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
       <c r="H271" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I271" s="6" t="s">
         <v>46</v>
@@ -2411,12 +2440,12 @@
         <v>1</v>
       </c>
       <c r="E272" s="12">
-        <v>7703039452</v>
+        <v>7703039453</v>
       </c>
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
       <c r="H272" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I272" s="6" t="s">
         <v>46</v>
@@ -2437,12 +2466,12 @@
         <v>1</v>
       </c>
       <c r="E273" s="12">
-        <v>7703039453</v>
+        <v>7703039454</v>
       </c>
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
       <c r="H273" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I273" s="6" t="s">
         <v>46</v>
@@ -2463,12 +2492,12 @@
         <v>1</v>
       </c>
       <c r="E274" s="12">
-        <v>7703039454</v>
+        <v>7703039455</v>
       </c>
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
       <c r="H274" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I274" s="6" t="s">
         <v>46</v>
@@ -2489,12 +2518,12 @@
         <v>1</v>
       </c>
       <c r="E275" s="12">
-        <v>7703039455</v>
+        <v>7703039456</v>
       </c>
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
       <c r="H275" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I275" s="6" t="s">
         <v>46</v>
@@ -2515,12 +2544,12 @@
         <v>1</v>
       </c>
       <c r="E276" s="12">
-        <v>7703039456</v>
+        <v>7703039457</v>
       </c>
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
       <c r="H276" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I276" s="6" t="s">
         <v>46</v>
@@ -2541,12 +2570,12 @@
         <v>1</v>
       </c>
       <c r="E277" s="12">
-        <v>7703039457</v>
+        <v>7703039458</v>
       </c>
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
       <c r="H277" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I277" s="6" t="s">
         <v>46</v>
@@ -2567,12 +2596,12 @@
         <v>1</v>
       </c>
       <c r="E278" s="12">
-        <v>7703039458</v>
+        <v>7703039459</v>
       </c>
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
       <c r="H278" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I278" s="6" t="s">
         <v>46</v>
@@ -2593,12 +2622,12 @@
         <v>1</v>
       </c>
       <c r="E279" s="12">
-        <v>7703039459</v>
+        <v>7703039460</v>
       </c>
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
       <c r="H279" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I279" s="6" t="s">
         <v>46</v>
@@ -2619,12 +2648,12 @@
         <v>1</v>
       </c>
       <c r="E280" s="12">
-        <v>7703039460</v>
+        <v>7703039461</v>
       </c>
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
       <c r="H280" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I280" s="6" t="s">
         <v>46</v>
@@ -2645,12 +2674,12 @@
         <v>1</v>
       </c>
       <c r="E281" s="12">
-        <v>7703039461</v>
+        <v>7703039462</v>
       </c>
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
       <c r="H281" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I281" s="6" t="s">
         <v>46</v>
@@ -2671,12 +2700,12 @@
         <v>1</v>
       </c>
       <c r="E282" s="12">
-        <v>7703039462</v>
+        <v>7703039463</v>
       </c>
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
       <c r="H282" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I282" s="6" t="s">
         <v>46</v>
@@ -2697,12 +2726,12 @@
         <v>1</v>
       </c>
       <c r="E283" s="12">
-        <v>7703039463</v>
+        <v>7703039464</v>
       </c>
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
       <c r="H283" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I283" s="6" t="s">
         <v>46</v>
@@ -2723,12 +2752,12 @@
         <v>1</v>
       </c>
       <c r="E284" s="12">
-        <v>7703039464</v>
+        <v>7703039465</v>
       </c>
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
       <c r="H284" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I284" s="6" t="s">
         <v>46</v>
@@ -2749,12 +2778,12 @@
         <v>1</v>
       </c>
       <c r="E285" s="12">
-        <v>7703039465</v>
+        <v>7703039466</v>
       </c>
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
       <c r="H285" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I285" s="6" t="s">
         <v>46</v>
@@ -2775,12 +2804,12 @@
         <v>1</v>
       </c>
       <c r="E286" s="12">
-        <v>7703039466</v>
+        <v>7703039467</v>
       </c>
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
       <c r="H286" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I286" s="6" t="s">
         <v>46</v>
@@ -2789,55 +2818,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="5"/>
-      <c r="D287" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E287" s="12">
-        <v>7703039467</v>
-      </c>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I287" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J287" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="8"/>
-      <c r="D288" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E288" s="13">
+      <c r="B287" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287" s="13">
         <v>7703039468</v>
       </c>
-      <c r="F288" s="23"/>
-      <c r="G288" s="23"/>
-      <c r="H288" s="8" t="s">
+      <c r="F287" s="23"/>
+      <c r="G287" s="23"/>
+      <c r="H287" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I288" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J288" s="8" t="s">
+      <c r="I287" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J287" s="8" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE82B6F-FD47-4C38-BBAB-20660DA63C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E13AC6-53E6-4E46-8EF5-37F275002176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
   <si>
     <t>Usager</t>
   </si>
@@ -227,9 +227,6 @@
     <t>01/12/2022</t>
   </si>
   <si>
-    <t>30/11/2023</t>
-  </si>
-  <si>
     <t>RenouvellementDeTitreSejour</t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>23/12/2023</t>
   </si>
   <si>
-    <t>23/12/20223</t>
+    <t>30/11/2022</t>
   </si>
 </sst>
 </file>
@@ -940,7 +937,7 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,22 +991,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040664</v>
+        <v>7703040673</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>59</v>
@@ -1026,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11">
-        <v>7703040665</v>
+        <v>7703040671</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>59</v>
@@ -1064,16 +1061,16 @@
         <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="11">
-        <v>7703040666</v>
+        <v>7703040674</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>59</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>58</v>
@@ -1099,13 +1096,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>7703039883</v>
+        <v>7703039885</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>59</v>
@@ -2852,6 +2849,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2860,15 +2866,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3067,20 +3064,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E13AC6-53E6-4E46-8EF5-37F275002176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3BE71-7208-4D11-837D-45AF5585740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$287</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="69">
   <si>
     <t>Usager</t>
   </si>
@@ -243,6 +244,9 @@
   </si>
   <si>
     <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>23/12/2029</t>
   </si>
 </sst>
 </file>
@@ -937,7 +941,7 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1004,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040673</v>
+        <v>7703040675</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>65</v>
@@ -1038,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>59</v>
@@ -1096,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>7703039885</v>
+        <v>7703039886</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>61</v>
@@ -2849,15 +2853,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2866,6 +2861,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3064,20 +3068,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3BE71-7208-4D11-837D-45AF5585740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980E4EC-2F6F-4079-971F-19093549A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$287</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -941,7 +940,7 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1003,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="11">
-        <v>7703040675</v>
+        <v>7703040676</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>65</v>
@@ -1100,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>7703039886</v>
+        <v>7703039887</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>61</v>
@@ -2853,6 +2852,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2861,15 +2869,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3068,20 +3067,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980E4EC-2F6F-4079-971F-19093549A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7649A02-7FB8-4318-AFA0-366C7A76B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$292</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="81">
   <si>
     <t>Usager</t>
   </si>
@@ -245,7 +245,43 @@
     <t>30/11/2022</t>
   </si>
   <si>
-    <t>23/12/2029</t>
+    <t>TS-PT-SalarieEntrepriseInnovante</t>
+  </si>
+  <si>
+    <t>TS-PT-CarteBleueEuropeenne</t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieEnMission</t>
+  </si>
+  <si>
+    <t>ChercheurEtChercheurEnMobilite</t>
+  </si>
+  <si>
+    <t>3 rue des 3 moulins 77000 melun</t>
+  </si>
+  <si>
+    <t>0911223345</t>
+  </si>
+  <si>
+    <t>1PMTYE991215114515JY04</t>
+  </si>
+  <si>
+    <t>FrenchTechVisaForInvestors</t>
+  </si>
+  <si>
+    <t>CreateurDEntreprise</t>
+  </si>
+  <si>
+    <t>FrenchTechVisaForFounders</t>
+  </si>
+  <si>
+    <t>MandataireSocial</t>
+  </si>
+  <si>
+    <t>Artiste</t>
+  </si>
+  <si>
+    <t>MembreDeFamillePasseportTalent_Conjoint</t>
   </si>
 </sst>
 </file>
@@ -301,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -523,18 +559,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,9 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,9 +739,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,6 +755,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,326 +1162,524 @@
     <col min="3" max="3" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="20" customWidth="1"/>
     <col min="8" max="8" width="45.28515625" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8">
+        <v>7703040691</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7703040692</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11">
-        <v>7703040676</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E4" s="8">
+        <v>7703040693</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J4" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:11" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8">
+        <v>7703040694</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7703040695</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7703040696</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7703040697</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7703040698</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7703040699</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7703040700</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7703040701</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7703040702</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8">
+        <v>7703040703</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="11">
-        <v>7703040671</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7703039889</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J15" s="41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="11">
-        <v>7703040674</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7703039887</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="12">
-        <v>7703039343</v>
-      </c>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J160" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E161" s="12">
-        <v>7703039344</v>
-      </c>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J161" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E162" s="12">
-        <v>7703039345</v>
-      </c>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E163" s="12">
-        <v>7703039346</v>
-      </c>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E164" s="12">
-        <v>7703039347</v>
-      </c>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="K15" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E165" s="12">
-        <v>7703039348</v>
-      </c>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I165" s="6" t="s">
+      <c r="B165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" s="9">
+        <v>7703039343</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J165" s="5" t="s">
+      <c r="J165" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1277,25 +1687,25 @@
       <c r="A166" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E166" s="12">
-        <v>7703039349</v>
-      </c>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I166" s="6" t="s">
+      <c r="B166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="9">
+        <v>7703039344</v>
+      </c>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J166" s="5" t="s">
+      <c r="J166" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1303,25 +1713,25 @@
       <c r="A167" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E167" s="12">
-        <v>7703039350</v>
-      </c>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I167" s="6" t="s">
+      <c r="B167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="9">
+        <v>7703039345</v>
+      </c>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J167" s="5" t="s">
+      <c r="J167" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1329,25 +1739,25 @@
       <c r="A168" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E168" s="12">
-        <v>7703039351</v>
-      </c>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I168" s="6" t="s">
+      <c r="B168" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="9">
+        <v>7703039346</v>
+      </c>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="J168" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1355,25 +1765,25 @@
       <c r="A169" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E169" s="12">
-        <v>7703039352</v>
-      </c>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I169" s="6" t="s">
+      <c r="B169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="9">
+        <v>7703039347</v>
+      </c>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J169" s="5" t="s">
+      <c r="J169" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1381,25 +1791,25 @@
       <c r="A170" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E170" s="12">
-        <v>7703039353</v>
-      </c>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I170" s="6" t="s">
+      <c r="B170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="9">
+        <v>7703039348</v>
+      </c>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J170" s="5" t="s">
+      <c r="J170" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1407,25 +1817,25 @@
       <c r="A171" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E171" s="12">
-        <v>7703039354</v>
-      </c>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I171" s="6" t="s">
+      <c r="B171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="9">
+        <v>7703039349</v>
+      </c>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J171" s="5" t="s">
+      <c r="J171" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1433,25 +1843,25 @@
       <c r="A172" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E172" s="12">
-        <v>7703039355</v>
-      </c>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I172" s="6" t="s">
+      <c r="B172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="9">
+        <v>7703039350</v>
+      </c>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J172" s="5" t="s">
+      <c r="J172" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1459,25 +1869,25 @@
       <c r="A173" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E173" s="12">
-        <v>7703039356</v>
-      </c>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I173" s="6" t="s">
+      <c r="B173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="9">
+        <v>7703039351</v>
+      </c>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J173" s="5" t="s">
+      <c r="J173" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1485,25 +1895,25 @@
       <c r="A174" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E174" s="12">
-        <v>7703039357</v>
-      </c>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I174" s="6" t="s">
+      <c r="B174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" s="9">
+        <v>7703039352</v>
+      </c>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J174" s="5" t="s">
+      <c r="J174" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1511,25 +1921,25 @@
       <c r="A175" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E175" s="12">
-        <v>7703039358</v>
-      </c>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I175" s="6" t="s">
+      <c r="B175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="9">
+        <v>7703039353</v>
+      </c>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J175" s="5" t="s">
+      <c r="J175" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1537,25 +1947,25 @@
       <c r="A176" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E176" s="12">
-        <v>7703039359</v>
-      </c>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I176" s="6" t="s">
+      <c r="B176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="9">
+        <v>7703039354</v>
+      </c>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J176" s="5" t="s">
+      <c r="J176" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1563,25 +1973,25 @@
       <c r="A177" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" s="12">
-        <v>7703039360</v>
-      </c>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I177" s="6" t="s">
+      <c r="B177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" s="9">
+        <v>7703039355</v>
+      </c>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I177" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J177" s="5" t="s">
+      <c r="J177" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1589,25 +1999,25 @@
       <c r="A178" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E178" s="12">
-        <v>7703039361</v>
-      </c>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I178" s="6" t="s">
+      <c r="B178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" s="9">
+        <v>7703039356</v>
+      </c>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J178" s="5" t="s">
+      <c r="J178" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1615,25 +2025,25 @@
       <c r="A179" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E179" s="12">
-        <v>7703039362</v>
-      </c>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I179" s="6" t="s">
+      <c r="B179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" s="9">
+        <v>7703039357</v>
+      </c>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J179" s="5" t="s">
+      <c r="J179" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1641,25 +2051,25 @@
       <c r="A180" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" s="12">
-        <v>7703039363</v>
-      </c>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I180" s="6" t="s">
+      <c r="B180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="9">
+        <v>7703039358</v>
+      </c>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I180" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J180" s="5" t="s">
+      <c r="J180" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1667,25 +2077,25 @@
       <c r="A181" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" s="12">
-        <v>7703039364</v>
-      </c>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I181" s="6" t="s">
+      <c r="B181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="9">
+        <v>7703039359</v>
+      </c>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J181" s="5" t="s">
+      <c r="J181" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1693,25 +2103,25 @@
       <c r="A182" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E182" s="12">
-        <v>7703039365</v>
-      </c>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I182" s="6" t="s">
+      <c r="B182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="9">
+        <v>7703039360</v>
+      </c>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J182" s="5" t="s">
+      <c r="J182" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1719,25 +2129,25 @@
       <c r="A183" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E183" s="12">
-        <v>7703039366</v>
-      </c>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I183" s="6" t="s">
+      <c r="B183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" s="9">
+        <v>7703039361</v>
+      </c>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I183" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J183" s="5" t="s">
+      <c r="J183" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1745,25 +2155,25 @@
       <c r="A184" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E184" s="12">
-        <v>7703039367</v>
-      </c>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I184" s="6" t="s">
+      <c r="B184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" s="9">
+        <v>7703039362</v>
+      </c>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I184" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J184" s="5" t="s">
+      <c r="J184" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1771,192 +2181,192 @@
       <c r="A185" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E185" s="12">
+      <c r="B185" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" s="9">
+        <v>7703039363</v>
+      </c>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="9">
+        <v>7703039364</v>
+      </c>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" s="9">
+        <v>7703039365</v>
+      </c>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" s="9">
+        <v>7703039366</v>
+      </c>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" s="9">
+        <v>7703039367</v>
+      </c>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" s="9">
         <v>7703039368</v>
       </c>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="5" t="s">
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I190" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J185" s="5" t="s">
+      <c r="J190" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="16"/>
-      <c r="J186" s="15"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>1</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="5"/>
-      <c r="D248" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E248" s="12">
-        <v>7703039429</v>
-      </c>
-      <c r="F248" s="21"/>
-      <c r="G248" s="21"/>
-      <c r="H248" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I248" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J248" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>1</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="5"/>
-      <c r="D249" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E249" s="12">
-        <v>7703039430</v>
-      </c>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I249" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J249" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="5"/>
-      <c r="D250" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E250" s="12">
-        <v>7703039431</v>
-      </c>
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
-      <c r="H250" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I250" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>1</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="5"/>
-      <c r="D251" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E251" s="12">
-        <v>7703039432</v>
-      </c>
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
-      <c r="H251" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J251" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>1</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="5"/>
-      <c r="D252" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E252" s="12">
-        <v>7703039433</v>
-      </c>
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
-      <c r="H252" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I252" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J252" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="12"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
-      <c r="B253" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="5"/>
-      <c r="D253" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E253" s="12">
-        <v>7703039434</v>
-      </c>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J253" s="5" t="s">
+      <c r="B253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" s="9">
+        <v>7703039429</v>
+      </c>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J253" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1964,25 +2374,25 @@
       <c r="A254" t="s">
         <v>1</v>
       </c>
-      <c r="B254" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E254" s="12">
-        <v>7703039435</v>
-      </c>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I254" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J254" s="5" t="s">
+      <c r="B254" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" s="9">
+        <v>7703039430</v>
+      </c>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J254" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1990,25 +2400,25 @@
       <c r="A255" t="s">
         <v>1</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E255" s="12">
-        <v>7703039436</v>
-      </c>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
-      <c r="H255" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I255" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J255" s="5" t="s">
+      <c r="B255" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" s="9">
+        <v>7703039431</v>
+      </c>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J255" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2016,25 +2426,25 @@
       <c r="A256" t="s">
         <v>1</v>
       </c>
-      <c r="B256" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="5"/>
-      <c r="D256" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E256" s="12">
-        <v>7703039437</v>
-      </c>
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
-      <c r="H256" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I256" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J256" s="5" t="s">
+      <c r="B256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256" s="9">
+        <v>7703039432</v>
+      </c>
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2042,25 +2452,25 @@
       <c r="A257" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="5"/>
-      <c r="D257" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E257" s="12">
-        <v>7703039438</v>
-      </c>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I257" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J257" s="5" t="s">
+      <c r="B257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257" s="9">
+        <v>7703039433</v>
+      </c>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J257" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2068,25 +2478,25 @@
       <c r="A258" t="s">
         <v>1</v>
       </c>
-      <c r="B258" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="5"/>
-      <c r="D258" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E258" s="12">
-        <v>7703039439</v>
-      </c>
-      <c r="F258" s="21"/>
-      <c r="G258" s="21"/>
-      <c r="H258" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I258" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J258" s="5" t="s">
+      <c r="B258" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258" s="9">
+        <v>7703039434</v>
+      </c>
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J258" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2094,25 +2504,25 @@
       <c r="A259" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E259" s="12">
-        <v>7703039440</v>
-      </c>
-      <c r="F259" s="21"/>
-      <c r="G259" s="21"/>
-      <c r="H259" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I259" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J259" s="5" t="s">
+      <c r="B259" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259" s="9">
+        <v>7703039435</v>
+      </c>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J259" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2120,25 +2530,25 @@
       <c r="A260" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E260" s="12">
-        <v>7703039441</v>
-      </c>
-      <c r="F260" s="21"/>
-      <c r="G260" s="21"/>
-      <c r="H260" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I260" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J260" s="5" t="s">
+      <c r="B260" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260" s="9">
+        <v>7703039436</v>
+      </c>
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J260" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2146,25 +2556,25 @@
       <c r="A261" t="s">
         <v>1</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E261" s="12">
-        <v>7703039442</v>
-      </c>
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
-      <c r="H261" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I261" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J261" s="5" t="s">
+      <c r="B261" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" s="9">
+        <v>7703039437</v>
+      </c>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J261" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2172,25 +2582,25 @@
       <c r="A262" t="s">
         <v>1</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" s="5"/>
-      <c r="D262" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E262" s="12">
-        <v>7703039443</v>
-      </c>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J262" s="5" t="s">
+      <c r="B262" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E262" s="9">
+        <v>7703039438</v>
+      </c>
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J262" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2198,25 +2608,25 @@
       <c r="A263" t="s">
         <v>1</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="5"/>
-      <c r="D263" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E263" s="12">
-        <v>7703039444</v>
-      </c>
-      <c r="F263" s="21"/>
-      <c r="G263" s="21"/>
-      <c r="H263" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J263" s="5" t="s">
+      <c r="B263" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263" s="9">
+        <v>7703039439</v>
+      </c>
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J263" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2224,25 +2634,25 @@
       <c r="A264" t="s">
         <v>1</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="5"/>
-      <c r="D264" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E264" s="12">
-        <v>7703039445</v>
-      </c>
-      <c r="F264" s="21"/>
-      <c r="G264" s="21"/>
-      <c r="H264" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I264" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J264" s="5" t="s">
+      <c r="B264" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264" s="9">
+        <v>7703039440</v>
+      </c>
+      <c r="F264" s="17"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J264" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2250,25 +2660,25 @@
       <c r="A265" t="s">
         <v>1</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="5"/>
-      <c r="D265" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E265" s="12">
-        <v>7703039446</v>
-      </c>
-      <c r="F265" s="21"/>
-      <c r="G265" s="21"/>
-      <c r="H265" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I265" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J265" s="5" t="s">
+      <c r="B265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E265" s="9">
+        <v>7703039441</v>
+      </c>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J265" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2276,25 +2686,25 @@
       <c r="A266" t="s">
         <v>1</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E266" s="12">
-        <v>7703039447</v>
-      </c>
-      <c r="F266" s="21"/>
-      <c r="G266" s="21"/>
-      <c r="H266" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I266" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J266" s="5" t="s">
+      <c r="B266" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="3"/>
+      <c r="D266" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E266" s="9">
+        <v>7703039442</v>
+      </c>
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J266" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2302,25 +2712,25 @@
       <c r="A267" t="s">
         <v>1</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E267" s="12">
-        <v>7703039448</v>
-      </c>
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
-      <c r="H267" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I267" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J267" s="5" t="s">
+      <c r="B267" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" s="9">
+        <v>7703039443</v>
+      </c>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J267" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2328,25 +2738,25 @@
       <c r="A268" t="s">
         <v>1</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E268" s="12">
-        <v>7703039449</v>
-      </c>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I268" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J268" s="5" t="s">
+      <c r="B268" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" s="9">
+        <v>7703039444</v>
+      </c>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J268" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2354,25 +2764,25 @@
       <c r="A269" t="s">
         <v>1</v>
       </c>
-      <c r="B269" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" s="5"/>
-      <c r="D269" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E269" s="12">
-        <v>7703039450</v>
-      </c>
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
-      <c r="H269" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I269" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J269" s="5" t="s">
+      <c r="B269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E269" s="9">
+        <v>7703039445</v>
+      </c>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J269" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2380,25 +2790,25 @@
       <c r="A270" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="5"/>
-      <c r="D270" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E270" s="12">
-        <v>7703039451</v>
-      </c>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
-      <c r="H270" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I270" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J270" s="5" t="s">
+      <c r="B270" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" s="9">
+        <v>7703039446</v>
+      </c>
+      <c r="F270" s="17"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J270" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2406,25 +2816,25 @@
       <c r="A271" t="s">
         <v>1</v>
       </c>
-      <c r="B271" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="5"/>
-      <c r="D271" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E271" s="12">
-        <v>7703039452</v>
-      </c>
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
-      <c r="H271" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I271" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J271" s="5" t="s">
+      <c r="B271" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E271" s="9">
+        <v>7703039447</v>
+      </c>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J271" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2432,25 +2842,25 @@
       <c r="A272" t="s">
         <v>1</v>
       </c>
-      <c r="B272" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="5"/>
-      <c r="D272" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E272" s="12">
-        <v>7703039453</v>
-      </c>
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
-      <c r="H272" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I272" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J272" s="5" t="s">
+      <c r="B272" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272" s="9">
+        <v>7703039448</v>
+      </c>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J272" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2458,25 +2868,25 @@
       <c r="A273" t="s">
         <v>1</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="5"/>
-      <c r="D273" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E273" s="12">
-        <v>7703039454</v>
-      </c>
-      <c r="F273" s="21"/>
-      <c r="G273" s="21"/>
-      <c r="H273" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J273" s="5" t="s">
+      <c r="B273" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273" s="9">
+        <v>7703039449</v>
+      </c>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J273" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2484,25 +2894,25 @@
       <c r="A274" t="s">
         <v>1</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="5"/>
-      <c r="D274" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E274" s="12">
-        <v>7703039455</v>
-      </c>
-      <c r="F274" s="21"/>
-      <c r="G274" s="21"/>
-      <c r="H274" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I274" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J274" s="5" t="s">
+      <c r="B274" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274" s="9">
+        <v>7703039450</v>
+      </c>
+      <c r="F274" s="17"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J274" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2510,25 +2920,25 @@
       <c r="A275" t="s">
         <v>1</v>
       </c>
-      <c r="B275" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="5"/>
-      <c r="D275" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E275" s="12">
-        <v>7703039456</v>
-      </c>
-      <c r="F275" s="21"/>
-      <c r="G275" s="21"/>
-      <c r="H275" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J275" s="5" t="s">
+      <c r="B275" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275" s="9">
+        <v>7703039451</v>
+      </c>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J275" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2536,25 +2946,25 @@
       <c r="A276" t="s">
         <v>1</v>
       </c>
-      <c r="B276" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" s="5"/>
-      <c r="D276" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E276" s="12">
-        <v>7703039457</v>
-      </c>
-      <c r="F276" s="21"/>
-      <c r="G276" s="21"/>
-      <c r="H276" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I276" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J276" s="5" t="s">
+      <c r="B276" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" s="9">
+        <v>7703039452</v>
+      </c>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
+      <c r="H276" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J276" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2562,25 +2972,25 @@
       <c r="A277" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="5"/>
-      <c r="D277" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E277" s="12">
-        <v>7703039458</v>
-      </c>
-      <c r="F277" s="21"/>
-      <c r="G277" s="21"/>
-      <c r="H277" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I277" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J277" s="5" t="s">
+      <c r="B277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E277" s="9">
+        <v>7703039453</v>
+      </c>
+      <c r="F277" s="17"/>
+      <c r="G277" s="17"/>
+      <c r="H277" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J277" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2588,25 +2998,25 @@
       <c r="A278" t="s">
         <v>1</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="5"/>
-      <c r="D278" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E278" s="12">
-        <v>7703039459</v>
-      </c>
-      <c r="F278" s="21"/>
-      <c r="G278" s="21"/>
-      <c r="H278" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I278" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J278" s="5" t="s">
+      <c r="B278" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278" s="9">
+        <v>7703039454</v>
+      </c>
+      <c r="F278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J278" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2614,25 +3024,25 @@
       <c r="A279" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="5"/>
-      <c r="D279" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E279" s="12">
-        <v>7703039460</v>
-      </c>
-      <c r="F279" s="21"/>
-      <c r="G279" s="21"/>
-      <c r="H279" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I279" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J279" s="5" t="s">
+      <c r="B279" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279" s="9">
+        <v>7703039455</v>
+      </c>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J279" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2640,25 +3050,25 @@
       <c r="A280" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280" s="5"/>
-      <c r="D280" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E280" s="12">
-        <v>7703039461</v>
-      </c>
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
-      <c r="H280" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I280" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J280" s="5" t="s">
+      <c r="B280" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280" s="9">
+        <v>7703039456</v>
+      </c>
+      <c r="F280" s="17"/>
+      <c r="G280" s="17"/>
+      <c r="H280" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J280" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2666,25 +3076,25 @@
       <c r="A281" t="s">
         <v>1</v>
       </c>
-      <c r="B281" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="5"/>
-      <c r="D281" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E281" s="12">
-        <v>7703039462</v>
-      </c>
-      <c r="F281" s="21"/>
-      <c r="G281" s="21"/>
-      <c r="H281" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I281" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J281" s="5" t="s">
+      <c r="B281" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" s="9">
+        <v>7703039457</v>
+      </c>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J281" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2692,25 +3102,25 @@
       <c r="A282" t="s">
         <v>1</v>
       </c>
-      <c r="B282" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="5"/>
-      <c r="D282" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E282" s="12">
-        <v>7703039463</v>
-      </c>
-      <c r="F282" s="21"/>
-      <c r="G282" s="21"/>
-      <c r="H282" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I282" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J282" s="5" t="s">
+      <c r="B282" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282" s="9">
+        <v>7703039458</v>
+      </c>
+      <c r="F282" s="17"/>
+      <c r="G282" s="17"/>
+      <c r="H282" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J282" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2718,25 +3128,25 @@
       <c r="A283" t="s">
         <v>1</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="5"/>
-      <c r="D283" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E283" s="12">
-        <v>7703039464</v>
-      </c>
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
-      <c r="H283" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I283" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J283" s="5" t="s">
+      <c r="B283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283" s="9">
+        <v>7703039459</v>
+      </c>
+      <c r="F283" s="17"/>
+      <c r="G283" s="17"/>
+      <c r="H283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J283" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2744,25 +3154,25 @@
       <c r="A284" t="s">
         <v>1</v>
       </c>
-      <c r="B284" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="5"/>
-      <c r="D284" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E284" s="12">
-        <v>7703039465</v>
-      </c>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I284" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J284" s="5" t="s">
+      <c r="B284" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284" s="9">
+        <v>7703039460</v>
+      </c>
+      <c r="F284" s="17"/>
+      <c r="G284" s="17"/>
+      <c r="H284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J284" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2770,25 +3180,25 @@
       <c r="A285" t="s">
         <v>1</v>
       </c>
-      <c r="B285" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="5"/>
-      <c r="D285" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E285" s="12">
-        <v>7703039466</v>
-      </c>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-      <c r="H285" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I285" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J285" s="5" t="s">
+      <c r="B285" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285" s="9">
+        <v>7703039461</v>
+      </c>
+      <c r="F285" s="17"/>
+      <c r="G285" s="17"/>
+      <c r="H285" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J285" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2796,51 +3206,181 @@
       <c r="A286" t="s">
         <v>1</v>
       </c>
-      <c r="B286" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286" s="5"/>
-      <c r="D286" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E286" s="12">
+      <c r="B286" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E286" s="9">
+        <v>7703039462</v>
+      </c>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287" s="9">
+        <v>7703039463</v>
+      </c>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" s="9">
+        <v>7703039464</v>
+      </c>
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289" s="9">
+        <v>7703039465</v>
+      </c>
+      <c r="F289" s="17"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" s="9">
+        <v>7703039466</v>
+      </c>
+      <c r="F290" s="17"/>
+      <c r="G290" s="17"/>
+      <c r="H290" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E291" s="9">
         <v>7703039467</v>
       </c>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-      <c r="H286" s="5" t="s">
+      <c r="F291" s="17"/>
+      <c r="G291" s="17"/>
+      <c r="H291" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I286" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J286" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>1</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="8"/>
-      <c r="D287" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E287" s="13">
+      <c r="I291" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="5"/>
+      <c r="D292" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292" s="10">
         <v>7703039468</v>
       </c>
-      <c r="F287" s="23"/>
-      <c r="G287" s="23"/>
-      <c r="H287" s="8" t="s">
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I287" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J287" s="8" t="s">
+      <c r="I292" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J292" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2852,15 +3392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2869,6 +3400,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3067,20 +3607,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7649A02-7FB8-4318-AFA0-366C7A76B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31550E2-8717-4C8F-8A52-5AD15088B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -1152,24 +1152,24 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="75.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="45.26953125" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040691</v>
+        <v>7703040704</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>
@@ -1233,7 +1233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8">
-        <v>7703040692</v>
+        <v>7703040705</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>65</v>
@@ -1265,7 +1265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8">
-        <v>7703040693</v>
+        <v>7703040706</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
@@ -1297,7 +1297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="8">
-        <v>7703040694</v>
+        <v>7703040707</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>65</v>
@@ -1329,7 +1329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
       <c r="D191" s="13"/>
@@ -2344,7 +2344,7 @@
       <c r="I191" s="13"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>1</v>
       </c>
@@ -3392,6 +3392,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3400,15 +3409,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,20 +3607,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31550E2-8717-4C8F-8A52-5AD15088B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6427F3-FA10-4027-9DD3-2A38212101A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040704</v>
+        <v>7703040708</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>
@@ -1247,7 +1247,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8">
-        <v>7703040705</v>
+        <v>7703040709</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>65</v>
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8">
-        <v>7703040706</v>
+        <v>7703040710</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
@@ -1311,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="8">
-        <v>7703040707</v>
+        <v>7703040711</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>65</v>
@@ -1343,7 +1343,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="8">
-        <v>7703040695</v>
+        <v>7703040712</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>65</v>
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="8">
-        <v>7703040696</v>
+        <v>7703040713</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>65</v>
@@ -1408,7 +1408,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="8">
-        <v>7703040697</v>
+        <v>7703040714</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>65</v>
@@ -1441,7 +1441,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="8">
-        <v>7703040698</v>
+        <v>7703040715</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>65</v>
@@ -1474,7 +1474,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="8">
-        <v>7703040699</v>
+        <v>7703040716</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>65</v>
@@ -1507,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8">
-        <v>7703040700</v>
+        <v>7703040717</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>65</v>
@@ -1540,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="8">
-        <v>7703040701</v>
+        <v>7703040718</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>65</v>
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="8">
-        <v>7703040702</v>
+        <v>7703040719</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>65</v>
@@ -1606,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="8">
-        <v>7703040703</v>
+        <v>7703040720</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>65</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>7703039889</v>
+        <v>7703039890</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>61</v>
@@ -3392,15 +3392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3409,6 +3400,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,20 +3607,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6427F3-FA10-4027-9DD3-2A38212101A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0A78B-8D38-427B-98DE-E38B91E06736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -1155,21 +1155,21 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="75.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040708</v>
+        <v>7703040720</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>
@@ -1233,7 +1233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8">
-        <v>7703040709</v>
+        <v>7703040721</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>65</v>
@@ -1265,7 +1265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8">
-        <v>7703040710</v>
+        <v>7703040722</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
@@ -1297,7 +1297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="8">
-        <v>7703040711</v>
+        <v>7703040723</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>65</v>
@@ -1329,7 +1329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="8">
-        <v>7703040712</v>
+        <v>7703040724</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>65</v>
@@ -1361,7 +1361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="8">
-        <v>7703040713</v>
+        <v>7703040725</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>65</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="8">
-        <v>7703040714</v>
+        <v>7703040726</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>65</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="8">
-        <v>7703040715</v>
+        <v>7703040727</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>65</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="8">
-        <v>7703040716</v>
+        <v>7703040728</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>65</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8">
-        <v>7703040717</v>
+        <v>7703040729</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>65</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="8">
-        <v>7703040718</v>
+        <v>7703040730</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>65</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="8">
-        <v>7703040719</v>
+        <v>7703040732</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>65</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="8">
-        <v>7703040720</v>
+        <v>7703040733</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>65</v>
@@ -1624,7 +1624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>7703039890</v>
+        <v>7703039891</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>61</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
       <c r="D191" s="13"/>
@@ -2344,7 +2344,7 @@
       <c r="I191" s="13"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1</v>
       </c>
@@ -3392,6 +3392,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3400,15 +3409,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,20 +3607,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0A78B-8D38-427B-98DE-E38B91E06736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A802A5-D472-4936-A7FF-98A3761F3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040720</v>
+        <v>7703040734</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>
@@ -1247,7 +1247,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8">
-        <v>7703040721</v>
+        <v>7703040735</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>65</v>
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8">
-        <v>7703040722</v>
+        <v>7703040736</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
@@ -1311,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="8">
-        <v>7703040723</v>
+        <v>7703040737</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>65</v>
@@ -1343,7 +1343,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="8">
-        <v>7703040724</v>
+        <v>7703040738</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>65</v>
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="8">
-        <v>7703040725</v>
+        <v>7703040739</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>65</v>
@@ -1408,7 +1408,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="8">
-        <v>7703040726</v>
+        <v>7703040740</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>65</v>
@@ -1441,7 +1441,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="8">
-        <v>7703040727</v>
+        <v>7703040741</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>65</v>
@@ -1474,7 +1474,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="8">
-        <v>7703040728</v>
+        <v>7703040742</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>65</v>
@@ -1507,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8">
-        <v>7703040729</v>
+        <v>7703040743</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>65</v>
@@ -1540,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="8">
-        <v>7703040730</v>
+        <v>7703040744</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>65</v>
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="8">
-        <v>7703040732</v>
+        <v>7703040745</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>65</v>
@@ -1606,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="8">
-        <v>7703040733</v>
+        <v>7703040746</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>65</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A802A5-D472-4936-A7FF-98A3761F3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7592CA04-0725-425A-B881-22BDDC9A4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040734</v>
+        <v>7703040730</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7592CA04-0725-425A-B881-22BDDC9A4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE68F9-EB6C-4F21-8F31-1999B3D755EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040730</v>
+        <v>7703040749</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>65</v>
@@ -1247,7 +1247,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8">
-        <v>7703040735</v>
+        <v>7703040750</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>65</v>
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8">
-        <v>7703040736</v>
+        <v>7703040751</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
@@ -1311,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="8">
-        <v>7703040737</v>
+        <v>7703040752</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>65</v>
@@ -1343,7 +1343,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="8">
-        <v>7703040738</v>
+        <v>7703040753</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>65</v>
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="8">
-        <v>7703040739</v>
+        <v>7703040754</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>65</v>
@@ -1408,7 +1408,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="8">
-        <v>7703040740</v>
+        <v>7703040755</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>65</v>
@@ -1441,7 +1441,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="8">
-        <v>7703040741</v>
+        <v>7703040756</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>65</v>
@@ -1474,7 +1474,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="8">
-        <v>7703040742</v>
+        <v>7703040757</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>65</v>
@@ -1507,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8">
-        <v>7703040743</v>
+        <v>7703040758</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>65</v>
@@ -1540,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="8">
-        <v>7703040744</v>
+        <v>7703040759</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>65</v>
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="8">
-        <v>7703040745</v>
+        <v>7703040760</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>65</v>
@@ -1606,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="8">
-        <v>7703040746</v>
+        <v>7703040745</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>65</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE68F9-EB6C-4F21-8F31-1999B3D755EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26E561-FF5D-4C7E-A5A3-5E082CCCA9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$279</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
   <si>
     <t>Usager</t>
   </si>
@@ -224,64 +224,16 @@
     <t>Profiles</t>
   </si>
   <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
     <t>RenouvellementDeTitreSejour</t>
   </si>
   <si>
     <t>Etudiant</t>
   </si>
   <si>
-    <t>TS-PT-SalarieQualifie</t>
-  </si>
-  <si>
     <t>24/12/2022</t>
   </si>
   <si>
     <t>23/12/2023</t>
-  </si>
-  <si>
-    <t>30/11/2022</t>
-  </si>
-  <si>
-    <t>TS-PT-SalarieEntrepriseInnovante</t>
-  </si>
-  <si>
-    <t>TS-PT-CarteBleueEuropeenne</t>
-  </si>
-  <si>
-    <t>TS-PT-SalarieEnMission</t>
-  </si>
-  <si>
-    <t>ChercheurEtChercheurEnMobilite</t>
-  </si>
-  <si>
-    <t>3 rue des 3 moulins 77000 melun</t>
-  </si>
-  <si>
-    <t>0911223345</t>
-  </si>
-  <si>
-    <t>1PMTYE991215114515JY04</t>
-  </si>
-  <si>
-    <t>FrenchTechVisaForInvestors</t>
-  </si>
-  <si>
-    <t>CreateurDEntreprise</t>
-  </si>
-  <si>
-    <t>FrenchTechVisaForFounders</t>
-  </si>
-  <si>
-    <t>MandataireSocial</t>
-  </si>
-  <si>
-    <t>Artiste</t>
-  </si>
-  <si>
-    <t>MembreDeFamillePasseportTalent_Conjoint</t>
   </si>
 </sst>
 </file>
@@ -337,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -346,7 +298,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -355,37 +307,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -448,19 +370,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -573,143 +482,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,97 +530,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +935,7 @@
     <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1201,27 +967,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8">
+        <v>7703040770</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="8">
-        <v>7703040749</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>59</v>
@@ -1229,433 +995,347 @@
       <c r="I2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="8">
-        <v>7703040750</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="8">
-        <v>7703040751</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="8">
-        <v>7703040752</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="8">
-        <v>7703040753</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8">
-        <v>7703040754</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="8">
-        <v>7703040755</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="8">
-        <v>7703040756</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="8">
-        <v>7703040757</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="8">
-        <v>7703040758</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7703040759</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="8">
-        <v>7703040760</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="8">
-        <v>7703040745</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>7703039891</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="35"/>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" s="9">
+        <v>7703039343</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="9">
+        <v>7703039344</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="9">
+        <v>7703039345</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="9">
+        <v>7703039346</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="9">
+        <v>7703039347</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="9">
+        <v>7703039348</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="9">
+        <v>7703039349</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" s="9">
+        <v>7703039350</v>
+      </c>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="9">
+        <v>7703039351</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" s="9">
+        <v>7703039352</v>
+      </c>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="9">
+        <v>7703039353</v>
+      </c>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="9">
+        <v>7703039354</v>
+      </c>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" s="9">
+        <v>7703039355</v>
+      </c>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -1669,12 +1349,12 @@
         <v>1</v>
       </c>
       <c r="E165" s="9">
-        <v>7703039343</v>
+        <v>7703039356</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
       <c r="H165" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>44</v>
@@ -1695,12 +1375,12 @@
         <v>1</v>
       </c>
       <c r="E166" s="9">
-        <v>7703039344</v>
+        <v>7703039357</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
       <c r="H166" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>44</v>
@@ -1721,12 +1401,12 @@
         <v>1</v>
       </c>
       <c r="E167" s="9">
-        <v>7703039345</v>
+        <v>7703039358</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
       <c r="H167" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>44</v>
@@ -1747,12 +1427,12 @@
         <v>1</v>
       </c>
       <c r="E168" s="9">
-        <v>7703039346</v>
+        <v>7703039359</v>
       </c>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
       <c r="H168" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>44</v>
@@ -1773,12 +1453,12 @@
         <v>1</v>
       </c>
       <c r="E169" s="9">
-        <v>7703039347</v>
+        <v>7703039360</v>
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
       <c r="H169" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>44</v>
@@ -1799,12 +1479,12 @@
         <v>1</v>
       </c>
       <c r="E170" s="9">
-        <v>7703039348</v>
+        <v>7703039361</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
       <c r="H170" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>44</v>
@@ -1825,12 +1505,12 @@
         <v>1</v>
       </c>
       <c r="E171" s="9">
-        <v>7703039349</v>
+        <v>7703039362</v>
       </c>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
       <c r="H171" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>44</v>
@@ -1851,12 +1531,12 @@
         <v>1</v>
       </c>
       <c r="E172" s="9">
-        <v>7703039350</v>
+        <v>7703039363</v>
       </c>
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
       <c r="H172" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I172" s="4" t="s">
         <v>44</v>
@@ -1877,12 +1557,12 @@
         <v>1</v>
       </c>
       <c r="E173" s="9">
-        <v>7703039351</v>
+        <v>7703039364</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
       <c r="H173" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>44</v>
@@ -1903,12 +1583,12 @@
         <v>1</v>
       </c>
       <c r="E174" s="9">
-        <v>7703039352</v>
+        <v>7703039365</v>
       </c>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
       <c r="H174" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>44</v>
@@ -1929,12 +1609,12 @@
         <v>1</v>
       </c>
       <c r="E175" s="9">
-        <v>7703039353</v>
+        <v>7703039366</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
       <c r="H175" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I175" s="4" t="s">
         <v>44</v>
@@ -1955,12 +1635,12 @@
         <v>1</v>
       </c>
       <c r="E176" s="9">
-        <v>7703039354</v>
+        <v>7703039367</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
       <c r="H176" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>44</v>
@@ -1981,12 +1661,12 @@
         <v>1</v>
       </c>
       <c r="E177" s="9">
-        <v>7703039355</v>
+        <v>7703039368</v>
       </c>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
       <c r="H177" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>44</v>
@@ -1996,353 +1676,353 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E178" s="9">
-        <v>7703039356</v>
-      </c>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E179" s="9">
-        <v>7703039357</v>
-      </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" s="9">
-        <v>7703039358</v>
-      </c>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" s="9">
-        <v>7703039359</v>
-      </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E182" s="9">
-        <v>7703039360</v>
-      </c>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E183" s="9">
-        <v>7703039361</v>
-      </c>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E184" s="9">
-        <v>7703039362</v>
-      </c>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E185" s="9">
-        <v>7703039363</v>
-      </c>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E186" s="9">
-        <v>7703039364</v>
-      </c>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E187" s="9">
-        <v>7703039365</v>
-      </c>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I187" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J187" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E188" s="9">
-        <v>7703039366</v>
-      </c>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I188" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E189" s="9">
-        <v>7703039367</v>
-      </c>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J189" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E190" s="9">
-        <v>7703039368</v>
-      </c>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I190" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J190" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="12"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" s="9">
+        <v>7703039429</v>
+      </c>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" s="9">
+        <v>7703039430</v>
+      </c>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" s="9">
+        <v>7703039431</v>
+      </c>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" s="9">
+        <v>7703039432</v>
+      </c>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244" s="9">
+        <v>7703039433</v>
+      </c>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" s="9">
+        <v>7703039434</v>
+      </c>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" s="9">
+        <v>7703039435</v>
+      </c>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" s="9">
+        <v>7703039436</v>
+      </c>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" s="9">
+        <v>7703039437</v>
+      </c>
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" s="9">
+        <v>7703039438</v>
+      </c>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" s="9">
+        <v>7703039439</v>
+      </c>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" s="9">
+        <v>7703039440</v>
+      </c>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" s="9">
+        <v>7703039441</v>
+      </c>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -2356,12 +2036,12 @@
         <v>1</v>
       </c>
       <c r="E253" s="9">
-        <v>7703039429</v>
+        <v>7703039442</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
       <c r="H253" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>46</v>
@@ -2382,12 +2062,12 @@
         <v>1</v>
       </c>
       <c r="E254" s="9">
-        <v>7703039430</v>
+        <v>7703039443</v>
       </c>
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
       <c r="H254" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I254" s="4" t="s">
         <v>46</v>
@@ -2408,12 +2088,12 @@
         <v>1</v>
       </c>
       <c r="E255" s="9">
-        <v>7703039431</v>
+        <v>7703039444</v>
       </c>
       <c r="F255" s="17"/>
       <c r="G255" s="17"/>
       <c r="H255" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I255" s="4" t="s">
         <v>46</v>
@@ -2434,12 +2114,12 @@
         <v>1</v>
       </c>
       <c r="E256" s="9">
-        <v>7703039432</v>
+        <v>7703039445</v>
       </c>
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
       <c r="H256" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>46</v>
@@ -2460,12 +2140,12 @@
         <v>1</v>
       </c>
       <c r="E257" s="9">
-        <v>7703039433</v>
+        <v>7703039446</v>
       </c>
       <c r="F257" s="17"/>
       <c r="G257" s="17"/>
       <c r="H257" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>46</v>
@@ -2486,12 +2166,12 @@
         <v>1</v>
       </c>
       <c r="E258" s="9">
-        <v>7703039434</v>
+        <v>7703039447</v>
       </c>
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
       <c r="H258" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I258" s="4" t="s">
         <v>46</v>
@@ -2512,12 +2192,12 @@
         <v>1</v>
       </c>
       <c r="E259" s="9">
-        <v>7703039435</v>
+        <v>7703039448</v>
       </c>
       <c r="F259" s="17"/>
       <c r="G259" s="17"/>
       <c r="H259" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I259" s="4" t="s">
         <v>46</v>
@@ -2538,12 +2218,12 @@
         <v>1</v>
       </c>
       <c r="E260" s="9">
-        <v>7703039436</v>
+        <v>7703039449</v>
       </c>
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
       <c r="H260" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I260" s="4" t="s">
         <v>46</v>
@@ -2564,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="E261" s="9">
-        <v>7703039437</v>
+        <v>7703039450</v>
       </c>
       <c r="F261" s="17"/>
       <c r="G261" s="17"/>
       <c r="H261" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I261" s="4" t="s">
         <v>46</v>
@@ -2590,12 +2270,12 @@
         <v>1</v>
       </c>
       <c r="E262" s="9">
-        <v>7703039438</v>
+        <v>7703039451</v>
       </c>
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
       <c r="H262" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I262" s="4" t="s">
         <v>46</v>
@@ -2616,12 +2296,12 @@
         <v>1</v>
       </c>
       <c r="E263" s="9">
-        <v>7703039439</v>
+        <v>7703039452</v>
       </c>
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
       <c r="H263" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I263" s="4" t="s">
         <v>46</v>
@@ -2642,12 +2322,12 @@
         <v>1</v>
       </c>
       <c r="E264" s="9">
-        <v>7703039440</v>
+        <v>7703039453</v>
       </c>
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
       <c r="H264" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I264" s="4" t="s">
         <v>46</v>
@@ -2668,12 +2348,12 @@
         <v>1</v>
       </c>
       <c r="E265" s="9">
-        <v>7703039441</v>
+        <v>7703039454</v>
       </c>
       <c r="F265" s="17"/>
       <c r="G265" s="17"/>
       <c r="H265" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I265" s="4" t="s">
         <v>46</v>
@@ -2694,12 +2374,12 @@
         <v>1</v>
       </c>
       <c r="E266" s="9">
-        <v>7703039442</v>
+        <v>7703039455</v>
       </c>
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
       <c r="H266" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I266" s="4" t="s">
         <v>46</v>
@@ -2720,12 +2400,12 @@
         <v>1</v>
       </c>
       <c r="E267" s="9">
-        <v>7703039443</v>
+        <v>7703039456</v>
       </c>
       <c r="F267" s="17"/>
       <c r="G267" s="17"/>
       <c r="H267" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>46</v>
@@ -2746,12 +2426,12 @@
         <v>1</v>
       </c>
       <c r="E268" s="9">
-        <v>7703039444</v>
+        <v>7703039457</v>
       </c>
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
       <c r="H268" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>46</v>
@@ -2772,12 +2452,12 @@
         <v>1</v>
       </c>
       <c r="E269" s="9">
-        <v>7703039445</v>
+        <v>7703039458</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
       <c r="H269" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I269" s="4" t="s">
         <v>46</v>
@@ -2798,12 +2478,12 @@
         <v>1</v>
       </c>
       <c r="E270" s="9">
-        <v>7703039446</v>
+        <v>7703039459</v>
       </c>
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
       <c r="H270" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I270" s="4" t="s">
         <v>46</v>
@@ -2824,12 +2504,12 @@
         <v>1</v>
       </c>
       <c r="E271" s="9">
-        <v>7703039447</v>
+        <v>7703039460</v>
       </c>
       <c r="F271" s="17"/>
       <c r="G271" s="17"/>
       <c r="H271" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I271" s="4" t="s">
         <v>46</v>
@@ -2850,12 +2530,12 @@
         <v>1</v>
       </c>
       <c r="E272" s="9">
-        <v>7703039448</v>
+        <v>7703039461</v>
       </c>
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
       <c r="H272" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I272" s="4" t="s">
         <v>46</v>
@@ -2876,12 +2556,12 @@
         <v>1</v>
       </c>
       <c r="E273" s="9">
-        <v>7703039449</v>
+        <v>7703039462</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
       <c r="H273" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I273" s="4" t="s">
         <v>46</v>
@@ -2902,12 +2582,12 @@
         <v>1</v>
       </c>
       <c r="E274" s="9">
-        <v>7703039450</v>
+        <v>7703039463</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
       <c r="H274" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I274" s="4" t="s">
         <v>46</v>
@@ -2928,12 +2608,12 @@
         <v>1</v>
       </c>
       <c r="E275" s="9">
-        <v>7703039451</v>
+        <v>7703039464</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
       <c r="H275" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I275" s="4" t="s">
         <v>46</v>
@@ -2954,12 +2634,12 @@
         <v>1</v>
       </c>
       <c r="E276" s="9">
-        <v>7703039452</v>
+        <v>7703039465</v>
       </c>
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
       <c r="H276" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I276" s="4" t="s">
         <v>46</v>
@@ -2980,12 +2660,12 @@
         <v>1</v>
       </c>
       <c r="E277" s="9">
-        <v>7703039453</v>
+        <v>7703039466</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="17"/>
       <c r="H277" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I277" s="4" t="s">
         <v>46</v>
@@ -3006,12 +2686,12 @@
         <v>1</v>
       </c>
       <c r="E278" s="9">
-        <v>7703039454</v>
+        <v>7703039467</v>
       </c>
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
       <c r="H278" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I278" s="4" t="s">
         <v>46</v>
@@ -3020,367 +2700,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="3"/>
-      <c r="D279" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E279" s="9">
-        <v>7703039455</v>
-      </c>
-      <c r="F279" s="17"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J279" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>1</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E280" s="9">
-        <v>7703039456</v>
-      </c>
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J280" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>1</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E281" s="9">
-        <v>7703039457</v>
-      </c>
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J281" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="3"/>
-      <c r="D282" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E282" s="9">
-        <v>7703039458</v>
-      </c>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J282" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>1</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E283" s="9">
-        <v>7703039459</v>
-      </c>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I283" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J283" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>1</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="3"/>
-      <c r="D284" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E284" s="9">
-        <v>7703039460</v>
-      </c>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I284" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J284" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E285" s="9">
-        <v>7703039461</v>
-      </c>
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I285" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J285" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>1</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286" s="3"/>
-      <c r="D286" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E286" s="9">
-        <v>7703039462</v>
-      </c>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J286" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="3"/>
-      <c r="D287" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E287" s="9">
-        <v>7703039463</v>
-      </c>
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I287" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J287" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="3"/>
-      <c r="D288" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E288" s="9">
-        <v>7703039464</v>
-      </c>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I288" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J288" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>1</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E289" s="9">
-        <v>7703039465</v>
-      </c>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J289" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>1</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E290" s="9">
-        <v>7703039466</v>
-      </c>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I290" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J290" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E291" s="9">
-        <v>7703039467</v>
-      </c>
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J291" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>1</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="5"/>
-      <c r="D292" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E292" s="10">
+      <c r="B279" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="5"/>
+      <c r="D279" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279" s="10">
         <v>7703039468</v>
       </c>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="5" t="s">
+      <c r="F279" s="19"/>
+      <c r="G279" s="19"/>
+      <c r="H279" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I292" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J292" s="5" t="s">
+      <c r="I279" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J279" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3392,15 +2734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3409,6 +2742,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,20 +2949,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26E561-FF5D-4C7E-A5A3-5E082CCCA9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F94A13A-1D54-482F-A94B-4FE8A8AF67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="66">
   <si>
     <t>Usager</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>23/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +984,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040770</v>
+        <v>7703040771</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>63</v>
@@ -997,6 +1000,11 @@
       </c>
       <c r="J2" s="27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F94A13A-1D54-482F-A94B-4FE8A8AF67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F2567-A1D8-460A-8DAD-B6EFCAEF61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="8">
-        <v>7703040771</v>
+        <v>7703040772</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>63</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F2567-A1D8-460A-8DAD-B6EFCAEF61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46515A1F-5822-4E9E-B28C-0AF7575227D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$J$279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$279</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="68">
   <si>
     <t>Usager</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Profiles</t>
   </si>
   <si>
-    <t>RenouvellementDeTitreSejour</t>
-  </si>
-  <si>
     <t>Etudiant</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieQualifie</t>
+  </si>
+  <si>
+    <t>EnvExec</t>
+  </si>
+  <si>
+    <t>URL_ANEFPreProd</t>
   </si>
 </sst>
 </file>
@@ -918,1819 +924,2024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:K279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="8">
+        <v>7703040787</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="8">
-        <v>7703040772</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E152" s="9">
+      <c r="C152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="9">
         <v>7703039343</v>
       </c>
-      <c r="F152" s="17"/>
       <c r="G152" s="17"/>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="17"/>
+      <c r="I152" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I152" s="4" t="s">
+      <c r="J152" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" s="9">
+      <c r="C153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="9">
         <v>7703039344</v>
       </c>
-      <c r="F153" s="17"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="17"/>
+      <c r="I153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I153" s="4" t="s">
+      <c r="J153" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="K153" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" s="9">
+      <c r="C154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" s="9">
         <v>7703039345</v>
       </c>
-      <c r="F154" s="17"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="17"/>
+      <c r="I154" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="4" t="s">
+      <c r="J154" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="K154" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E155" s="9">
+      <c r="C155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="9">
         <v>7703039346</v>
       </c>
-      <c r="F155" s="17"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="17"/>
+      <c r="I155" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="4" t="s">
+      <c r="J155" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="K155" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" s="9">
+      <c r="C156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="9">
         <v>7703039347</v>
       </c>
-      <c r="F156" s="17"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="17"/>
+      <c r="I156" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I156" s="4" t="s">
+      <c r="J156" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="K156" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E157" s="9">
+      <c r="C157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="9">
         <v>7703039348</v>
       </c>
-      <c r="F157" s="17"/>
       <c r="G157" s="17"/>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="17"/>
+      <c r="I157" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I157" s="4" t="s">
+      <c r="J157" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="K157" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E158" s="9">
+      <c r="C158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="9">
         <v>7703039349</v>
       </c>
-      <c r="F158" s="17"/>
       <c r="G158" s="17"/>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="17"/>
+      <c r="I158" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I158" s="4" t="s">
+      <c r="J158" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="K158" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E159" s="9">
+      <c r="C159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9">
         <v>7703039350</v>
       </c>
-      <c r="F159" s="17"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="17"/>
+      <c r="I159" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I159" s="4" t="s">
+      <c r="J159" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="K159" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="9">
+      <c r="C160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="9">
         <v>7703039351</v>
       </c>
-      <c r="F160" s="17"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="17"/>
+      <c r="I160" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I160" s="4" t="s">
+      <c r="J160" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="K160" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E161" s="9">
+      <c r="C161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="9">
         <v>7703039352</v>
       </c>
-      <c r="F161" s="17"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="17"/>
+      <c r="I161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="J161" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="K161" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E162" s="9">
+      <c r="C162" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="9">
         <v>7703039353</v>
       </c>
-      <c r="F162" s="17"/>
       <c r="G162" s="17"/>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="17"/>
+      <c r="I162" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I162" s="4" t="s">
+      <c r="J162" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="K162" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E163" s="9">
+      <c r="C163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="9">
         <v>7703039354</v>
       </c>
-      <c r="F163" s="17"/>
       <c r="G163" s="17"/>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="17"/>
+      <c r="I163" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I163" s="4" t="s">
+      <c r="J163" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="K163" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E164" s="9">
+      <c r="C164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="9">
         <v>7703039355</v>
       </c>
-      <c r="F164" s="17"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="17"/>
+      <c r="I164" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I164" s="4" t="s">
+      <c r="J164" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="K164" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E165" s="9">
+      <c r="C165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="9">
         <v>7703039356</v>
       </c>
-      <c r="F165" s="17"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="17"/>
+      <c r="I165" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I165" s="4" t="s">
+      <c r="J165" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="K165" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E166" s="9">
+      <c r="C166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="9">
         <v>7703039357</v>
       </c>
-      <c r="F166" s="17"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="17"/>
+      <c r="I166" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="J166" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="K166" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E167" s="9">
+      <c r="C167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="9">
         <v>7703039358</v>
       </c>
-      <c r="F167" s="17"/>
       <c r="G167" s="17"/>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="17"/>
+      <c r="I167" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I167" s="4" t="s">
+      <c r="J167" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="K167" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E168" s="9">
+      <c r="C168" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="9">
         <v>7703039359</v>
       </c>
-      <c r="F168" s="17"/>
       <c r="G168" s="17"/>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="17"/>
+      <c r="I168" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I168" s="4" t="s">
+      <c r="J168" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="K168" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E169" s="9">
+      <c r="C169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9">
         <v>7703039360</v>
       </c>
-      <c r="F169" s="17"/>
       <c r="G169" s="17"/>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="17"/>
+      <c r="I169" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I169" s="4" t="s">
+      <c r="J169" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="K169" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E170" s="9">
+      <c r="C170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="9">
         <v>7703039361</v>
       </c>
-      <c r="F170" s="17"/>
       <c r="G170" s="17"/>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="17"/>
+      <c r="I170" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I170" s="4" t="s">
+      <c r="J170" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="K170" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E171" s="9">
+      <c r="C171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9">
         <v>7703039362</v>
       </c>
-      <c r="F171" s="17"/>
       <c r="G171" s="17"/>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="17"/>
+      <c r="I171" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="J171" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="K171" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E172" s="9">
+      <c r="C172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9">
         <v>7703039363</v>
       </c>
-      <c r="F172" s="17"/>
       <c r="G172" s="17"/>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="17"/>
+      <c r="I172" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I172" s="4" t="s">
+      <c r="J172" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="K172" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E173" s="9">
+      <c r="C173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" s="9">
         <v>7703039364</v>
       </c>
-      <c r="F173" s="17"/>
       <c r="G173" s="17"/>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="17"/>
+      <c r="I173" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I173" s="4" t="s">
+      <c r="J173" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="K173" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E174" s="9">
+      <c r="C174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="9">
         <v>7703039365</v>
       </c>
-      <c r="F174" s="17"/>
       <c r="G174" s="17"/>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="17"/>
+      <c r="I174" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I174" s="4" t="s">
+      <c r="J174" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="K174" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E175" s="9">
+      <c r="C175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9">
         <v>7703039366</v>
       </c>
-      <c r="F175" s="17"/>
       <c r="G175" s="17"/>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="17"/>
+      <c r="I175" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I175" s="4" t="s">
+      <c r="J175" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="K175" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E176" s="9">
+      <c r="C176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="9">
         <v>7703039367</v>
       </c>
-      <c r="F176" s="17"/>
       <c r="G176" s="17"/>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="17"/>
+      <c r="I176" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="J176" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="K176" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" s="9">
+      <c r="C177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="9">
         <v>7703039368</v>
       </c>
-      <c r="F177" s="17"/>
       <c r="G177" s="17"/>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="17"/>
+      <c r="I177" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="J177" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="K177" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="18"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="11"/>
       <c r="G178" s="18"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="12"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="18"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="12"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E240" s="9">
+      <c r="C240" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="9">
         <v>7703039429</v>
       </c>
-      <c r="F240" s="17"/>
       <c r="G240" s="17"/>
-      <c r="H240" s="3" t="s">
+      <c r="H240" s="17"/>
+      <c r="I240" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I240" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J240" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J240" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E241" s="9">
+      <c r="C241" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241" s="9">
         <v>7703039430</v>
       </c>
-      <c r="F241" s="17"/>
       <c r="G241" s="17"/>
-      <c r="H241" s="3" t="s">
+      <c r="H241" s="17"/>
+      <c r="I241" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I241" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J241" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E242" s="9">
+      <c r="C242" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="9">
         <v>7703039431</v>
       </c>
-      <c r="F242" s="17"/>
       <c r="G242" s="17"/>
-      <c r="H242" s="3" t="s">
+      <c r="H242" s="17"/>
+      <c r="I242" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I242" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J242" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E243" s="9">
+      <c r="C243" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F243" s="9">
         <v>7703039432</v>
       </c>
-      <c r="F243" s="17"/>
       <c r="G243" s="17"/>
-      <c r="H243" s="3" t="s">
+      <c r="H243" s="17"/>
+      <c r="I243" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I243" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J243" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E244" s="9">
+      <c r="C244" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="9">
         <v>7703039433</v>
       </c>
-      <c r="F244" s="17"/>
       <c r="G244" s="17"/>
-      <c r="H244" s="3" t="s">
+      <c r="H244" s="17"/>
+      <c r="I244" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I244" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J244" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E245" s="9">
+      <c r="C245" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="9">
         <v>7703039434</v>
       </c>
-      <c r="F245" s="17"/>
       <c r="G245" s="17"/>
-      <c r="H245" s="3" t="s">
+      <c r="H245" s="17"/>
+      <c r="I245" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I245" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J245" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E246" s="9">
+      <c r="C246" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" s="9">
         <v>7703039435</v>
       </c>
-      <c r="F246" s="17"/>
       <c r="G246" s="17"/>
-      <c r="H246" s="3" t="s">
+      <c r="H246" s="17"/>
+      <c r="I246" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I246" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J246" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E247" s="9">
+      <c r="C247" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247" s="9">
         <v>7703039436</v>
       </c>
-      <c r="F247" s="17"/>
       <c r="G247" s="17"/>
-      <c r="H247" s="3" t="s">
+      <c r="H247" s="17"/>
+      <c r="I247" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I247" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J247" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J247" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E248" s="9">
+      <c r="C248" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" s="9">
         <v>7703039437</v>
       </c>
-      <c r="F248" s="17"/>
       <c r="G248" s="17"/>
-      <c r="H248" s="3" t="s">
+      <c r="H248" s="17"/>
+      <c r="I248" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J248" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J248" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E249" s="9">
+      <c r="C249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249" s="9">
         <v>7703039438</v>
       </c>
-      <c r="F249" s="17"/>
       <c r="G249" s="17"/>
-      <c r="H249" s="3" t="s">
+      <c r="H249" s="17"/>
+      <c r="I249" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J249" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E250" s="9">
+      <c r="C250" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250" s="9">
         <v>7703039439</v>
       </c>
-      <c r="F250" s="17"/>
       <c r="G250" s="17"/>
-      <c r="H250" s="3" t="s">
+      <c r="H250" s="17"/>
+      <c r="I250" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I250" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J250" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E251" s="9">
+      <c r="C251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251" s="9">
         <v>7703039440</v>
       </c>
-      <c r="F251" s="17"/>
       <c r="G251" s="17"/>
-      <c r="H251" s="3" t="s">
+      <c r="H251" s="17"/>
+      <c r="I251" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I251" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J251" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E252" s="9">
+      <c r="C252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F252" s="9">
         <v>7703039441</v>
       </c>
-      <c r="F252" s="17"/>
       <c r="G252" s="17"/>
-      <c r="H252" s="3" t="s">
+      <c r="H252" s="17"/>
+      <c r="I252" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I252" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J252" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J252" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E253" s="9">
+      <c r="C253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F253" s="9">
         <v>7703039442</v>
       </c>
-      <c r="F253" s="17"/>
       <c r="G253" s="17"/>
-      <c r="H253" s="3" t="s">
+      <c r="H253" s="17"/>
+      <c r="I253" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I253" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J253" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E254" s="9">
+      <c r="C254" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F254" s="9">
         <v>7703039443</v>
       </c>
-      <c r="F254" s="17"/>
       <c r="G254" s="17"/>
-      <c r="H254" s="3" t="s">
+      <c r="H254" s="17"/>
+      <c r="I254" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I254" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J254" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E255" s="9">
+      <c r="C255" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F255" s="9">
         <v>7703039444</v>
       </c>
-      <c r="F255" s="17"/>
       <c r="G255" s="17"/>
-      <c r="H255" s="3" t="s">
+      <c r="H255" s="17"/>
+      <c r="I255" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I255" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J255" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E256" s="9">
+      <c r="C256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F256" s="9">
         <v>7703039445</v>
       </c>
-      <c r="F256" s="17"/>
       <c r="G256" s="17"/>
-      <c r="H256" s="3" t="s">
+      <c r="H256" s="17"/>
+      <c r="I256" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I256" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J256" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E257" s="9">
+      <c r="C257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F257" s="9">
         <v>7703039446</v>
       </c>
-      <c r="F257" s="17"/>
       <c r="G257" s="17"/>
-      <c r="H257" s="3" t="s">
+      <c r="H257" s="17"/>
+      <c r="I257" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I257" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J257" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J257" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E258" s="9">
+      <c r="C258" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="3"/>
+      <c r="E258" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" s="9">
         <v>7703039447</v>
       </c>
-      <c r="F258" s="17"/>
       <c r="G258" s="17"/>
-      <c r="H258" s="3" t="s">
+      <c r="H258" s="17"/>
+      <c r="I258" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I258" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J258" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J258" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E259" s="9">
+      <c r="C259" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F259" s="9">
         <v>7703039448</v>
       </c>
-      <c r="F259" s="17"/>
       <c r="G259" s="17"/>
-      <c r="H259" s="3" t="s">
+      <c r="H259" s="17"/>
+      <c r="I259" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I259" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J259" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J259" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E260" s="9">
+      <c r="C260" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F260" s="9">
         <v>7703039449</v>
       </c>
-      <c r="F260" s="17"/>
       <c r="G260" s="17"/>
-      <c r="H260" s="3" t="s">
+      <c r="H260" s="17"/>
+      <c r="I260" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J260" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J260" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E261" s="9">
+      <c r="C261" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F261" s="9">
         <v>7703039450</v>
       </c>
-      <c r="F261" s="17"/>
       <c r="G261" s="17"/>
-      <c r="H261" s="3" t="s">
+      <c r="H261" s="17"/>
+      <c r="I261" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I261" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J261" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J261" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E262" s="9">
+      <c r="C262" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F262" s="9">
         <v>7703039451</v>
       </c>
-      <c r="F262" s="17"/>
       <c r="G262" s="17"/>
-      <c r="H262" s="3" t="s">
+      <c r="H262" s="17"/>
+      <c r="I262" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I262" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J262" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E263" s="9">
+      <c r="C263" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F263" s="9">
         <v>7703039452</v>
       </c>
-      <c r="F263" s="17"/>
       <c r="G263" s="17"/>
-      <c r="H263" s="3" t="s">
+      <c r="H263" s="17"/>
+      <c r="I263" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I263" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J263" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J263" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E264" s="9">
+      <c r="C264" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F264" s="9">
         <v>7703039453</v>
       </c>
-      <c r="F264" s="17"/>
       <c r="G264" s="17"/>
-      <c r="H264" s="3" t="s">
+      <c r="H264" s="17"/>
+      <c r="I264" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I264" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J264" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J264" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E265" s="9">
+      <c r="C265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F265" s="9">
         <v>7703039454</v>
       </c>
-      <c r="F265" s="17"/>
       <c r="G265" s="17"/>
-      <c r="H265" s="3" t="s">
+      <c r="H265" s="17"/>
+      <c r="I265" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I265" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J265" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J265" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="3"/>
-      <c r="D266" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E266" s="9">
+      <c r="C266" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F266" s="9">
         <v>7703039455</v>
       </c>
-      <c r="F266" s="17"/>
       <c r="G266" s="17"/>
-      <c r="H266" s="3" t="s">
+      <c r="H266" s="17"/>
+      <c r="I266" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I266" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J266" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C267" s="3"/>
-      <c r="D267" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E267" s="9">
+      <c r="C267" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F267" s="9">
         <v>7703039456</v>
       </c>
-      <c r="F267" s="17"/>
       <c r="G267" s="17"/>
-      <c r="H267" s="3" t="s">
+      <c r="H267" s="17"/>
+      <c r="I267" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I267" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J267" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J267" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="3"/>
-      <c r="D268" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E268" s="9">
+      <c r="C268" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F268" s="9">
         <v>7703039457</v>
       </c>
-      <c r="F268" s="17"/>
       <c r="G268" s="17"/>
-      <c r="H268" s="3" t="s">
+      <c r="H268" s="17"/>
+      <c r="I268" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I268" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J268" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E269" s="9">
+      <c r="C269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D269" s="3"/>
+      <c r="E269" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F269" s="9">
         <v>7703039458</v>
       </c>
-      <c r="F269" s="17"/>
       <c r="G269" s="17"/>
-      <c r="H269" s="3" t="s">
+      <c r="H269" s="17"/>
+      <c r="I269" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I269" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J269" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E270" s="9">
+      <c r="C270" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F270" s="9">
         <v>7703039459</v>
       </c>
-      <c r="F270" s="17"/>
       <c r="G270" s="17"/>
-      <c r="H270" s="3" t="s">
+      <c r="H270" s="17"/>
+      <c r="I270" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I270" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J270" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J270" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C271" s="3"/>
-      <c r="D271" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E271" s="9">
+      <c r="C271" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D271" s="3"/>
+      <c r="E271" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F271" s="9">
         <v>7703039460</v>
       </c>
-      <c r="F271" s="17"/>
       <c r="G271" s="17"/>
-      <c r="H271" s="3" t="s">
+      <c r="H271" s="17"/>
+      <c r="I271" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I271" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J271" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J271" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E272" s="9">
+      <c r="C272" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F272" s="9">
         <v>7703039461</v>
       </c>
-      <c r="F272" s="17"/>
       <c r="G272" s="17"/>
-      <c r="H272" s="3" t="s">
+      <c r="H272" s="17"/>
+      <c r="I272" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I272" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J272" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J272" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E273" s="9">
+      <c r="C273" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F273" s="9">
         <v>7703039462</v>
       </c>
-      <c r="F273" s="17"/>
       <c r="G273" s="17"/>
-      <c r="H273" s="3" t="s">
+      <c r="H273" s="17"/>
+      <c r="I273" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I273" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J273" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J273" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E274" s="9">
+      <c r="C274" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274" s="9">
         <v>7703039463</v>
       </c>
-      <c r="F274" s="17"/>
       <c r="G274" s="17"/>
-      <c r="H274" s="3" t="s">
+      <c r="H274" s="17"/>
+      <c r="I274" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I274" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J274" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J274" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E275" s="9">
+      <c r="C275" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275" s="9">
         <v>7703039464</v>
       </c>
-      <c r="F275" s="17"/>
       <c r="G275" s="17"/>
-      <c r="H275" s="3" t="s">
+      <c r="H275" s="17"/>
+      <c r="I275" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J275" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J275" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C276" s="3"/>
-      <c r="D276" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E276" s="9">
+      <c r="C276" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F276" s="9">
         <v>7703039465</v>
       </c>
-      <c r="F276" s="17"/>
       <c r="G276" s="17"/>
-      <c r="H276" s="3" t="s">
+      <c r="H276" s="17"/>
+      <c r="I276" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I276" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J276" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J276" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C277" s="3"/>
-      <c r="D277" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E277" s="9">
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" s="9">
         <v>7703039466</v>
       </c>
-      <c r="F277" s="17"/>
       <c r="G277" s="17"/>
-      <c r="H277" s="3" t="s">
+      <c r="H277" s="17"/>
+      <c r="I277" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J277" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J277" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E278" s="9">
+      <c r="C278" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278" s="9">
         <v>7703039467</v>
       </c>
-      <c r="F278" s="17"/>
       <c r="G278" s="17"/>
-      <c r="H278" s="3" t="s">
+      <c r="H278" s="17"/>
+      <c r="I278" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I278" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J278" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J278" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C279" s="5"/>
-      <c r="D279" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E279" s="10">
+      <c r="C279" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F279" s="10">
         <v>7703039468</v>
       </c>
-      <c r="F279" s="19"/>
       <c r="G279" s="19"/>
-      <c r="H279" s="5" t="s">
+      <c r="H279" s="19"/>
+      <c r="I279" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I279" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J279" s="5" t="s">
+      <c r="J279" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K279" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2742,26 +2953,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -2956,26 +3147,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
-    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2992,4 +3184,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
+    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\21_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46515A1F-5822-4E9E-B28C-0AF7575227D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E2858-28D9-4B1B-B952-2AAF0126C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -236,13 +236,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>TS-PT-SalarieQualifie</t>
-  </si>
-  <si>
     <t>EnvExec</t>
   </si>
   <si>
     <t>URL_ANEFPreProd</t>
+  </si>
+  <si>
+    <t>ArtisteSalarie</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,7 +582,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -644,9 +643,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,26 +678,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,26 +713,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -927,29 +892,29 @@
   <dimension ref="A1:K279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>53</v>
@@ -979,15 +944,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>58</v>
@@ -996,7 +961,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040787</v>
+        <v>7703040788</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1010,16 +975,16 @@
       <c r="J2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
@@ -1785,7 +1750,7 @@
       <c r="J178" s="13"/>
       <c r="K178" s="12"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -1814,7 +1779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -1901,7 +1866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -1930,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +1924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2017,7 +1982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2278,7 +2243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -2365,7 +2330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -2452,7 +2417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +2475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -2684,7 +2649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +2707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +2736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -2800,7 +2765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -2829,7 +2794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -2858,7 +2823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -2949,6 +2914,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;9&amp;K000000 Interne</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3148,15 +3116,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3165,6 +3124,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3187,14 +3155,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3203,4 +3163,18 @@
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{4af293e6-3850-4258-b2c7-0aa0e3bfa7d9}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\21_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\21_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E2858-28D9-4B1B-B952-2AAF0126C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266DDE1-48FD-40B5-818D-F2EF0A4866B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -603,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,9 +643,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,9 +678,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,9 +730,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -892,24 +926,24 @@
   <dimension ref="A1:K279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="3" width="75.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -944,7 +978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -961,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040788</v>
+        <v>7703040793</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -979,12 +1013,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1651,7 +1685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -1680,7 +1714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
@@ -1750,7 +1784,7 @@
       <c r="J178" s="13"/>
       <c r="K178" s="12"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +1900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +1929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2156,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2185,7 +2219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -2417,7 +2451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +2480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2475,7 +2509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -2562,7 +2596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2736,7 +2770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +2828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -2881,7 +2915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -3116,6 +3150,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -3124,15 +3167,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3155,6 +3189,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3165,14 +3207,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{4af293e6-3850-4258-b2c7-0aa0e3bfa7d9}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="3" removed="0"/>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\21_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266DDE1-48FD-40B5-818D-F2EF0A4866B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FABDA9-0BAD-46C7-BD7F-4CF3D3AE49E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:K279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040793</v>
+        <v>7703040794</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -2955,6 +2955,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3149,27 +3169,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
+    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3188,25 +3207,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
-    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{4af293e6-3850-4258-b2c7-0aa0e3bfa7d9}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="3" removed="0"/>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\21_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FABDA9-0BAD-46C7-BD7F-4CF3D3AE49E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC495C-9740-4F93-B83B-205D49D1E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040794</v>
+        <v>7703040850</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -2955,6 +2955,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
@@ -2963,15 +2972,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3170,20 +3170,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
     <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\21_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC495C-9740-4F93-B83B-205D49D1E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513A4A2-144C-4943-9860-26B36770B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-370" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$277</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="85">
   <si>
     <t>Usager</t>
   </si>
@@ -233,9 +233,6 @@
     <t>23/12/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>EnvExec</t>
   </si>
   <si>
@@ -243,6 +240,60 @@
   </si>
   <si>
     <t>ArtisteSalarie</t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieEntrepriseInnovante</t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieQualifie</t>
+  </si>
+  <si>
+    <t>ArtisteNonSalarie</t>
+  </si>
+  <si>
+    <t>TS-PT-CarteBleueEuropeenne</t>
+  </si>
+  <si>
+    <t>TS-PT-SalarieEnMission</t>
+  </si>
+  <si>
+    <t>ChercheurEtChercheurEnMobilite</t>
+  </si>
+  <si>
+    <t>1PMTYE991215114515JY04</t>
+  </si>
+  <si>
+    <t>FrenchTechVisaForInvestors</t>
+  </si>
+  <si>
+    <t>3 rue des 3 moulins 77000 melun</t>
+  </si>
+  <si>
+    <t>0911223345</t>
+  </si>
+  <si>
+    <t>CreateurDEntreprise</t>
+  </si>
+  <si>
+    <t>FrenchTechVisaForFounders</t>
+  </si>
+  <si>
+    <t>MandataireSocial</t>
+  </si>
+  <si>
+    <t>MembreDeFamillePasseportTalent_Conjoint</t>
+  </si>
+  <si>
+    <t>RenouvellementDeTitreSejour</t>
+  </si>
+  <si>
+    <t>01/12/2022</t>
+  </si>
+  <si>
+    <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>URL_ANEFQualif</t>
   </si>
 </sst>
 </file>
@@ -298,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -503,11 +554,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,6 +785,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,9 +840,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,9 +880,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,26 +915,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,26 +950,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -923,32 +1126,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K279"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>53</v>
@@ -978,24 +1181,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040850</v>
+        <v>7703040877</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1003,22 +1206,537 @@
       <c r="H2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7703040882</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7703040879</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7703040874</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7703040851</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7703040880</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7703040853</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7703040855</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7703040856</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8">
+        <v>7703040857</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7703040858</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7703040862</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8">
+        <v>7703040863</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7703040864</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="9">
+        <v>7703039343</v>
+      </c>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="9">
+        <v>7703039344</v>
+      </c>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1033,12 +1751,12 @@
         <v>1</v>
       </c>
       <c r="F152" s="9">
-        <v>7703039343</v>
+        <v>7703039345</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>44</v>
@@ -1047,7 +1765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1062,12 +1780,12 @@
         <v>1</v>
       </c>
       <c r="F153" s="9">
-        <v>7703039344</v>
+        <v>7703039346</v>
       </c>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>44</v>
@@ -1076,7 +1794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1091,12 +1809,12 @@
         <v>1</v>
       </c>
       <c r="F154" s="9">
-        <v>7703039345</v>
+        <v>7703039347</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>44</v>
@@ -1105,7 +1823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1120,12 +1838,12 @@
         <v>1</v>
       </c>
       <c r="F155" s="9">
-        <v>7703039346</v>
+        <v>7703039348</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
       <c r="I155" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>44</v>
@@ -1134,7 +1852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1149,12 +1867,12 @@
         <v>1</v>
       </c>
       <c r="F156" s="9">
-        <v>7703039347</v>
+        <v>7703039349</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
       <c r="I156" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>44</v>
@@ -1163,7 +1881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1178,12 +1896,12 @@
         <v>1</v>
       </c>
       <c r="F157" s="9">
-        <v>7703039348</v>
+        <v>7703039350</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
       <c r="I157" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>44</v>
@@ -1192,7 +1910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1207,12 +1925,12 @@
         <v>1</v>
       </c>
       <c r="F158" s="9">
-        <v>7703039349</v>
+        <v>7703039351</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>44</v>
@@ -1221,7 +1939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1236,12 +1954,12 @@
         <v>1</v>
       </c>
       <c r="F159" s="9">
-        <v>7703039350</v>
+        <v>7703039352</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>44</v>
@@ -1250,7 +1968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -1265,12 +1983,12 @@
         <v>1</v>
       </c>
       <c r="F160" s="9">
-        <v>7703039351</v>
+        <v>7703039353</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
       <c r="I160" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>44</v>
@@ -1279,7 +1997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -1294,12 +2012,12 @@
         <v>1</v>
       </c>
       <c r="F161" s="9">
-        <v>7703039352</v>
+        <v>7703039354</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>44</v>
@@ -1308,7 +2026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -1323,12 +2041,12 @@
         <v>1</v>
       </c>
       <c r="F162" s="9">
-        <v>7703039353</v>
+        <v>7703039355</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>44</v>
@@ -1337,7 +2055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -1352,12 +2070,12 @@
         <v>1</v>
       </c>
       <c r="F163" s="9">
-        <v>7703039354</v>
+        <v>7703039356</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>44</v>
@@ -1366,7 +2084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -1381,12 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F164" s="9">
-        <v>7703039355</v>
+        <v>7703039357</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>44</v>
@@ -1395,7 +2113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1410,12 +2128,12 @@
         <v>1</v>
       </c>
       <c r="F165" s="9">
-        <v>7703039356</v>
+        <v>7703039358</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>44</v>
@@ -1424,7 +2142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -1439,12 +2157,12 @@
         <v>1</v>
       </c>
       <c r="F166" s="9">
-        <v>7703039357</v>
+        <v>7703039359</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>44</v>
@@ -1453,7 +2171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -1468,12 +2186,12 @@
         <v>1</v>
       </c>
       <c r="F167" s="9">
-        <v>7703039358</v>
+        <v>7703039360</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>44</v>
@@ -1482,7 +2200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -1497,12 +2215,12 @@
         <v>1</v>
       </c>
       <c r="F168" s="9">
-        <v>7703039359</v>
+        <v>7703039361</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>44</v>
@@ -1511,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -1526,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="F169" s="9">
-        <v>7703039360</v>
+        <v>7703039362</v>
       </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>44</v>
@@ -1540,7 +2258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -1555,12 +2273,12 @@
         <v>1</v>
       </c>
       <c r="F170" s="9">
-        <v>7703039361</v>
+        <v>7703039363</v>
       </c>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>44</v>
@@ -1569,7 +2287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -1584,12 +2302,12 @@
         <v>1</v>
       </c>
       <c r="F171" s="9">
-        <v>7703039362</v>
+        <v>7703039364</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>44</v>
@@ -1598,7 +2316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -1613,12 +2331,12 @@
         <v>1</v>
       </c>
       <c r="F172" s="9">
-        <v>7703039363</v>
+        <v>7703039365</v>
       </c>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>44</v>
@@ -1627,7 +2345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -1642,12 +2360,12 @@
         <v>1</v>
       </c>
       <c r="F173" s="9">
-        <v>7703039364</v>
+        <v>7703039366</v>
       </c>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>44</v>
@@ -1656,7 +2374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1671,12 +2389,12 @@
         <v>1</v>
       </c>
       <c r="F174" s="9">
-        <v>7703039365</v>
+        <v>7703039367</v>
       </c>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
       <c r="I174" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>44</v>
@@ -1685,7 +2403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -1700,12 +2418,12 @@
         <v>1</v>
       </c>
       <c r="F175" s="9">
-        <v>7703039366</v>
+        <v>7703039368</v>
       </c>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
       <c r="I175" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>44</v>
@@ -1714,77 +2432,77 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F176" s="9">
-        <v>7703039367</v>
-      </c>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F177" s="9">
-        <v>7703039368</v>
-      </c>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="12"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="12"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238" s="9">
+        <v>7703039429</v>
+      </c>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" s="9">
+        <v>7703039430</v>
+      </c>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -1799,12 +2517,12 @@
         <v>1</v>
       </c>
       <c r="F240" s="9">
-        <v>7703039429</v>
+        <v>7703039431</v>
       </c>
       <c r="G240" s="17"/>
       <c r="H240" s="17"/>
       <c r="I240" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>46</v>
@@ -1813,7 +2531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -1828,12 +2546,12 @@
         <v>1</v>
       </c>
       <c r="F241" s="9">
-        <v>7703039430</v>
+        <v>7703039432</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="17"/>
       <c r="I241" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>46</v>
@@ -1842,7 +2560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -1857,12 +2575,12 @@
         <v>1</v>
       </c>
       <c r="F242" s="9">
-        <v>7703039431</v>
+        <v>7703039433</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="17"/>
       <c r="I242" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J242" s="4" t="s">
         <v>46</v>
@@ -1871,7 +2589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -1886,12 +2604,12 @@
         <v>1</v>
       </c>
       <c r="F243" s="9">
-        <v>7703039432</v>
+        <v>7703039434</v>
       </c>
       <c r="G243" s="17"/>
       <c r="H243" s="17"/>
       <c r="I243" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J243" s="4" t="s">
         <v>46</v>
@@ -1900,7 +2618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -1915,12 +2633,12 @@
         <v>1</v>
       </c>
       <c r="F244" s="9">
-        <v>7703039433</v>
+        <v>7703039435</v>
       </c>
       <c r="G244" s="17"/>
       <c r="H244" s="17"/>
       <c r="I244" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J244" s="4" t="s">
         <v>46</v>
@@ -1929,7 +2647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -1944,12 +2662,12 @@
         <v>1</v>
       </c>
       <c r="F245" s="9">
-        <v>7703039434</v>
+        <v>7703039436</v>
       </c>
       <c r="G245" s="17"/>
       <c r="H245" s="17"/>
       <c r="I245" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J245" s="4" t="s">
         <v>46</v>
@@ -1958,7 +2676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -1973,12 +2691,12 @@
         <v>1</v>
       </c>
       <c r="F246" s="9">
-        <v>7703039435</v>
+        <v>7703039437</v>
       </c>
       <c r="G246" s="17"/>
       <c r="H246" s="17"/>
       <c r="I246" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J246" s="4" t="s">
         <v>46</v>
@@ -1987,7 +2705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2002,12 +2720,12 @@
         <v>1</v>
       </c>
       <c r="F247" s="9">
-        <v>7703039436</v>
+        <v>7703039438</v>
       </c>
       <c r="G247" s="17"/>
       <c r="H247" s="17"/>
       <c r="I247" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J247" s="4" t="s">
         <v>46</v>
@@ -2016,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2031,12 +2749,12 @@
         <v>1</v>
       </c>
       <c r="F248" s="9">
-        <v>7703039437</v>
+        <v>7703039439</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17"/>
       <c r="I248" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J248" s="4" t="s">
         <v>46</v>
@@ -2045,7 +2763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2060,12 +2778,12 @@
         <v>1</v>
       </c>
       <c r="F249" s="9">
-        <v>7703039438</v>
+        <v>7703039440</v>
       </c>
       <c r="G249" s="17"/>
       <c r="H249" s="17"/>
       <c r="I249" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>46</v>
@@ -2074,7 +2792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2089,12 +2807,12 @@
         <v>1</v>
       </c>
       <c r="F250" s="9">
-        <v>7703039439</v>
+        <v>7703039441</v>
       </c>
       <c r="G250" s="17"/>
       <c r="H250" s="17"/>
       <c r="I250" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J250" s="4" t="s">
         <v>46</v>
@@ -2103,7 +2821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2118,12 +2836,12 @@
         <v>1</v>
       </c>
       <c r="F251" s="9">
-        <v>7703039440</v>
+        <v>7703039442</v>
       </c>
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="I251" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J251" s="4" t="s">
         <v>46</v>
@@ -2132,7 +2850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2147,12 +2865,12 @@
         <v>1</v>
       </c>
       <c r="F252" s="9">
-        <v>7703039441</v>
+        <v>7703039443</v>
       </c>
       <c r="G252" s="17"/>
       <c r="H252" s="17"/>
       <c r="I252" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J252" s="4" t="s">
         <v>46</v>
@@ -2161,7 +2879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2176,12 +2894,12 @@
         <v>1</v>
       </c>
       <c r="F253" s="9">
-        <v>7703039442</v>
+        <v>7703039444</v>
       </c>
       <c r="G253" s="17"/>
       <c r="H253" s="17"/>
       <c r="I253" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J253" s="4" t="s">
         <v>46</v>
@@ -2190,7 +2908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2205,12 +2923,12 @@
         <v>1</v>
       </c>
       <c r="F254" s="9">
-        <v>7703039443</v>
+        <v>7703039445</v>
       </c>
       <c r="G254" s="17"/>
       <c r="H254" s="17"/>
       <c r="I254" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J254" s="4" t="s">
         <v>46</v>
@@ -2219,7 +2937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2234,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="F255" s="9">
-        <v>7703039444</v>
+        <v>7703039446</v>
       </c>
       <c r="G255" s="17"/>
       <c r="H255" s="17"/>
       <c r="I255" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J255" s="4" t="s">
         <v>46</v>
@@ -2248,7 +2966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2263,12 +2981,12 @@
         <v>1</v>
       </c>
       <c r="F256" s="9">
-        <v>7703039445</v>
+        <v>7703039447</v>
       </c>
       <c r="G256" s="17"/>
       <c r="H256" s="17"/>
       <c r="I256" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J256" s="4" t="s">
         <v>46</v>
@@ -2277,7 +2995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -2292,12 +3010,12 @@
         <v>1</v>
       </c>
       <c r="F257" s="9">
-        <v>7703039446</v>
+        <v>7703039448</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
       <c r="I257" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J257" s="4" t="s">
         <v>46</v>
@@ -2306,7 +3024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -2321,12 +3039,12 @@
         <v>1</v>
       </c>
       <c r="F258" s="9">
-        <v>7703039447</v>
+        <v>7703039449</v>
       </c>
       <c r="G258" s="17"/>
       <c r="H258" s="17"/>
       <c r="I258" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>46</v>
@@ -2335,7 +3053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -2350,12 +3068,12 @@
         <v>1</v>
       </c>
       <c r="F259" s="9">
-        <v>7703039448</v>
+        <v>7703039450</v>
       </c>
       <c r="G259" s="17"/>
       <c r="H259" s="17"/>
       <c r="I259" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J259" s="4" t="s">
         <v>46</v>
@@ -2364,7 +3082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -2379,12 +3097,12 @@
         <v>1</v>
       </c>
       <c r="F260" s="9">
-        <v>7703039449</v>
+        <v>7703039451</v>
       </c>
       <c r="G260" s="17"/>
       <c r="H260" s="17"/>
       <c r="I260" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J260" s="4" t="s">
         <v>46</v>
@@ -2393,7 +3111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -2408,12 +3126,12 @@
         <v>1</v>
       </c>
       <c r="F261" s="9">
-        <v>7703039450</v>
+        <v>7703039452</v>
       </c>
       <c r="G261" s="17"/>
       <c r="H261" s="17"/>
       <c r="I261" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J261" s="4" t="s">
         <v>46</v>
@@ -2422,7 +3140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -2437,12 +3155,12 @@
         <v>1</v>
       </c>
       <c r="F262" s="9">
-        <v>7703039451</v>
+        <v>7703039453</v>
       </c>
       <c r="G262" s="17"/>
       <c r="H262" s="17"/>
       <c r="I262" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J262" s="4" t="s">
         <v>46</v>
@@ -2451,7 +3169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -2466,12 +3184,12 @@
         <v>1</v>
       </c>
       <c r="F263" s="9">
-        <v>7703039452</v>
+        <v>7703039454</v>
       </c>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
       <c r="I263" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J263" s="4" t="s">
         <v>46</v>
@@ -2480,7 +3198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2495,12 +3213,12 @@
         <v>1</v>
       </c>
       <c r="F264" s="9">
-        <v>7703039453</v>
+        <v>7703039455</v>
       </c>
       <c r="G264" s="17"/>
       <c r="H264" s="17"/>
       <c r="I264" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J264" s="4" t="s">
         <v>46</v>
@@ -2509,7 +3227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -2524,12 +3242,12 @@
         <v>1</v>
       </c>
       <c r="F265" s="9">
-        <v>7703039454</v>
+        <v>7703039456</v>
       </c>
       <c r="G265" s="17"/>
       <c r="H265" s="17"/>
       <c r="I265" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>46</v>
@@ -2538,7 +3256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -2553,12 +3271,12 @@
         <v>1</v>
       </c>
       <c r="F266" s="9">
-        <v>7703039455</v>
+        <v>7703039457</v>
       </c>
       <c r="G266" s="17"/>
       <c r="H266" s="17"/>
       <c r="I266" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J266" s="4" t="s">
         <v>46</v>
@@ -2567,7 +3285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -2582,12 +3300,12 @@
         <v>1</v>
       </c>
       <c r="F267" s="9">
-        <v>7703039456</v>
+        <v>7703039458</v>
       </c>
       <c r="G267" s="17"/>
       <c r="H267" s="17"/>
       <c r="I267" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J267" s="4" t="s">
         <v>46</v>
@@ -2596,7 +3314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -2611,12 +3329,12 @@
         <v>1</v>
       </c>
       <c r="F268" s="9">
-        <v>7703039457</v>
+        <v>7703039459</v>
       </c>
       <c r="G268" s="17"/>
       <c r="H268" s="17"/>
       <c r="I268" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J268" s="4" t="s">
         <v>46</v>
@@ -2625,7 +3343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -2640,12 +3358,12 @@
         <v>1</v>
       </c>
       <c r="F269" s="9">
-        <v>7703039458</v>
+        <v>7703039460</v>
       </c>
       <c r="G269" s="17"/>
       <c r="H269" s="17"/>
       <c r="I269" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>46</v>
@@ -2654,7 +3372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -2669,12 +3387,12 @@
         <v>1</v>
       </c>
       <c r="F270" s="9">
-        <v>7703039459</v>
+        <v>7703039461</v>
       </c>
       <c r="G270" s="17"/>
       <c r="H270" s="17"/>
       <c r="I270" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>46</v>
@@ -2683,7 +3401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -2698,12 +3416,12 @@
         <v>1</v>
       </c>
       <c r="F271" s="9">
-        <v>7703039460</v>
+        <v>7703039462</v>
       </c>
       <c r="G271" s="17"/>
       <c r="H271" s="17"/>
       <c r="I271" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>46</v>
@@ -2712,7 +3430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -2727,12 +3445,12 @@
         <v>1</v>
       </c>
       <c r="F272" s="9">
-        <v>7703039461</v>
+        <v>7703039463</v>
       </c>
       <c r="G272" s="17"/>
       <c r="H272" s="17"/>
       <c r="I272" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>46</v>
@@ -2741,7 +3459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2756,12 +3474,12 @@
         <v>1</v>
       </c>
       <c r="F273" s="9">
-        <v>7703039462</v>
+        <v>7703039464</v>
       </c>
       <c r="G273" s="17"/>
       <c r="H273" s="17"/>
       <c r="I273" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J273" s="4" t="s">
         <v>46</v>
@@ -2770,7 +3488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -2785,12 +3503,12 @@
         <v>1</v>
       </c>
       <c r="F274" s="9">
-        <v>7703039463</v>
+        <v>7703039465</v>
       </c>
       <c r="G274" s="17"/>
       <c r="H274" s="17"/>
       <c r="I274" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J274" s="4" t="s">
         <v>46</v>
@@ -2799,7 +3517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -2814,12 +3532,12 @@
         <v>1</v>
       </c>
       <c r="F275" s="9">
-        <v>7703039464</v>
+        <v>7703039466</v>
       </c>
       <c r="G275" s="17"/>
       <c r="H275" s="17"/>
       <c r="I275" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J275" s="4" t="s">
         <v>46</v>
@@ -2828,7 +3546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -2843,12 +3561,12 @@
         <v>1</v>
       </c>
       <c r="F276" s="9">
-        <v>7703039465</v>
+        <v>7703039467</v>
       </c>
       <c r="G276" s="17"/>
       <c r="H276" s="17"/>
       <c r="I276" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J276" s="4" t="s">
         <v>46</v>
@@ -2857,90 +3575,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D277" s="3"/>
-      <c r="E277" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F277" s="9">
-        <v>7703039466</v>
-      </c>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K277" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>1</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D278" s="3"/>
-      <c r="E278" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F278" s="9">
-        <v>7703039467</v>
-      </c>
-      <c r="G278" s="17"/>
-      <c r="H278" s="17"/>
-      <c r="I278" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K278" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>1</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F279" s="10">
+      <c r="B277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" s="10">
         <v>7703039468</v>
       </c>
-      <c r="G279" s="19"/>
-      <c r="H279" s="19"/>
-      <c r="I279" s="5" t="s">
+      <c r="G277" s="19"/>
+      <c r="H277" s="19"/>
+      <c r="I277" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J279" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K279" s="5" t="s">
+      <c r="J277" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2964,17 +3624,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3169,6 +3818,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
   <ds:schemaRefs>
@@ -3178,17 +3838,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
-    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3207,6 +3856,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
+    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{4af293e6-3850-4258-b2c7-0aa0e3bfa7d9}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="3" removed="0"/>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513A4A2-144C-4943-9860-26B36770B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB69202-AF7F-4A29-8E71-110A3B7398D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-370" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="84">
   <si>
     <t>Usager</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>EnvExec</t>
-  </si>
-  <si>
-    <t>URL_ANEFPreProd</t>
   </si>
   <si>
     <t>ArtisteSalarie</t>
@@ -840,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -880,9 +877,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,9 +912,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,9 +964,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1129,24 +1160,24 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="3" width="75.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1181,15 +1212,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
@@ -1198,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040877</v>
+        <v>7703040939</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1213,19 +1244,19 @@
         <v>54</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>58</v>
@@ -1234,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040882</v>
+        <v>7703040940</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1243,25 +1274,25 @@
         <v>63</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>58</v>
@@ -1270,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040879</v>
+        <v>7703040941</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1279,22 +1310,22 @@
         <v>63</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1306,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040874</v>
+        <v>7703040942</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1324,15 +1355,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>58</v>
@@ -1340,14 +1371,14 @@
       <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="6">
-        <v>7703040851</v>
+      <c r="F6" s="8">
+        <v>7703040943</v>
       </c>
       <c r="G6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>82</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>83</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>59</v>
@@ -1360,15 +1391,15 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>58</v>
@@ -1377,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040880</v>
+        <v>7703040944</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1395,15 +1426,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>58</v>
@@ -1412,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040853</v>
+        <v>7703040945</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1430,15 +1461,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>58</v>
@@ -1447,7 +1478,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040855</v>
+        <v>7703040946</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1465,15 +1496,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>58</v>
@@ -1482,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040856</v>
+        <v>7703040947</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1500,15 +1531,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>58</v>
@@ -1517,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040857</v>
+        <v>7703040948</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1535,15 +1566,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>58</v>
@@ -1552,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040858</v>
+        <v>7703040949</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1571,15 +1602,15 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
@@ -1588,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040862</v>
+        <v>7703040950</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1597,25 +1628,25 @@
         <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -1624,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040863</v>
+        <v>7703040951</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1633,25 +1664,25 @@
         <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>58</v>
@@ -1660,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040864</v>
+        <v>7703040952</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -1678,7 +1709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1968,7 +1999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +2028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2026,7 +2057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -2345,7 +2376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
@@ -2444,7 +2475,7 @@
       <c r="J176" s="13"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2502,7 +2533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2589,7 +2620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2618,7 +2649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2705,7 +2736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +2794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2792,7 +2823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +2881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2879,7 +2910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2937,7 +2968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +3026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -3111,7 +3142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -3140,7 +3171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3227,7 +3258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -3256,7 +3287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -3314,7 +3345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -3430,7 +3461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -3459,7 +3490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -3488,7 +3519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -3615,15 +3646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3818,6 +3840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3830,14 +3861,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3852,6 +3875,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB69202-AF7F-4A29-8E71-110A3B7398D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5DA55-6A63-4221-B1BD-1117D0035675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040939</v>
+        <v>7703040953</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040940</v>
+        <v>7703040954</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -3646,6 +3646,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3840,15 +3849,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,6 +3861,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3875,14 +3883,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5DA55-6A63-4221-B1BD-1117D0035675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCD1A6-0099-4794-9D92-F45EE939B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040953</v>
+        <v>7703040955</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040954</v>
+        <v>7703040956</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -3646,15 +3646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3849,6 +3840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,14 +3861,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3883,6 +3875,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\WORKSPACE\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCD1A6-0099-4794-9D92-F45EE939B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D40003E-B345-496A-9E34-D83FEB34568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27864" windowHeight="16788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <t>30/11/2022</t>
   </si>
   <si>
-    <t>URL_ANEFQualif</t>
+    <t>URL_ANEFPreProd</t>
   </si>
 </sst>
 </file>
@@ -837,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -877,9 +877,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,26 +912,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,26 +947,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1160,24 +1126,24 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1212,7 +1178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1195,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040955</v>
+        <v>7703040957</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1248,7 +1214,7 @@
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1231,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040956</v>
+        <v>7703040958</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1284,7 +1250,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1267,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040941</v>
+        <v>7703040959</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1320,7 +1286,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1303,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040942</v>
+        <v>7703040960</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1355,7 +1321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1338,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040943</v>
+        <v>7703040961</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>81</v>
@@ -1391,7 +1357,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040944</v>
+        <v>7703040962</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1426,7 +1392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1409,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040945</v>
+        <v>7703040963</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1461,7 +1427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1444,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040946</v>
+        <v>7703040964</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1496,7 +1462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1479,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040947</v>
+        <v>7703040965</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1531,7 +1497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1514,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040948</v>
+        <v>7703040966</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1566,7 +1532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1549,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040949</v>
+        <v>7703040967</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1602,7 +1568,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1585,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040950</v>
+        <v>7703040968</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1638,7 +1604,7 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1621,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040951</v>
+        <v>7703040969</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1674,7 +1640,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1657,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040952</v>
+        <v>7703040970</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -1709,7 +1675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1796,7 +1762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1854,7 +1820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1883,7 +1849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1912,7 +1878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1941,7 +1907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +1965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +1994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2057,7 +2023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -2289,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -2347,7 +2313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -2405,7 +2371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2463,7 +2429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
@@ -2475,7 +2441,7 @@
       <c r="J176" s="13"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2562,7 +2528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2736,7 +2702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +2760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2881,7 +2847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2910,7 +2876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +2934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +2963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3026,7 +2992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -3113,7 +3079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +3108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -3171,7 +3137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3258,7 +3224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -3287,7 +3253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -3374,7 +3340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -3403,7 +3369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -3432,7 +3398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +3427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +3485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -3548,7 +3514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -3577,7 +3543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -3646,6 +3612,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3840,15 +3815,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,6 +3827,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3875,14 +3849,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCD1A6-0099-4794-9D92-F45EE939B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107F14F-E1BA-41F7-B179-7172B02154A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040955</v>
+        <v>7703040957</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040956</v>
+        <v>7703040957</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1301,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040941</v>
+        <v>7703040957</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1337,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040942</v>
+        <v>7703040957</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040943</v>
+        <v>7703040957</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040944</v>
+        <v>7703040957</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1443,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040945</v>
+        <v>7703040957</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1478,7 +1478,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040946</v>
+        <v>7703040957</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040947</v>
+        <v>7703040957</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040948</v>
+        <v>7703040957</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1583,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040949</v>
+        <v>7703040957</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1619,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040950</v>
+        <v>7703040957</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1655,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040951</v>
+        <v>7703040957</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040952</v>
+        <v>7703040957</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -3646,6 +3646,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3840,15 +3849,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,6 +3861,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3875,14 +3883,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107F14F-E1BA-41F7-B179-7172B02154A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD22CA-EFD5-4352-BAD1-5E4BE1B4B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040957</v>
+        <v>7703040958</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1301,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040957</v>
+        <v>7703040959</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1337,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040957</v>
+        <v>7703040960</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040957</v>
+        <v>7703040961</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040957</v>
+        <v>7703040962</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1443,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040957</v>
+        <v>7703040963</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1478,7 +1478,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040957</v>
+        <v>7703040964</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040957</v>
+        <v>7703040965</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040957</v>
+        <v>7703040966</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1583,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040957</v>
+        <v>7703040967</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1619,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040957</v>
+        <v>7703040968</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1655,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040957</v>
+        <v>7703040969</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040957</v>
+        <v>7703040970</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -3646,15 +3646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3849,6 +3840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,14 +3861,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3883,6 +3875,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD22CA-EFD5-4352-BAD1-5E4BE1B4B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C79CF6-D45F-49BA-AE66-982016DC2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2535" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <t>30/11/2022</t>
   </si>
   <si>
-    <t>URL_ANEFQualif</t>
+    <t>URL_ANEFPreProd</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040957</v>
+        <v>7703040971</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040958</v>
+        <v>7703040972</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1301,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040959</v>
+        <v>7703040973</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1337,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040960</v>
+        <v>7703040974</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040961</v>
+        <v>7703040975</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040962</v>
+        <v>7703040976</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1443,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040963</v>
+        <v>7703040977</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1478,7 +1478,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040964</v>
+        <v>7703040978</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040965</v>
+        <v>7703040979</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040966</v>
+        <v>7703040980</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1583,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040967</v>
+        <v>7703040981</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1619,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040968</v>
+        <v>7703040982</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1655,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040969</v>
+        <v>7703040983</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040970</v>
+        <v>7703040984</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -3646,6 +3646,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3840,15 +3849,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,6 +3861,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3875,14 +3883,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C79CF6-D45F-49BA-AE66-982016DC2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2228ED-3F5B-402D-9D22-522EEB1E2D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
     <t>30/11/2022</t>
   </si>
   <si>
-    <t>URL_ANEFPreProd</t>
+    <t>URL_ANEFQualif</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040971</v>
+        <v>7703040985</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040972</v>
+        <v>7703040986</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>62</v>
@@ -1301,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040973</v>
+        <v>7703040987</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>62</v>
@@ -1337,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040974</v>
+        <v>7703040988</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>62</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040975</v>
+        <v>7703040989</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040976</v>
+        <v>7703040990</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>62</v>
@@ -1443,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703040977</v>
+        <v>7703040991</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>62</v>
@@ -1478,7 +1478,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703040978</v>
+        <v>7703040992</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>62</v>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040979</v>
+        <v>7703040993</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040980</v>
+        <v>7703040994</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>62</v>
@@ -1583,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040981</v>
+        <v>7703040995</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>62</v>
@@ -1619,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040982</v>
+        <v>7703040996</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>62</v>
@@ -1655,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040983</v>
+        <v>7703040997</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>62</v>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040984</v>
+        <v>7703040998</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>62</v>
@@ -3646,15 +3646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3849,6 +3840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,14 +3861,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3883,6 +3875,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\WORKSPACE\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2228ED-3F5B-402D-9D22-522EEB1E2D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F7331-7CEA-4A96-9686-3643E6A19083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="2748" windowWidth="21072" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$278</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="82">
   <si>
     <t>Usager</t>
   </si>
@@ -227,12 +227,6 @@
     <t>Etudiant</t>
   </si>
   <si>
-    <t>24/12/2022</t>
-  </si>
-  <si>
-    <t>23/12/2023</t>
-  </si>
-  <si>
     <t>EnvExec</t>
   </si>
   <si>
@@ -284,13 +278,13 @@
     <t>RenouvellementDeTitreSejour</t>
   </si>
   <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
-    <t>30/11/2022</t>
-  </si>
-  <si>
-    <t>URL_ANEFQualif</t>
+    <t>URL_ANEFPreProd</t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <t>14/01/2024</t>
   </si>
 </sst>
 </file>
@@ -837,9 +831,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -877,9 +871,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,26 +906,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,26 +941,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1157,32 +1117,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L277"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>53</v>
@@ -1212,15 +1172,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
@@ -1229,13 +1189,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703040985</v>
+        <v>7703042981</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
@@ -1244,19 +1204,19 @@
         <v>54</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>58</v>
@@ -1265,34 +1225,34 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703040986</v>
+        <v>7703042982</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>58</v>
@@ -1301,31 +1261,31 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703040987</v>
+        <v>7703042983</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1334,16 +1294,16 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>7703040988</v>
+        <v>7703042275</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>59</v>
@@ -1355,156 +1315,156 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703040989</v>
-      </c>
-      <c r="G6" s="40" t="s">
+        <v>7703042985</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+    </row>
+    <row r="7" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703040990</v>
+        <v>7703042986</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7703042987</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K8" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8">
-        <v>7703040991</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="28" t="s">
+      <c r="F9" s="8">
+        <v>7703042988</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7703040992</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>58</v>
@@ -1513,13 +1473,13 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703040993</v>
+        <v>7703042989</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
@@ -1531,15 +1491,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>58</v>
@@ -1548,15 +1508,15 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703040994</v>
+        <v>7703042990</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1566,51 +1526,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703040995</v>
+        <v>7703042991</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
@@ -1619,34 +1578,34 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703040996</v>
+        <v>7703042992</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -1655,90 +1614,97 @@
         <v>61</v>
       </c>
       <c r="F14" s="8">
-        <v>7703040997</v>
+        <v>7703042993</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="8">
-        <v>7703040998</v>
+        <v>7703042994</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8">
+        <v>7703042995</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="9">
-        <v>7703039343</v>
-      </c>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -1753,12 +1719,12 @@
         <v>1</v>
       </c>
       <c r="F151" s="9">
-        <v>7703039344</v>
+        <v>7703039343</v>
       </c>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>44</v>
@@ -1767,7 +1733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1782,12 +1748,12 @@
         <v>1</v>
       </c>
       <c r="F152" s="9">
-        <v>7703039345</v>
+        <v>7703039344</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>44</v>
@@ -1796,7 +1762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1811,12 +1777,12 @@
         <v>1</v>
       </c>
       <c r="F153" s="9">
-        <v>7703039346</v>
+        <v>7703039345</v>
       </c>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>44</v>
@@ -1825,7 +1791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1840,12 +1806,12 @@
         <v>1</v>
       </c>
       <c r="F154" s="9">
-        <v>7703039347</v>
+        <v>7703039346</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>44</v>
@@ -1854,7 +1820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1869,12 +1835,12 @@
         <v>1</v>
       </c>
       <c r="F155" s="9">
-        <v>7703039348</v>
+        <v>7703039347</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
       <c r="I155" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>44</v>
@@ -1883,7 +1849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1898,12 +1864,12 @@
         <v>1</v>
       </c>
       <c r="F156" s="9">
-        <v>7703039349</v>
+        <v>7703039348</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
       <c r="I156" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>44</v>
@@ -1912,7 +1878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1927,12 +1893,12 @@
         <v>1</v>
       </c>
       <c r="F157" s="9">
-        <v>7703039350</v>
+        <v>7703039349</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
       <c r="I157" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>44</v>
@@ -1941,7 +1907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1956,12 +1922,12 @@
         <v>1</v>
       </c>
       <c r="F158" s="9">
-        <v>7703039351</v>
+        <v>7703039350</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>44</v>
@@ -1970,7 +1936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1985,12 +1951,12 @@
         <v>1</v>
       </c>
       <c r="F159" s="9">
-        <v>7703039352</v>
+        <v>7703039351</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>44</v>
@@ -1999,7 +1965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -2014,12 +1980,12 @@
         <v>1</v>
       </c>
       <c r="F160" s="9">
-        <v>7703039353</v>
+        <v>7703039352</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
       <c r="I160" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>44</v>
@@ -2028,7 +1994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2043,12 +2009,12 @@
         <v>1</v>
       </c>
       <c r="F161" s="9">
-        <v>7703039354</v>
+        <v>7703039353</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>44</v>
@@ -2057,7 +2023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2072,12 +2038,12 @@
         <v>1</v>
       </c>
       <c r="F162" s="9">
-        <v>7703039355</v>
+        <v>7703039354</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>44</v>
@@ -2086,7 +2052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2101,12 +2067,12 @@
         <v>1</v>
       </c>
       <c r="F163" s="9">
-        <v>7703039356</v>
+        <v>7703039355</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>44</v>
@@ -2115,7 +2081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -2130,12 +2096,12 @@
         <v>1</v>
       </c>
       <c r="F164" s="9">
-        <v>7703039357</v>
+        <v>7703039356</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>44</v>
@@ -2144,7 +2110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -2159,12 +2125,12 @@
         <v>1</v>
       </c>
       <c r="F165" s="9">
-        <v>7703039358</v>
+        <v>7703039357</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>44</v>
@@ -2173,7 +2139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -2188,12 +2154,12 @@
         <v>1</v>
       </c>
       <c r="F166" s="9">
-        <v>7703039359</v>
+        <v>7703039358</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>44</v>
@@ -2202,7 +2168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2217,12 +2183,12 @@
         <v>1</v>
       </c>
       <c r="F167" s="9">
-        <v>7703039360</v>
+        <v>7703039359</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>44</v>
@@ -2231,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -2246,12 +2212,12 @@
         <v>1</v>
       </c>
       <c r="F168" s="9">
-        <v>7703039361</v>
+        <v>7703039360</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>44</v>
@@ -2260,7 +2226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -2275,12 +2241,12 @@
         <v>1</v>
       </c>
       <c r="F169" s="9">
-        <v>7703039362</v>
+        <v>7703039361</v>
       </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>44</v>
@@ -2289,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -2304,12 +2270,12 @@
         <v>1</v>
       </c>
       <c r="F170" s="9">
-        <v>7703039363</v>
+        <v>7703039362</v>
       </c>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>44</v>
@@ -2318,7 +2284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -2333,12 +2299,12 @@
         <v>1</v>
       </c>
       <c r="F171" s="9">
-        <v>7703039364</v>
+        <v>7703039363</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>44</v>
@@ -2347,7 +2313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -2362,12 +2328,12 @@
         <v>1</v>
       </c>
       <c r="F172" s="9">
-        <v>7703039365</v>
+        <v>7703039364</v>
       </c>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>44</v>
@@ -2376,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -2391,12 +2357,12 @@
         <v>1</v>
       </c>
       <c r="F173" s="9">
-        <v>7703039366</v>
+        <v>7703039365</v>
       </c>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>44</v>
@@ -2405,7 +2371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -2420,12 +2386,12 @@
         <v>1</v>
       </c>
       <c r="F174" s="9">
-        <v>7703039367</v>
+        <v>7703039366</v>
       </c>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
       <c r="I174" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>44</v>
@@ -2434,7 +2400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2449,12 +2415,12 @@
         <v>1</v>
       </c>
       <c r="F175" s="9">
-        <v>7703039368</v>
+        <v>7703039367</v>
       </c>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
       <c r="I175" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>44</v>
@@ -2463,48 +2429,48 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="12"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F238" s="9">
-        <v>7703039429</v>
-      </c>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K238" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="9">
+        <v>7703039368</v>
+      </c>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="12"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2519,12 +2485,12 @@
         <v>1</v>
       </c>
       <c r="F239" s="9">
-        <v>7703039430</v>
+        <v>7703039429</v>
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="17"/>
       <c r="I239" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J239" s="4" t="s">
         <v>46</v>
@@ -2533,7 +2499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2548,12 +2514,12 @@
         <v>1</v>
       </c>
       <c r="F240" s="9">
-        <v>7703039431</v>
+        <v>7703039430</v>
       </c>
       <c r="G240" s="17"/>
       <c r="H240" s="17"/>
       <c r="I240" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>46</v>
@@ -2562,7 +2528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2577,12 +2543,12 @@
         <v>1</v>
       </c>
       <c r="F241" s="9">
-        <v>7703039432</v>
+        <v>7703039431</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="17"/>
       <c r="I241" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>46</v>
@@ -2591,7 +2557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2606,12 +2572,12 @@
         <v>1</v>
       </c>
       <c r="F242" s="9">
-        <v>7703039433</v>
+        <v>7703039432</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="17"/>
       <c r="I242" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J242" s="4" t="s">
         <v>46</v>
@@ -2620,7 +2586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2635,12 +2601,12 @@
         <v>1</v>
       </c>
       <c r="F243" s="9">
-        <v>7703039434</v>
+        <v>7703039433</v>
       </c>
       <c r="G243" s="17"/>
       <c r="H243" s="17"/>
       <c r="I243" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J243" s="4" t="s">
         <v>46</v>
@@ -2649,7 +2615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2664,12 +2630,12 @@
         <v>1</v>
       </c>
       <c r="F244" s="9">
-        <v>7703039435</v>
+        <v>7703039434</v>
       </c>
       <c r="G244" s="17"/>
       <c r="H244" s="17"/>
       <c r="I244" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J244" s="4" t="s">
         <v>46</v>
@@ -2678,7 +2644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2693,12 +2659,12 @@
         <v>1</v>
       </c>
       <c r="F245" s="9">
-        <v>7703039436</v>
+        <v>7703039435</v>
       </c>
       <c r="G245" s="17"/>
       <c r="H245" s="17"/>
       <c r="I245" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J245" s="4" t="s">
         <v>46</v>
@@ -2707,7 +2673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2722,12 +2688,12 @@
         <v>1</v>
       </c>
       <c r="F246" s="9">
-        <v>7703039437</v>
+        <v>7703039436</v>
       </c>
       <c r="G246" s="17"/>
       <c r="H246" s="17"/>
       <c r="I246" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J246" s="4" t="s">
         <v>46</v>
@@ -2736,7 +2702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2751,12 +2717,12 @@
         <v>1</v>
       </c>
       <c r="F247" s="9">
-        <v>7703039438</v>
+        <v>7703039437</v>
       </c>
       <c r="G247" s="17"/>
       <c r="H247" s="17"/>
       <c r="I247" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J247" s="4" t="s">
         <v>46</v>
@@ -2765,7 +2731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2780,12 +2746,12 @@
         <v>1</v>
       </c>
       <c r="F248" s="9">
-        <v>7703039439</v>
+        <v>7703039438</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17"/>
       <c r="I248" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J248" s="4" t="s">
         <v>46</v>
@@ -2794,7 +2760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2809,12 +2775,12 @@
         <v>1</v>
       </c>
       <c r="F249" s="9">
-        <v>7703039440</v>
+        <v>7703039439</v>
       </c>
       <c r="G249" s="17"/>
       <c r="H249" s="17"/>
       <c r="I249" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>46</v>
@@ -2823,7 +2789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2838,12 +2804,12 @@
         <v>1</v>
       </c>
       <c r="F250" s="9">
-        <v>7703039441</v>
+        <v>7703039440</v>
       </c>
       <c r="G250" s="17"/>
       <c r="H250" s="17"/>
       <c r="I250" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J250" s="4" t="s">
         <v>46</v>
@@ -2852,7 +2818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2867,12 +2833,12 @@
         <v>1</v>
       </c>
       <c r="F251" s="9">
-        <v>7703039442</v>
+        <v>7703039441</v>
       </c>
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="I251" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J251" s="4" t="s">
         <v>46</v>
@@ -2881,7 +2847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2896,12 +2862,12 @@
         <v>1</v>
       </c>
       <c r="F252" s="9">
-        <v>7703039443</v>
+        <v>7703039442</v>
       </c>
       <c r="G252" s="17"/>
       <c r="H252" s="17"/>
       <c r="I252" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J252" s="4" t="s">
         <v>46</v>
@@ -2910,7 +2876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2925,12 +2891,12 @@
         <v>1</v>
       </c>
       <c r="F253" s="9">
-        <v>7703039444</v>
+        <v>7703039443</v>
       </c>
       <c r="G253" s="17"/>
       <c r="H253" s="17"/>
       <c r="I253" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J253" s="4" t="s">
         <v>46</v>
@@ -2939,7 +2905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2954,12 +2920,12 @@
         <v>1</v>
       </c>
       <c r="F254" s="9">
-        <v>7703039445</v>
+        <v>7703039444</v>
       </c>
       <c r="G254" s="17"/>
       <c r="H254" s="17"/>
       <c r="I254" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J254" s="4" t="s">
         <v>46</v>
@@ -2968,7 +2934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2983,12 +2949,12 @@
         <v>1</v>
       </c>
       <c r="F255" s="9">
-        <v>7703039446</v>
+        <v>7703039445</v>
       </c>
       <c r="G255" s="17"/>
       <c r="H255" s="17"/>
       <c r="I255" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J255" s="4" t="s">
         <v>46</v>
@@ -2997,7 +2963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3012,12 +2978,12 @@
         <v>1</v>
       </c>
       <c r="F256" s="9">
-        <v>7703039447</v>
+        <v>7703039446</v>
       </c>
       <c r="G256" s="17"/>
       <c r="H256" s="17"/>
       <c r="I256" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J256" s="4" t="s">
         <v>46</v>
@@ -3026,7 +2992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -3041,12 +3007,12 @@
         <v>1</v>
       </c>
       <c r="F257" s="9">
-        <v>7703039448</v>
+        <v>7703039447</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
       <c r="I257" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J257" s="4" t="s">
         <v>46</v>
@@ -3055,7 +3021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -3070,12 +3036,12 @@
         <v>1</v>
       </c>
       <c r="F258" s="9">
-        <v>7703039449</v>
+        <v>7703039448</v>
       </c>
       <c r="G258" s="17"/>
       <c r="H258" s="17"/>
       <c r="I258" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>46</v>
@@ -3084,7 +3050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -3099,12 +3065,12 @@
         <v>1</v>
       </c>
       <c r="F259" s="9">
-        <v>7703039450</v>
+        <v>7703039449</v>
       </c>
       <c r="G259" s="17"/>
       <c r="H259" s="17"/>
       <c r="I259" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J259" s="4" t="s">
         <v>46</v>
@@ -3113,7 +3079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -3128,12 +3094,12 @@
         <v>1</v>
       </c>
       <c r="F260" s="9">
-        <v>7703039451</v>
+        <v>7703039450</v>
       </c>
       <c r="G260" s="17"/>
       <c r="H260" s="17"/>
       <c r="I260" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J260" s="4" t="s">
         <v>46</v>
@@ -3142,7 +3108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -3157,12 +3123,12 @@
         <v>1</v>
       </c>
       <c r="F261" s="9">
-        <v>7703039452</v>
+        <v>7703039451</v>
       </c>
       <c r="G261" s="17"/>
       <c r="H261" s="17"/>
       <c r="I261" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J261" s="4" t="s">
         <v>46</v>
@@ -3171,7 +3137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -3186,12 +3152,12 @@
         <v>1</v>
       </c>
       <c r="F262" s="9">
-        <v>7703039453</v>
+        <v>7703039452</v>
       </c>
       <c r="G262" s="17"/>
       <c r="H262" s="17"/>
       <c r="I262" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J262" s="4" t="s">
         <v>46</v>
@@ -3200,7 +3166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -3215,12 +3181,12 @@
         <v>1</v>
       </c>
       <c r="F263" s="9">
-        <v>7703039454</v>
+        <v>7703039453</v>
       </c>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
       <c r="I263" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J263" s="4" t="s">
         <v>46</v>
@@ -3229,7 +3195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3244,12 +3210,12 @@
         <v>1</v>
       </c>
       <c r="F264" s="9">
-        <v>7703039455</v>
+        <v>7703039454</v>
       </c>
       <c r="G264" s="17"/>
       <c r="H264" s="17"/>
       <c r="I264" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J264" s="4" t="s">
         <v>46</v>
@@ -3258,7 +3224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -3273,12 +3239,12 @@
         <v>1</v>
       </c>
       <c r="F265" s="9">
-        <v>7703039456</v>
+        <v>7703039455</v>
       </c>
       <c r="G265" s="17"/>
       <c r="H265" s="17"/>
       <c r="I265" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>46</v>
@@ -3287,7 +3253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -3302,12 +3268,12 @@
         <v>1</v>
       </c>
       <c r="F266" s="9">
-        <v>7703039457</v>
+        <v>7703039456</v>
       </c>
       <c r="G266" s="17"/>
       <c r="H266" s="17"/>
       <c r="I266" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J266" s="4" t="s">
         <v>46</v>
@@ -3316,7 +3282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -3331,12 +3297,12 @@
         <v>1</v>
       </c>
       <c r="F267" s="9">
-        <v>7703039458</v>
+        <v>7703039457</v>
       </c>
       <c r="G267" s="17"/>
       <c r="H267" s="17"/>
       <c r="I267" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J267" s="4" t="s">
         <v>46</v>
@@ -3345,7 +3311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -3360,12 +3326,12 @@
         <v>1</v>
       </c>
       <c r="F268" s="9">
-        <v>7703039459</v>
+        <v>7703039458</v>
       </c>
       <c r="G268" s="17"/>
       <c r="H268" s="17"/>
       <c r="I268" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J268" s="4" t="s">
         <v>46</v>
@@ -3374,7 +3340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -3389,12 +3355,12 @@
         <v>1</v>
       </c>
       <c r="F269" s="9">
-        <v>7703039460</v>
+        <v>7703039459</v>
       </c>
       <c r="G269" s="17"/>
       <c r="H269" s="17"/>
       <c r="I269" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>46</v>
@@ -3403,7 +3369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -3418,12 +3384,12 @@
         <v>1</v>
       </c>
       <c r="F270" s="9">
-        <v>7703039461</v>
+        <v>7703039460</v>
       </c>
       <c r="G270" s="17"/>
       <c r="H270" s="17"/>
       <c r="I270" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>46</v>
@@ -3432,7 +3398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -3447,12 +3413,12 @@
         <v>1</v>
       </c>
       <c r="F271" s="9">
-        <v>7703039462</v>
+        <v>7703039461</v>
       </c>
       <c r="G271" s="17"/>
       <c r="H271" s="17"/>
       <c r="I271" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>46</v>
@@ -3461,7 +3427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -3476,12 +3442,12 @@
         <v>1</v>
       </c>
       <c r="F272" s="9">
-        <v>7703039463</v>
+        <v>7703039462</v>
       </c>
       <c r="G272" s="17"/>
       <c r="H272" s="17"/>
       <c r="I272" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>46</v>
@@ -3490,7 +3456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -3505,12 +3471,12 @@
         <v>1</v>
       </c>
       <c r="F273" s="9">
-        <v>7703039464</v>
+        <v>7703039463</v>
       </c>
       <c r="G273" s="17"/>
       <c r="H273" s="17"/>
       <c r="I273" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J273" s="4" t="s">
         <v>46</v>
@@ -3519,7 +3485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -3534,12 +3500,12 @@
         <v>1</v>
       </c>
       <c r="F274" s="9">
-        <v>7703039465</v>
+        <v>7703039464</v>
       </c>
       <c r="G274" s="17"/>
       <c r="H274" s="17"/>
       <c r="I274" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J274" s="4" t="s">
         <v>46</v>
@@ -3548,7 +3514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -3563,12 +3529,12 @@
         <v>1</v>
       </c>
       <c r="F275" s="9">
-        <v>7703039466</v>
+        <v>7703039465</v>
       </c>
       <c r="G275" s="17"/>
       <c r="H275" s="17"/>
       <c r="I275" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J275" s="4" t="s">
         <v>46</v>
@@ -3577,7 +3543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -3592,12 +3558,12 @@
         <v>1</v>
       </c>
       <c r="F276" s="9">
-        <v>7703039467</v>
+        <v>7703039466</v>
       </c>
       <c r="G276" s="17"/>
       <c r="H276" s="17"/>
       <c r="I276" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J276" s="4" t="s">
         <v>46</v>
@@ -3606,32 +3572,61 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D277" s="5"/>
-      <c r="E277" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F277" s="10">
+      <c r="B277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" s="9">
+        <v>7703039467</v>
+      </c>
+      <c r="G277" s="17"/>
+      <c r="H277" s="17"/>
+      <c r="I277" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278" s="10">
         <v>7703039468</v>
       </c>
-      <c r="G277" s="19"/>
-      <c r="H277" s="19"/>
-      <c r="I277" s="5" t="s">
+      <c r="G278" s="19"/>
+      <c r="H278" s="19"/>
+      <c r="I278" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J277" s="6" t="s">
+      <c r="J278" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K277" s="5" t="s">
+      <c r="K278" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3646,6 +3641,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3840,15 +3844,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3861,6 +3856,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3875,14 +3878,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\WORKSPACE\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F7331-7CEA-4A96-9686-3643E6A19083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CA298-EC0F-4756-9F0C-0AA7FD7C4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="2748" windowWidth="21072" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$277</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="82">
   <si>
     <t>Usager</t>
   </si>
@@ -340,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -656,16 +656,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -674,9 +708,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -689,16 +732,25 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,16 +855,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,9 +902,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -871,9 +942,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,9 +977,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,9 +1029,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1117,27 +1222,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L278"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="3" width="75.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1172,7 +1277,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1294,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703042981</v>
+        <v>7703042996</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>80</v>
@@ -1208,7 +1313,7 @@
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1330,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703042982</v>
+        <v>7703042997</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>80</v>
@@ -1244,7 +1349,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1366,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703042983</v>
+        <v>7703042998</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>80</v>
@@ -1280,7 +1385,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
@@ -1294,10 +1399,10 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703042275</v>
+        <v>7703042999</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>80</v>
@@ -1315,24 +1420,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703042985</v>
+        <v>7703043000</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>80</v>
@@ -1340,34 +1445,35 @@
       <c r="H6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703042986</v>
+        <v>7703043001</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>80</v>
@@ -1375,35 +1481,34 @@
       <c r="H7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+    </row>
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="28" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703042987</v>
+        <v>7703043002</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>80</v>
@@ -1411,34 +1516,34 @@
       <c r="H8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703042988</v>
+        <v>7703043003</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>80</v>
@@ -1446,17 +1551,17 @@
       <c r="H9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1569,7 @@
         <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>58</v>
@@ -1473,7 +1578,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703042989</v>
+        <v>7703043004</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>80</v>
@@ -1491,7 +1596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1604,7 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>58</v>
@@ -1508,7 +1613,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703042990</v>
+        <v>7703043005</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>80</v>
@@ -1516,7 +1621,7 @@
       <c r="H11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1526,24 +1631,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703042991</v>
+        <v>7703043006</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>80</v>
@@ -1551,17 +1656,18 @@
       <c r="H12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1675,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
@@ -1578,7 +1684,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703042992</v>
+        <v>7703043007</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>80</v>
@@ -1587,61 +1693,61 @@
         <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="8">
-        <v>7703042993</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="25">
+        <v>7703043008</v>
+      </c>
+      <c r="G14" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>58</v>
@@ -1649,62 +1755,55 @@
       <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="8">
-        <v>7703042994</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="4">
+        <v>7703043009</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="34" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="8">
-        <v>7703042995</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="9">
+        <v>7703039343</v>
+      </c>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -1719,12 +1818,12 @@
         <v>1</v>
       </c>
       <c r="F151" s="9">
-        <v>7703039343</v>
+        <v>7703039344</v>
       </c>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>44</v>
@@ -1733,7 +1832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1748,12 +1847,12 @@
         <v>1</v>
       </c>
       <c r="F152" s="9">
-        <v>7703039344</v>
+        <v>7703039345</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>44</v>
@@ -1762,7 +1861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1777,12 +1876,12 @@
         <v>1</v>
       </c>
       <c r="F153" s="9">
-        <v>7703039345</v>
+        <v>7703039346</v>
       </c>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>44</v>
@@ -1791,7 +1890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1806,12 +1905,12 @@
         <v>1</v>
       </c>
       <c r="F154" s="9">
-        <v>7703039346</v>
+        <v>7703039347</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>44</v>
@@ -1820,7 +1919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1835,12 +1934,12 @@
         <v>1</v>
       </c>
       <c r="F155" s="9">
-        <v>7703039347</v>
+        <v>7703039348</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
       <c r="I155" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>44</v>
@@ -1849,7 +1948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1864,12 +1963,12 @@
         <v>1</v>
       </c>
       <c r="F156" s="9">
-        <v>7703039348</v>
+        <v>7703039349</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
       <c r="I156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>44</v>
@@ -1878,7 +1977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -1893,12 +1992,12 @@
         <v>1</v>
       </c>
       <c r="F157" s="9">
-        <v>7703039349</v>
+        <v>7703039350</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
       <c r="I157" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>44</v>
@@ -1907,7 +2006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -1922,12 +2021,12 @@
         <v>1</v>
       </c>
       <c r="F158" s="9">
-        <v>7703039350</v>
+        <v>7703039351</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>44</v>
@@ -1936,7 +2035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -1951,12 +2050,12 @@
         <v>1</v>
       </c>
       <c r="F159" s="9">
-        <v>7703039351</v>
+        <v>7703039352</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>44</v>
@@ -1965,7 +2064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -1980,12 +2079,12 @@
         <v>1</v>
       </c>
       <c r="F160" s="9">
-        <v>7703039352</v>
+        <v>7703039353</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
       <c r="I160" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>44</v>
@@ -1994,7 +2093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2009,12 +2108,12 @@
         <v>1</v>
       </c>
       <c r="F161" s="9">
-        <v>7703039353</v>
+        <v>7703039354</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>44</v>
@@ -2023,7 +2122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2038,12 +2137,12 @@
         <v>1</v>
       </c>
       <c r="F162" s="9">
-        <v>7703039354</v>
+        <v>7703039355</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>44</v>
@@ -2052,7 +2151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2067,12 +2166,12 @@
         <v>1</v>
       </c>
       <c r="F163" s="9">
-        <v>7703039355</v>
+        <v>7703039356</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>44</v>
@@ -2081,7 +2180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -2096,12 +2195,12 @@
         <v>1</v>
       </c>
       <c r="F164" s="9">
-        <v>7703039356</v>
+        <v>7703039357</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>44</v>
@@ -2110,7 +2209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -2125,12 +2224,12 @@
         <v>1</v>
       </c>
       <c r="F165" s="9">
-        <v>7703039357</v>
+        <v>7703039358</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>44</v>
@@ -2139,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -2154,12 +2253,12 @@
         <v>1</v>
       </c>
       <c r="F166" s="9">
-        <v>7703039358</v>
+        <v>7703039359</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>44</v>
@@ -2168,7 +2267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2183,12 +2282,12 @@
         <v>1</v>
       </c>
       <c r="F167" s="9">
-        <v>7703039359</v>
+        <v>7703039360</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>44</v>
@@ -2197,7 +2296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -2212,12 +2311,12 @@
         <v>1</v>
       </c>
       <c r="F168" s="9">
-        <v>7703039360</v>
+        <v>7703039361</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>44</v>
@@ -2226,7 +2325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -2241,12 +2340,12 @@
         <v>1</v>
       </c>
       <c r="F169" s="9">
-        <v>7703039361</v>
+        <v>7703039362</v>
       </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>44</v>
@@ -2255,7 +2354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -2270,12 +2369,12 @@
         <v>1</v>
       </c>
       <c r="F170" s="9">
-        <v>7703039362</v>
+        <v>7703039363</v>
       </c>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>44</v>
@@ -2284,7 +2383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -2299,12 +2398,12 @@
         <v>1</v>
       </c>
       <c r="F171" s="9">
-        <v>7703039363</v>
+        <v>7703039364</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>44</v>
@@ -2313,7 +2412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -2328,12 +2427,12 @@
         <v>1</v>
       </c>
       <c r="F172" s="9">
-        <v>7703039364</v>
+        <v>7703039365</v>
       </c>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>44</v>
@@ -2342,7 +2441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -2357,12 +2456,12 @@
         <v>1</v>
       </c>
       <c r="F173" s="9">
-        <v>7703039365</v>
+        <v>7703039366</v>
       </c>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>44</v>
@@ -2371,7 +2470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -2386,12 +2485,12 @@
         <v>1</v>
       </c>
       <c r="F174" s="9">
-        <v>7703039366</v>
+        <v>7703039367</v>
       </c>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
       <c r="I174" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>44</v>
@@ -2400,7 +2499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2415,12 +2514,12 @@
         <v>1</v>
       </c>
       <c r="F175" s="9">
-        <v>7703039367</v>
+        <v>7703039368</v>
       </c>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
       <c r="I175" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>44</v>
@@ -2429,48 +2528,48 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F176" s="9">
-        <v>7703039368</v>
-      </c>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="12"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="12"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238" s="9">
+        <v>7703039429</v>
+      </c>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2485,12 +2584,12 @@
         <v>1</v>
       </c>
       <c r="F239" s="9">
-        <v>7703039429</v>
+        <v>7703039430</v>
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="17"/>
       <c r="I239" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J239" s="4" t="s">
         <v>46</v>
@@ -2499,7 +2598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2514,12 +2613,12 @@
         <v>1</v>
       </c>
       <c r="F240" s="9">
-        <v>7703039430</v>
+        <v>7703039431</v>
       </c>
       <c r="G240" s="17"/>
       <c r="H240" s="17"/>
       <c r="I240" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>46</v>
@@ -2528,7 +2627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2543,12 +2642,12 @@
         <v>1</v>
       </c>
       <c r="F241" s="9">
-        <v>7703039431</v>
+        <v>7703039432</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="17"/>
       <c r="I241" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>46</v>
@@ -2557,7 +2656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2572,12 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F242" s="9">
-        <v>7703039432</v>
+        <v>7703039433</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="17"/>
       <c r="I242" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J242" s="4" t="s">
         <v>46</v>
@@ -2586,7 +2685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2601,12 +2700,12 @@
         <v>1</v>
       </c>
       <c r="F243" s="9">
-        <v>7703039433</v>
+        <v>7703039434</v>
       </c>
       <c r="G243" s="17"/>
       <c r="H243" s="17"/>
       <c r="I243" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J243" s="4" t="s">
         <v>46</v>
@@ -2615,7 +2714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2630,12 +2729,12 @@
         <v>1</v>
       </c>
       <c r="F244" s="9">
-        <v>7703039434</v>
+        <v>7703039435</v>
       </c>
       <c r="G244" s="17"/>
       <c r="H244" s="17"/>
       <c r="I244" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J244" s="4" t="s">
         <v>46</v>
@@ -2644,7 +2743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2659,12 +2758,12 @@
         <v>1</v>
       </c>
       <c r="F245" s="9">
-        <v>7703039435</v>
+        <v>7703039436</v>
       </c>
       <c r="G245" s="17"/>
       <c r="H245" s="17"/>
       <c r="I245" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J245" s="4" t="s">
         <v>46</v>
@@ -2673,7 +2772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2688,12 +2787,12 @@
         <v>1</v>
       </c>
       <c r="F246" s="9">
-        <v>7703039436</v>
+        <v>7703039437</v>
       </c>
       <c r="G246" s="17"/>
       <c r="H246" s="17"/>
       <c r="I246" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J246" s="4" t="s">
         <v>46</v>
@@ -2702,7 +2801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2717,12 +2816,12 @@
         <v>1</v>
       </c>
       <c r="F247" s="9">
-        <v>7703039437</v>
+        <v>7703039438</v>
       </c>
       <c r="G247" s="17"/>
       <c r="H247" s="17"/>
       <c r="I247" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J247" s="4" t="s">
         <v>46</v>
@@ -2731,7 +2830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2746,12 +2845,12 @@
         <v>1</v>
       </c>
       <c r="F248" s="9">
-        <v>7703039438</v>
+        <v>7703039439</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17"/>
       <c r="I248" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J248" s="4" t="s">
         <v>46</v>
@@ -2760,7 +2859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2775,12 +2874,12 @@
         <v>1</v>
       </c>
       <c r="F249" s="9">
-        <v>7703039439</v>
+        <v>7703039440</v>
       </c>
       <c r="G249" s="17"/>
       <c r="H249" s="17"/>
       <c r="I249" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>46</v>
@@ -2789,7 +2888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2804,12 +2903,12 @@
         <v>1</v>
       </c>
       <c r="F250" s="9">
-        <v>7703039440</v>
+        <v>7703039441</v>
       </c>
       <c r="G250" s="17"/>
       <c r="H250" s="17"/>
       <c r="I250" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J250" s="4" t="s">
         <v>46</v>
@@ -2818,7 +2917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2833,12 +2932,12 @@
         <v>1</v>
       </c>
       <c r="F251" s="9">
-        <v>7703039441</v>
+        <v>7703039442</v>
       </c>
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="I251" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J251" s="4" t="s">
         <v>46</v>
@@ -2847,7 +2946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2862,12 +2961,12 @@
         <v>1</v>
       </c>
       <c r="F252" s="9">
-        <v>7703039442</v>
+        <v>7703039443</v>
       </c>
       <c r="G252" s="17"/>
       <c r="H252" s="17"/>
       <c r="I252" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J252" s="4" t="s">
         <v>46</v>
@@ -2876,7 +2975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -2891,12 +2990,12 @@
         <v>1</v>
       </c>
       <c r="F253" s="9">
-        <v>7703039443</v>
+        <v>7703039444</v>
       </c>
       <c r="G253" s="17"/>
       <c r="H253" s="17"/>
       <c r="I253" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J253" s="4" t="s">
         <v>46</v>
@@ -2905,7 +3004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -2920,12 +3019,12 @@
         <v>1</v>
       </c>
       <c r="F254" s="9">
-        <v>7703039444</v>
+        <v>7703039445</v>
       </c>
       <c r="G254" s="17"/>
       <c r="H254" s="17"/>
       <c r="I254" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J254" s="4" t="s">
         <v>46</v>
@@ -2934,7 +3033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2949,12 +3048,12 @@
         <v>1</v>
       </c>
       <c r="F255" s="9">
-        <v>7703039445</v>
+        <v>7703039446</v>
       </c>
       <c r="G255" s="17"/>
       <c r="H255" s="17"/>
       <c r="I255" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J255" s="4" t="s">
         <v>46</v>
@@ -2963,7 +3062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -2978,12 +3077,12 @@
         <v>1</v>
       </c>
       <c r="F256" s="9">
-        <v>7703039446</v>
+        <v>7703039447</v>
       </c>
       <c r="G256" s="17"/>
       <c r="H256" s="17"/>
       <c r="I256" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J256" s="4" t="s">
         <v>46</v>
@@ -2992,7 +3091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -3007,12 +3106,12 @@
         <v>1</v>
       </c>
       <c r="F257" s="9">
-        <v>7703039447</v>
+        <v>7703039448</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
       <c r="I257" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J257" s="4" t="s">
         <v>46</v>
@@ -3021,7 +3120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -3036,12 +3135,12 @@
         <v>1</v>
       </c>
       <c r="F258" s="9">
-        <v>7703039448</v>
+        <v>7703039449</v>
       </c>
       <c r="G258" s="17"/>
       <c r="H258" s="17"/>
       <c r="I258" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>46</v>
@@ -3050,7 +3149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -3065,12 +3164,12 @@
         <v>1</v>
       </c>
       <c r="F259" s="9">
-        <v>7703039449</v>
+        <v>7703039450</v>
       </c>
       <c r="G259" s="17"/>
       <c r="H259" s="17"/>
       <c r="I259" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J259" s="4" t="s">
         <v>46</v>
@@ -3079,7 +3178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -3094,12 +3193,12 @@
         <v>1</v>
       </c>
       <c r="F260" s="9">
-        <v>7703039450</v>
+        <v>7703039451</v>
       </c>
       <c r="G260" s="17"/>
       <c r="H260" s="17"/>
       <c r="I260" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J260" s="4" t="s">
         <v>46</v>
@@ -3108,7 +3207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -3123,12 +3222,12 @@
         <v>1</v>
       </c>
       <c r="F261" s="9">
-        <v>7703039451</v>
+        <v>7703039452</v>
       </c>
       <c r="G261" s="17"/>
       <c r="H261" s="17"/>
       <c r="I261" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J261" s="4" t="s">
         <v>46</v>
@@ -3137,7 +3236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -3152,12 +3251,12 @@
         <v>1</v>
       </c>
       <c r="F262" s="9">
-        <v>7703039452</v>
+        <v>7703039453</v>
       </c>
       <c r="G262" s="17"/>
       <c r="H262" s="17"/>
       <c r="I262" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J262" s="4" t="s">
         <v>46</v>
@@ -3166,7 +3265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -3181,12 +3280,12 @@
         <v>1</v>
       </c>
       <c r="F263" s="9">
-        <v>7703039453</v>
+        <v>7703039454</v>
       </c>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
       <c r="I263" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J263" s="4" t="s">
         <v>46</v>
@@ -3195,7 +3294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3210,12 +3309,12 @@
         <v>1</v>
       </c>
       <c r="F264" s="9">
-        <v>7703039454</v>
+        <v>7703039455</v>
       </c>
       <c r="G264" s="17"/>
       <c r="H264" s="17"/>
       <c r="I264" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J264" s="4" t="s">
         <v>46</v>
@@ -3224,7 +3323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -3239,12 +3338,12 @@
         <v>1</v>
       </c>
       <c r="F265" s="9">
-        <v>7703039455</v>
+        <v>7703039456</v>
       </c>
       <c r="G265" s="17"/>
       <c r="H265" s="17"/>
       <c r="I265" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>46</v>
@@ -3253,7 +3352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -3268,12 +3367,12 @@
         <v>1</v>
       </c>
       <c r="F266" s="9">
-        <v>7703039456</v>
+        <v>7703039457</v>
       </c>
       <c r="G266" s="17"/>
       <c r="H266" s="17"/>
       <c r="I266" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J266" s="4" t="s">
         <v>46</v>
@@ -3282,7 +3381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -3297,12 +3396,12 @@
         <v>1</v>
       </c>
       <c r="F267" s="9">
-        <v>7703039457</v>
+        <v>7703039458</v>
       </c>
       <c r="G267" s="17"/>
       <c r="H267" s="17"/>
       <c r="I267" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J267" s="4" t="s">
         <v>46</v>
@@ -3311,7 +3410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -3326,12 +3425,12 @@
         <v>1</v>
       </c>
       <c r="F268" s="9">
-        <v>7703039458</v>
+        <v>7703039459</v>
       </c>
       <c r="G268" s="17"/>
       <c r="H268" s="17"/>
       <c r="I268" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J268" s="4" t="s">
         <v>46</v>
@@ -3340,7 +3439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -3355,12 +3454,12 @@
         <v>1</v>
       </c>
       <c r="F269" s="9">
-        <v>7703039459</v>
+        <v>7703039460</v>
       </c>
       <c r="G269" s="17"/>
       <c r="H269" s="17"/>
       <c r="I269" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>46</v>
@@ -3369,7 +3468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -3384,12 +3483,12 @@
         <v>1</v>
       </c>
       <c r="F270" s="9">
-        <v>7703039460</v>
+        <v>7703039461</v>
       </c>
       <c r="G270" s="17"/>
       <c r="H270" s="17"/>
       <c r="I270" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>46</v>
@@ -3398,7 +3497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -3413,12 +3512,12 @@
         <v>1</v>
       </c>
       <c r="F271" s="9">
-        <v>7703039461</v>
+        <v>7703039462</v>
       </c>
       <c r="G271" s="17"/>
       <c r="H271" s="17"/>
       <c r="I271" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>46</v>
@@ -3427,7 +3526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -3442,12 +3541,12 @@
         <v>1</v>
       </c>
       <c r="F272" s="9">
-        <v>7703039462</v>
+        <v>7703039463</v>
       </c>
       <c r="G272" s="17"/>
       <c r="H272" s="17"/>
       <c r="I272" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>46</v>
@@ -3456,7 +3555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -3471,12 +3570,12 @@
         <v>1</v>
       </c>
       <c r="F273" s="9">
-        <v>7703039463</v>
+        <v>7703039464</v>
       </c>
       <c r="G273" s="17"/>
       <c r="H273" s="17"/>
       <c r="I273" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J273" s="4" t="s">
         <v>46</v>
@@ -3485,7 +3584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -3500,12 +3599,12 @@
         <v>1</v>
       </c>
       <c r="F274" s="9">
-        <v>7703039464</v>
+        <v>7703039465</v>
       </c>
       <c r="G274" s="17"/>
       <c r="H274" s="17"/>
       <c r="I274" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J274" s="4" t="s">
         <v>46</v>
@@ -3514,7 +3613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -3529,12 +3628,12 @@
         <v>1</v>
       </c>
       <c r="F275" s="9">
-        <v>7703039465</v>
+        <v>7703039466</v>
       </c>
       <c r="G275" s="17"/>
       <c r="H275" s="17"/>
       <c r="I275" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J275" s="4" t="s">
         <v>46</v>
@@ -3543,7 +3642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -3558,12 +3657,12 @@
         <v>1</v>
       </c>
       <c r="F276" s="9">
-        <v>7703039466</v>
+        <v>7703039467</v>
       </c>
       <c r="G276" s="17"/>
       <c r="H276" s="17"/>
       <c r="I276" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J276" s="4" t="s">
         <v>46</v>
@@ -3572,61 +3671,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D277" s="3"/>
-      <c r="E277" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F277" s="9">
-        <v>7703039467</v>
-      </c>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J277" s="4" t="s">
+      <c r="B277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" s="10">
+        <v>7703039468</v>
+      </c>
+      <c r="G277" s="19"/>
+      <c r="H277" s="19"/>
+      <c r="I277" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J277" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K277" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>1</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F278" s="10">
-        <v>7703039468</v>
-      </c>
-      <c r="G278" s="19"/>
-      <c r="H278" s="19"/>
-      <c r="I278" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J278" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K278" s="5" t="s">
+      <c r="K277" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3641,15 +3711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3844,6 +3905,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3856,14 +3926,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3878,6 +3940,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CA298-EC0F-4756-9F0C-0AA7FD7C4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4AD11-BE63-48AE-B1BC-13E3339D740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -278,13 +278,13 @@
     <t>RenouvellementDeTitreSejour</t>
   </si>
   <si>
-    <t>URL_ANEFPreProd</t>
-  </si>
-  <si>
     <t>15/01/2023</t>
   </si>
   <si>
     <t>14/01/2024</t>
+  </si>
+  <si>
+    <t>URL_ANEFQualif</t>
   </si>
 </sst>
 </file>
@@ -902,9 +902,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +942,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,26 +977,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1029,26 +1012,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1224,25 +1190,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1277,12 +1243,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>69</v>
@@ -1294,13 +1260,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="8">
-        <v>7703042996</v>
+        <v>7703043010</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
@@ -1313,15 +1279,15 @@
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>58</v>
@@ -1330,13 +1296,13 @@
         <v>61</v>
       </c>
       <c r="F3" s="8">
-        <v>7703042997</v>
+        <v>7703043012</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>72</v>
@@ -1349,15 +1315,15 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>58</v>
@@ -1366,13 +1332,13 @@
         <v>61</v>
       </c>
       <c r="F4" s="8">
-        <v>7703042998</v>
+        <v>7703043011</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>72</v>
@@ -1385,12 +1351,12 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1402,13 +1368,13 @@
         <v>61</v>
       </c>
       <c r="F5" s="8">
-        <v>7703042999</v>
+        <v>7703043013</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>59</v>
@@ -1420,12 +1386,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>78</v>
@@ -1437,13 +1403,13 @@
         <v>61</v>
       </c>
       <c r="F6" s="8">
-        <v>7703043000</v>
+        <v>7703043014</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>59</v>
@@ -1456,12 +1422,12 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -1473,13 +1439,13 @@
         <v>61</v>
       </c>
       <c r="F7" s="8">
-        <v>7703043001</v>
+        <v>7703043015</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>59</v>
@@ -1491,12 +1457,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>64</v>
@@ -1508,13 +1474,13 @@
         <v>61</v>
       </c>
       <c r="F8" s="8">
-        <v>7703043002</v>
+        <v>7703043016</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>59</v>
@@ -1526,12 +1492,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>65</v>
@@ -1543,13 +1509,13 @@
         <v>61</v>
       </c>
       <c r="F9" s="8">
-        <v>7703043003</v>
+        <v>7703043017</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>59</v>
@@ -1561,12 +1527,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>66</v>
@@ -1578,13 +1544,13 @@
         <v>61</v>
       </c>
       <c r="F10" s="8">
-        <v>7703043004</v>
+        <v>7703043018</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
@@ -1596,12 +1562,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
@@ -1613,13 +1579,13 @@
         <v>61</v>
       </c>
       <c r="F11" s="8">
-        <v>7703043005</v>
+        <v>7703043019</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
@@ -1631,12 +1597,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>68</v>
@@ -1648,13 +1614,13 @@
         <v>61</v>
       </c>
       <c r="F12" s="8">
-        <v>7703043006</v>
+        <v>7703043020</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>59</v>
@@ -1667,12 +1633,12 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>75</v>
@@ -1684,13 +1650,13 @@
         <v>61</v>
       </c>
       <c r="F13" s="8">
-        <v>7703043007</v>
+        <v>7703043021</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>72</v>
@@ -1703,12 +1669,12 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>76</v>
@@ -1719,14 +1685,14 @@
       <c r="E14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="25">
-        <v>7703043008</v>
+      <c r="F14" s="8">
+        <v>7703043022</v>
       </c>
       <c r="G14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>72</v>
@@ -1739,12 +1705,12 @@
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>77</v>
@@ -1755,14 +1721,14 @@
       <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="4">
-        <v>7703043009</v>
+      <c r="F15" s="8">
+        <v>7703043023</v>
       </c>
       <c r="G15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>81</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>59</v>
@@ -1774,7 +1740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +1827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -1919,7 +1885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +1914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +1972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -2209,7 +2175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -2267,7 +2233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2296,7 +2262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -2354,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -2383,7 +2349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +2378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -2441,7 +2407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -2470,7 +2436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -2499,7 +2465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
@@ -2540,7 +2506,7 @@
       <c r="J176" s="13"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2685,7 +2651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2801,7 +2767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +2941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +2970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -3033,7 +2999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -3062,7 +3028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -3149,7 +3115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +3144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -3207,7 +3173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -3236,7 +3202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -3265,7 +3231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -3294,7 +3260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3323,7 +3289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +3318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -3381,7 +3347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -3410,7 +3376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -3468,7 +3434,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +3463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -3526,7 +3492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -3555,7 +3521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -3584,7 +3550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -3642,7 +3608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -3671,7 +3637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1</v>
       </c>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4AD11-BE63-48AE-B1BC-13E3339D740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25EADC-0285-4921-A4AA-769424CAE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$251</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="86">
   <si>
     <t>Usager</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>URL_ANEFQualif</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
   </si>
 </sst>
 </file>
@@ -314,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +351,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -750,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,9 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,6 +911,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,9 +971,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +1011,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +1046,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,9 +1098,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1188,63 +1291,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L277"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="3" width="75.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1256,31 +1359,31 @@
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="8">
-        <v>7703043010</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="56">
+        <v>7703043024</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1292,31 +1395,31 @@
       <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="8">
-        <v>7703043012</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="56">
+        <v>7703043025</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1328,31 +1431,31 @@
       <c r="D4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="8">
-        <v>7703043011</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="56">
+        <v>7703043026</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1364,30 +1467,30 @@
       <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="8">
-        <v>7703043013</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="56">
+        <v>7703043027</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1399,31 +1502,31 @@
       <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="8">
-        <v>7703043014</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="56">
+        <v>7703043028</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1435,65 +1538,65 @@
       <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="8">
-        <v>7703043015</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="56">
+        <v>7703043029</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8">
-        <v>7703043016</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="56">
+        <v>7703043030</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1505,30 +1608,30 @@
       <c r="D9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="8">
-        <v>7703043017</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="56">
+        <v>7703043031</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1540,30 +1643,30 @@
       <c r="D10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="8">
-        <v>7703043018</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="56">
+        <v>7703043032</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1575,30 +1678,30 @@
       <c r="D11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="8">
-        <v>7703043019</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="56">
+        <v>7703043033</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1610,31 +1713,31 @@
       <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="8">
-        <v>7703043020</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="56">
+        <v>7703043034</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1646,66 +1749,66 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="8">
-        <v>7703043021</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="56">
+        <v>7703043035</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="8">
-        <v>7703043022</v>
-      </c>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="56">
+        <v>7703043036</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="47"/>
-    </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1718,795 +1821,3027 @@
       <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="8">
-        <v>7703043023</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="56">
+        <v>7703043037</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="9">
+    <row r="16" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="57">
+        <v>7703042775</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="57">
+        <v>7703042776</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="57">
+        <v>7703042777</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="57">
+        <v>7703042778</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="57">
+        <v>7703042779</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="57">
+        <v>7703042780</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="57">
+        <v>7703042781</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="57">
+        <v>7703042782</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="57">
+        <v>7703042783</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="57">
+        <v>7703042784</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="57">
+        <v>7703042785</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="57">
+        <v>7703042786</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="57">
+        <v>7703042787</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="57">
+        <v>7703042788</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="58">
+        <v>7703042275</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="58">
+        <v>7703042276</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="58">
+        <v>7703042277</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="58">
+        <v>7703042278</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="58">
+        <v>7703042279</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="58">
+        <v>7703042280</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="58">
+        <v>7703042281</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="58">
+        <v>7703042282</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="58">
+        <v>7703042283</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="58">
+        <v>7703042284</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="58">
+        <v>7703042285</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="58">
+        <v>7703042286</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="58">
+        <v>7703042287</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="57">
+        <v>7703042575</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="57">
+        <v>7703042576</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="57">
+        <v>7703042577</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="57">
+        <v>7703042578</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="57">
+        <v>7703042579</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="57">
+        <v>7703042580</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="57">
+        <v>7703042581</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="57">
+        <v>7703042582</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="57">
+        <v>7703042583</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="57">
+        <v>7703042584</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="57">
+        <v>7703042585</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="57">
+        <v>7703042586</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="57">
+        <v>7703042587</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="60">
+        <v>7703042075</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="35"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="60">
+        <v>7703041875</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8">
         <v>7703039343</v>
       </c>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="8">
+        <v>7703039344</v>
+      </c>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="8">
+        <v>7703039345</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="8">
+        <v>7703039346</v>
+      </c>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="8">
+        <v>7703039347</v>
+      </c>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="8">
+        <v>7703039348</v>
+      </c>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="8">
+        <v>7703039349</v>
+      </c>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="8">
+        <v>7703039350</v>
+      </c>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="8">
+        <v>7703039351</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="8">
+        <v>7703039352</v>
+      </c>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8">
+        <v>7703039353</v>
+      </c>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="8">
+        <v>7703039354</v>
+      </c>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="8">
+        <v>7703039355</v>
+      </c>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="8">
+        <v>7703039356</v>
+      </c>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="8">
+        <v>7703039357</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="8">
+        <v>7703039358</v>
+      </c>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="8">
+        <v>7703039359</v>
+      </c>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="8">
+        <v>7703039360</v>
+      </c>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="8">
+        <v>7703039361</v>
+      </c>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="8">
+        <v>7703039362</v>
+      </c>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="8">
+        <v>7703039363</v>
+      </c>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="8">
+        <v>7703039364</v>
+      </c>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="8">
+        <v>7703039365</v>
+      </c>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="8">
+        <v>7703039366</v>
+      </c>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="8">
+        <v>7703039367</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="8">
+        <v>7703039368</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="10"/>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
-      <c r="I150" s="3" t="s">
+      <c r="I150" s="11"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212" s="8">
+        <v>7703039429</v>
+      </c>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="8">
+        <v>7703039430</v>
+      </c>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="8">
+        <v>7703039431</v>
+      </c>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" s="8">
+        <v>7703039432</v>
+      </c>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="8">
+        <v>7703039433</v>
+      </c>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="8">
+        <v>7703039434</v>
+      </c>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" s="8">
+        <v>7703039435</v>
+      </c>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" s="8">
+        <v>7703039436</v>
+      </c>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="8">
+        <v>7703039437</v>
+      </c>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221" s="8">
+        <v>7703039438</v>
+      </c>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="8">
+        <v>7703039439</v>
+      </c>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223" s="8">
+        <v>7703039440</v>
+      </c>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F224" s="8">
+        <v>7703039441</v>
+      </c>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="8">
+        <v>7703039442</v>
+      </c>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="8">
+        <v>7703039443</v>
+      </c>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+      <c r="I226" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="9">
-        <v>7703039344</v>
-      </c>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="3" t="s">
+      <c r="J226" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227" s="8">
+        <v>7703039444</v>
+      </c>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152" s="9">
-        <v>7703039345</v>
-      </c>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="3" t="s">
+      <c r="J227" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F228" s="8">
+        <v>7703039445</v>
+      </c>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+      <c r="I228" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K152" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F153" s="9">
-        <v>7703039346</v>
-      </c>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="3" t="s">
+      <c r="J228" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="8">
+        <v>7703039446</v>
+      </c>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K153" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F154" s="9">
-        <v>7703039347</v>
-      </c>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="3" t="s">
+      <c r="J229" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230" s="8">
+        <v>7703039447</v>
+      </c>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="9">
-        <v>7703039348</v>
-      </c>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="3" t="s">
+      <c r="J230" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F231" s="8">
+        <v>7703039448</v>
+      </c>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+      <c r="I231" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="9">
-        <v>7703039349</v>
-      </c>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="3" t="s">
+      <c r="J231" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" s="8">
+        <v>7703039449</v>
+      </c>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="I232" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="9">
-        <v>7703039350</v>
-      </c>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="3" t="s">
+      <c r="J232" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" s="8">
+        <v>7703039450</v>
+      </c>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F158" s="9">
-        <v>7703039351</v>
-      </c>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="3" t="s">
+      <c r="J233" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F234" s="8">
+        <v>7703039451</v>
+      </c>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159" s="9">
-        <v>7703039352</v>
-      </c>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="3" t="s">
+      <c r="J234" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="3"/>
+      <c r="E235" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235" s="8">
+        <v>7703039452</v>
+      </c>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160" s="9">
-        <v>7703039353</v>
-      </c>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="3" t="s">
+      <c r="J235" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" s="8">
+        <v>7703039453</v>
+      </c>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F161" s="9">
-        <v>7703039354</v>
-      </c>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="3" t="s">
+      <c r="J236" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="3"/>
+      <c r="E237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237" s="8">
+        <v>7703039454</v>
+      </c>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162" s="9">
-        <v>7703039355</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F163" s="9">
-        <v>7703039356</v>
-      </c>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F164" s="9">
-        <v>7703039357</v>
-      </c>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F165" s="9">
-        <v>7703039358</v>
-      </c>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F166" s="9">
-        <v>7703039359</v>
-      </c>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F167" s="9">
-        <v>7703039360</v>
-      </c>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F168" s="9">
-        <v>7703039361</v>
-      </c>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F169" s="9">
-        <v>7703039362</v>
-      </c>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F170" s="9">
-        <v>7703039363</v>
-      </c>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F171" s="9">
-        <v>7703039364</v>
-      </c>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172" s="9">
-        <v>7703039365</v>
-      </c>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F173" s="9">
-        <v>7703039366</v>
-      </c>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F174" s="9">
-        <v>7703039367</v>
-      </c>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F175" s="9">
-        <v>7703039368</v>
-      </c>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="12"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J237" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -2520,13 +4855,13 @@
       <c r="E238" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F238" s="9">
-        <v>7703039429</v>
-      </c>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
+      <c r="F238" s="8">
+        <v>7703039455</v>
+      </c>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
       <c r="I238" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J238" s="4" t="s">
         <v>46</v>
@@ -2535,7 +4870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -2549,13 +4884,13 @@
       <c r="E239" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F239" s="9">
-        <v>7703039430</v>
-      </c>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
+      <c r="F239" s="8">
+        <v>7703039456</v>
+      </c>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
       <c r="I239" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J239" s="4" t="s">
         <v>46</v>
@@ -2564,7 +4899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -2578,13 +4913,13 @@
       <c r="E240" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F240" s="9">
-        <v>7703039431</v>
-      </c>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
+      <c r="F240" s="8">
+        <v>7703039457</v>
+      </c>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
       <c r="I240" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>46</v>
@@ -2593,7 +4928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -2607,13 +4942,13 @@
       <c r="E241" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F241" s="9">
-        <v>7703039432</v>
-      </c>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
+      <c r="F241" s="8">
+        <v>7703039458</v>
+      </c>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
       <c r="I241" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>46</v>
@@ -2622,7 +4957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -2636,13 +4971,13 @@
       <c r="E242" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F242" s="9">
-        <v>7703039433</v>
-      </c>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
+      <c r="F242" s="8">
+        <v>7703039459</v>
+      </c>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
       <c r="I242" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J242" s="4" t="s">
         <v>46</v>
@@ -2651,7 +4986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -2665,13 +5000,13 @@
       <c r="E243" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F243" s="9">
-        <v>7703039434</v>
-      </c>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
+      <c r="F243" s="8">
+        <v>7703039460</v>
+      </c>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
       <c r="I243" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J243" s="4" t="s">
         <v>46</v>
@@ -2680,7 +5015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -2694,13 +5029,13 @@
       <c r="E244" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F244" s="9">
-        <v>7703039435</v>
-      </c>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
+      <c r="F244" s="8">
+        <v>7703039461</v>
+      </c>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
       <c r="I244" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J244" s="4" t="s">
         <v>46</v>
@@ -2709,7 +5044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -2723,13 +5058,13 @@
       <c r="E245" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F245" s="9">
-        <v>7703039436</v>
-      </c>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
+      <c r="F245" s="8">
+        <v>7703039462</v>
+      </c>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
       <c r="I245" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J245" s="4" t="s">
         <v>46</v>
@@ -2738,7 +5073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2752,13 +5087,13 @@
       <c r="E246" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F246" s="9">
-        <v>7703039437</v>
-      </c>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
+      <c r="F246" s="8">
+        <v>7703039463</v>
+      </c>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
       <c r="I246" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J246" s="4" t="s">
         <v>46</v>
@@ -2767,7 +5102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -2781,13 +5116,13 @@
       <c r="E247" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F247" s="9">
-        <v>7703039438</v>
-      </c>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
+      <c r="F247" s="8">
+        <v>7703039464</v>
+      </c>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
       <c r="I247" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J247" s="4" t="s">
         <v>46</v>
@@ -2796,7 +5131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -2810,13 +5145,13 @@
       <c r="E248" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F248" s="9">
-        <v>7703039439</v>
-      </c>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
+      <c r="F248" s="8">
+        <v>7703039465</v>
+      </c>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
       <c r="I248" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J248" s="4" t="s">
         <v>46</v>
@@ -2825,7 +5160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -2839,13 +5174,13 @@
       <c r="E249" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F249" s="9">
-        <v>7703039440</v>
-      </c>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
+      <c r="F249" s="8">
+        <v>7703039466</v>
+      </c>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
       <c r="I249" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>46</v>
@@ -2854,7 +5189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -2868,13 +5203,13 @@
       <c r="E250" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F250" s="9">
-        <v>7703039441</v>
-      </c>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
+      <c r="F250" s="8">
+        <v>7703039467</v>
+      </c>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
       <c r="I250" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J250" s="4" t="s">
         <v>46</v>
@@ -2883,786 +5218,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="3"/>
-      <c r="E251" s="4" t="s">
+      <c r="B251" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F251" s="9">
-        <v>7703039442</v>
-      </c>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J251" s="4" t="s">
+        <v>7703039468</v>
+      </c>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J251" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K251" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>1</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D252" s="3"/>
-      <c r="E252" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F252" s="9">
-        <v>7703039443</v>
-      </c>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J252" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K252" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>1</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D253" s="3"/>
-      <c r="E253" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F253" s="9">
-        <v>7703039444</v>
-      </c>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J253" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K253" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>1</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D254" s="3"/>
-      <c r="E254" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F254" s="9">
-        <v>7703039445</v>
-      </c>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
-      <c r="I254" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J254" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K254" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D255" s="3"/>
-      <c r="E255" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F255" s="9">
-        <v>7703039446</v>
-      </c>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
-      <c r="I255" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>1</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F256" s="9">
-        <v>7703039447</v>
-      </c>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
-      <c r="I256" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>1</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D257" s="3"/>
-      <c r="E257" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F257" s="9">
-        <v>7703039448</v>
-      </c>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>1</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D258" s="3"/>
-      <c r="E258" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F258" s="9">
-        <v>7703039449</v>
-      </c>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K258" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>1</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D259" s="3"/>
-      <c r="E259" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F259" s="9">
-        <v>7703039450</v>
-      </c>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K259" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D260" s="3"/>
-      <c r="E260" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F260" s="9">
-        <v>7703039451</v>
-      </c>
-      <c r="G260" s="17"/>
-      <c r="H260" s="17"/>
-      <c r="I260" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K260" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D261" s="3"/>
-      <c r="E261" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F261" s="9">
-        <v>7703039452</v>
-      </c>
-      <c r="G261" s="17"/>
-      <c r="H261" s="17"/>
-      <c r="I261" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K261" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D262" s="3"/>
-      <c r="E262" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F262" s="9">
-        <v>7703039453</v>
-      </c>
-      <c r="G262" s="17"/>
-      <c r="H262" s="17"/>
-      <c r="I262" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J262" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K262" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>1</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D263" s="3"/>
-      <c r="E263" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F263" s="9">
-        <v>7703039454</v>
-      </c>
-      <c r="G263" s="17"/>
-      <c r="H263" s="17"/>
-      <c r="I263" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J263" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D264" s="3"/>
-      <c r="E264" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F264" s="9">
-        <v>7703039455</v>
-      </c>
-      <c r="G264" s="17"/>
-      <c r="H264" s="17"/>
-      <c r="I264" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K264" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>1</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D265" s="3"/>
-      <c r="E265" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F265" s="9">
-        <v>7703039456</v>
-      </c>
-      <c r="G265" s="17"/>
-      <c r="H265" s="17"/>
-      <c r="I265" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J265" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>1</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D266" s="3"/>
-      <c r="E266" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F266" s="9">
-        <v>7703039457</v>
-      </c>
-      <c r="G266" s="17"/>
-      <c r="H266" s="17"/>
-      <c r="I266" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>1</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D267" s="3"/>
-      <c r="E267" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F267" s="9">
-        <v>7703039458</v>
-      </c>
-      <c r="G267" s="17"/>
-      <c r="H267" s="17"/>
-      <c r="I267" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K267" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>1</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D268" s="3"/>
-      <c r="E268" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F268" s="9">
-        <v>7703039459</v>
-      </c>
-      <c r="G268" s="17"/>
-      <c r="H268" s="17"/>
-      <c r="I268" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>1</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D269" s="3"/>
-      <c r="E269" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F269" s="9">
-        <v>7703039460</v>
-      </c>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D270" s="3"/>
-      <c r="E270" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F270" s="9">
-        <v>7703039461</v>
-      </c>
-      <c r="G270" s="17"/>
-      <c r="H270" s="17"/>
-      <c r="I270" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>1</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D271" s="3"/>
-      <c r="E271" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F271" s="9">
-        <v>7703039462</v>
-      </c>
-      <c r="G271" s="17"/>
-      <c r="H271" s="17"/>
-      <c r="I271" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D272" s="3"/>
-      <c r="E272" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F272" s="9">
-        <v>7703039463</v>
-      </c>
-      <c r="G272" s="17"/>
-      <c r="H272" s="17"/>
-      <c r="I272" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>1</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D273" s="3"/>
-      <c r="E273" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F273" s="9">
-        <v>7703039464</v>
-      </c>
-      <c r="G273" s="17"/>
-      <c r="H273" s="17"/>
-      <c r="I273" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D274" s="3"/>
-      <c r="E274" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F274" s="9">
-        <v>7703039465</v>
-      </c>
-      <c r="G274" s="17"/>
-      <c r="H274" s="17"/>
-      <c r="I274" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>1</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D275" s="3"/>
-      <c r="E275" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F275" s="9">
-        <v>7703039466</v>
-      </c>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K275" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>1</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D276" s="3"/>
-      <c r="E276" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F276" s="9">
-        <v>7703039467</v>
-      </c>
-      <c r="G276" s="17"/>
-      <c r="H276" s="17"/>
-      <c r="I276" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K276" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>1</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D277" s="5"/>
-      <c r="E277" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F277" s="10">
-        <v>7703039468</v>
-      </c>
-      <c r="G277" s="19"/>
-      <c r="H277" s="19"/>
-      <c r="I277" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J277" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K277" s="5" t="s">
+      <c r="K251" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3677,6 +5258,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -3871,15 +5461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3892,6 +5473,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3906,14 +5495,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25EADC-0285-4921-A4AA-769424CAE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD84AE05-2C7E-4B44-9A99-53E5907A8280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="56">
-        <v>7703043024</v>
+        <v>7703043038</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>79</v>
@@ -1399,7 +1399,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="56">
-        <v>7703043025</v>
+        <v>7703043039</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -1435,7 +1435,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="56">
-        <v>7703043026</v>
+        <v>7703043040</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -1471,7 +1471,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="56">
-        <v>7703043027</v>
+        <v>7703043041</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>79</v>
@@ -1506,7 +1506,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="56">
-        <v>7703043028</v>
+        <v>7703043042</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>79</v>
@@ -1542,7 +1542,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="56">
-        <v>7703043029</v>
+        <v>7703043043</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>79</v>
@@ -1577,7 +1577,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="56">
-        <v>7703043030</v>
+        <v>7703043044</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>79</v>
@@ -1612,7 +1612,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="56">
-        <v>7703043031</v>
+        <v>7703043045</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>79</v>
@@ -1647,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="56">
-        <v>7703043032</v>
+        <v>7703043046</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>79</v>
@@ -1682,7 +1682,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="56">
-        <v>7703043033</v>
+        <v>7703043047</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
@@ -1717,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="56">
-        <v>7703043034</v>
+        <v>7703043048</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>79</v>
@@ -1753,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="56">
-        <v>7703043035</v>
+        <v>7703043049</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>79</v>
@@ -1789,7 +1789,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="56">
-        <v>7703043036</v>
+        <v>7703043050</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>79</v>
@@ -1825,7 +1825,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="56">
-        <v>7703043037</v>
+        <v>7703043051</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>79</v>
@@ -1860,7 +1860,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="57">
-        <v>7703042775</v>
+        <v>7703042789</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>82</v>
@@ -1896,7 +1896,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="57">
-        <v>7703042776</v>
+        <v>7703042790</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>82</v>
@@ -1932,7 +1932,7 @@
         <v>61</v>
       </c>
       <c r="F18" s="57">
-        <v>7703042777</v>
+        <v>7703042791</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>82</v>
@@ -1968,7 +1968,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="57">
-        <v>7703042778</v>
+        <v>7703042792</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>82</v>
@@ -2003,7 +2003,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="57">
-        <v>7703042779</v>
+        <v>7703042793</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>82</v>
@@ -2039,7 +2039,7 @@
         <v>61</v>
       </c>
       <c r="F21" s="57">
-        <v>7703042780</v>
+        <v>7703042794</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>82</v>
@@ -2074,7 +2074,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="57">
-        <v>7703042781</v>
+        <v>7703042795</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>82</v>
@@ -2109,7 +2109,7 @@
         <v>61</v>
       </c>
       <c r="F23" s="57">
-        <v>7703042782</v>
+        <v>7703042796</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>82</v>
@@ -2144,7 +2144,7 @@
         <v>61</v>
       </c>
       <c r="F24" s="57">
-        <v>7703042783</v>
+        <v>7703042797</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>82</v>
@@ -2179,7 +2179,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="57">
-        <v>7703042784</v>
+        <v>7703042798</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>82</v>
@@ -2214,7 +2214,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="57">
-        <v>7703042785</v>
+        <v>7703042799</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>82</v>
@@ -2250,7 +2250,7 @@
         <v>61</v>
       </c>
       <c r="F27" s="57">
-        <v>7703042786</v>
+        <v>7703042800</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>82</v>
@@ -2286,7 +2286,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="57">
-        <v>7703042787</v>
+        <v>7703042801</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>82</v>
@@ -2322,7 +2322,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="57">
-        <v>7703042788</v>
+        <v>7703042802</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>82</v>
@@ -2340,40 +2340,41 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="58">
-        <v>7703042275</v>
+      <c r="E30" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="60">
+        <v>7703042075</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>70</v>
-      </c>
+      <c r="K30" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
@@ -2383,7 +2384,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>58</v>
@@ -2392,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="58">
-        <v>7703042276</v>
+        <v>7703042275</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>79</v>
@@ -2401,13 +2402,13 @@
         <v>80</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2418,7 +2419,7 @@
         <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>58</v>
@@ -2427,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="58">
-        <v>7703042277</v>
+        <v>7703042276</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>79</v>
@@ -2446,23 +2447,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="58">
-        <v>7703042278</v>
+        <v>7703042277</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>79</v>
@@ -2470,34 +2471,34 @@
       <c r="H33" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="39" t="s">
+      <c r="I33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="58">
-        <v>7703042279</v>
+        <v>7703042278</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>79</v>
@@ -2505,34 +2506,34 @@
       <c r="H34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="58">
-        <v>7703042280</v>
+        <v>7703042279</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>79</v>
@@ -2540,34 +2541,34 @@
       <c r="H35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="58">
-        <v>7703042281</v>
+        <v>7703042280</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>79</v>
@@ -2575,13 +2576,13 @@
       <c r="H36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2593,7 +2594,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>58</v>
@@ -2602,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="58">
-        <v>7703042282</v>
+        <v>7703042281</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>79</v>
@@ -2628,7 +2629,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>58</v>
@@ -2637,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="58">
-        <v>7703042283</v>
+        <v>7703042282</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>79</v>
@@ -2645,7 +2646,7 @@
       <c r="H38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J38" s="13" t="s">
@@ -2656,23 +2657,23 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="58">
-        <v>7703042284</v>
+        <v>7703042283</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>79</v>
@@ -2680,13 +2681,13 @@
       <c r="H39" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2698,7 +2699,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>58</v>
@@ -2707,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="58">
-        <v>7703042285</v>
+        <v>7703042284</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>79</v>
@@ -2716,109 +2717,109 @@
         <v>80</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="41" t="s">
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="58">
-        <v>7703042286</v>
-      </c>
-      <c r="G41" s="42" t="s">
+        <v>7703042285</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="I41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="58">
-        <v>7703042287</v>
-      </c>
-      <c r="G42" s="33" t="s">
+        <v>7703042286</v>
+      </c>
+      <c r="G42" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="I42" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="57">
-        <v>7703042575</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>83</v>
+      <c r="E43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="58">
+        <v>7703042287</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>59</v>
@@ -2826,8 +2827,8 @@
       <c r="J43" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="34" t="s">
-        <v>70</v>
+      <c r="K43" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2838,7 +2839,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>58</v>
@@ -2847,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="57">
-        <v>7703042576</v>
+        <v>7703042575</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>82</v>
@@ -2856,13 +2857,13 @@
         <v>83</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2873,7 +2874,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>58</v>
@@ -2882,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="57">
-        <v>7703042577</v>
+        <v>7703042576</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>82</v>
@@ -2901,23 +2902,23 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="57">
-        <v>7703042578</v>
+        <v>7703042577</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>82</v>
@@ -2925,34 +2926,34 @@
       <c r="H46" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="39" t="s">
+      <c r="I46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="57">
-        <v>7703042579</v>
+        <v>7703042578</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>82</v>
@@ -2960,34 +2961,34 @@
       <c r="H47" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="57">
-        <v>7703042580</v>
+        <v>7703042579</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>82</v>
@@ -2995,34 +2996,34 @@
       <c r="H48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="57">
-        <v>7703042581</v>
+        <v>7703042580</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>82</v>
@@ -3030,17 +3031,17 @@
       <c r="H49" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>58</v>
@@ -3057,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="57">
-        <v>7703042582</v>
+        <v>7703042581</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>82</v>
@@ -3075,7 +3076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>58</v>
@@ -3092,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="57">
-        <v>7703042583</v>
+        <v>7703042582</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>82</v>
@@ -3100,7 +3101,7 @@
       <c r="H51" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J51" s="13" t="s">
@@ -3110,24 +3111,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="57">
-        <v>7703042584</v>
+        <v>7703042583</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>82</v>
@@ -3135,17 +3136,17 @@
       <c r="H52" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="34" t="s">
+      <c r="K52" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>58</v>
@@ -3162,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="57">
-        <v>7703042585</v>
+        <v>7703042584</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>82</v>
@@ -3171,33 +3172,33 @@
         <v>83</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="57">
-        <v>7703042586</v>
+        <v>7703042585</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>82</v>
@@ -3205,34 +3206,34 @@
       <c r="H54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J54" s="44" t="s">
+      <c r="J54" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="45" t="s">
+      <c r="K54" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="57">
-        <v>7703042587</v>
+        <v>7703042586</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>82</v>
@@ -3240,53 +3241,52 @@
       <c r="H55" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="I55" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55" s="45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="60">
-        <v>7703042075</v>
+      <c r="E56" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="57">
+        <v>7703042587</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="35"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>0</v>
       </c>
@@ -5258,15 +5258,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -5461,6 +5452,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5473,14 +5473,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5495,6 +5487,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD84AE05-2C7E-4B44-9A99-53E5907A8280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A91193A-2F59-4445-BB2B-8D012006518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$K$251</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,27 +371,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,49 +427,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -519,19 +466,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -549,243 +483,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,163 +501,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,158 +896,155 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="16">
         <v>7703043038</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="16">
         <v>7703043039</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="16">
         <v>7703043040</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1464,69 +1053,68 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="16">
         <v>7703043041</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="16">
         <v>7703043042</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1535,68 +1123,68 @@
       <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="16">
         <v>7703043043</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="16">
         <v>7703043044</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1605,33 +1193,33 @@
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="16">
         <v>7703043045</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1640,33 +1228,33 @@
       <c r="C10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="16">
         <v>7703043046</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1675,284 +1263,278 @@
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="16">
         <v>7703043047</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="K11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="16">
         <v>7703043048</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="48" t="s">
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="16">
         <v>7703043049</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="K13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="51" t="s">
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="16">
         <v>7703043050</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="46"/>
-    </row>
-    <row r="15" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="16">
         <v>7703043051</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="52" t="s">
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="17">
         <v>7703042789</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    </row>
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="17">
         <v>7703042790</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="K17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="52" t="s">
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="17">
         <v>7703042791</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="K18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1961,69 +1543,68 @@
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="17">
         <v>7703042792</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="K19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="17">
         <v>7703042793</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="K20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2032,68 +1613,68 @@
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="17">
         <v>7703042794</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="K21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="54" t="s">
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="17">
         <v>7703042795</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2102,33 +1683,33 @@
       <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="17">
         <v>7703042796</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2137,33 +1718,33 @@
       <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="17">
         <v>7703042797</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="K24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2172,352 +1753,348 @@
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="17">
         <v>7703042798</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="K25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="52" t="s">
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="17">
         <v>7703042799</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="K26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="17">
         <v>7703042800</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="K27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="17">
         <v>7703042801</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="46"/>
-    </row>
-    <row r="29" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="K28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="17">
         <v>7703042802</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="K29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="18">
         <v>7703042075</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="K30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="58">
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
         <v>7703042275</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="58">
+      <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
         <v>7703042276</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="K32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="58">
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
         <v>7703042277</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="K33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="58">
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
         <v>7703042278</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="K34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2526,68 +2103,68 @@
       <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="58">
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
         <v>7703042279</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="K35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="58">
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
         <v>7703042280</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="K36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2596,33 +2173,33 @@
       <c r="C37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
         <v>7703042281</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="K37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2631,33 +2208,33 @@
       <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="58">
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
         <v>7703042282</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="K38" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2666,313 +2243,313 @@
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="58">
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
         <v>7703042283</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>80</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+      <c r="K39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="58">
+      <c r="D40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
         <v>7703042284</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="K40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="58">
+      <c r="D41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
         <v>7703042285</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="K41" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="58">
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
         <v>7703042286</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="K42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="58">
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
         <v>7703042287</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="K43" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="57">
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
         <v>7703042575</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
         <v>7703042576</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="K45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="57">
+      <c r="D46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
         <v>7703042577</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="K46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="57">
+      <c r="D47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
         <v>7703042578</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K47" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="K47" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2981,68 +2558,68 @@
       <c r="C48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="57">
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
         <v>7703042579</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="K48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="57">
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17">
         <v>7703042580</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="K49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3051,33 +2628,33 @@
       <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="57">
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="17">
         <v>7703042581</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="K50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3086,33 +2663,33 @@
       <c r="C51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="57">
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="17">
         <v>7703042582</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="K51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3121,203 +2698,203 @@
       <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="57">
+      <c r="D52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="17">
         <v>7703042583</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="K52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="57">
+      <c r="D53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17">
         <v>7703042584</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+      <c r="K53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="57">
+      <c r="D54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17">
         <v>7703042585</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J54" s="33" t="s">
+      <c r="J54" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="K54" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="57">
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="17">
         <v>7703042586</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="41" t="s">
+      <c r="I55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K55" s="45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="K55" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="57">
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17">
         <v>7703042587</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="33" t="s">
+      <c r="J56" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="K56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="60">
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
         <v>7703041875</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J57" s="38" t="s">
+      <c r="J57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3325,28 +2902,28 @@
       <c r="A124" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="8">
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5">
         <v>7703039343</v>
       </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="3" t="s">
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J124" s="4" t="s">
+      <c r="J124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K124" s="3" t="s">
+      <c r="K124" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3354,28 +2931,28 @@
       <c r="A125" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F125" s="8">
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5">
         <v>7703039344</v>
       </c>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="3" t="s">
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="4" t="s">
+      <c r="J125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="K125" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3383,28 +2960,28 @@
       <c r="A126" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="8">
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5">
         <v>7703039345</v>
       </c>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="3" t="s">
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J126" s="4" t="s">
+      <c r="J126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3412,28 +2989,28 @@
       <c r="A127" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127" s="8">
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
         <v>7703039346</v>
       </c>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="3" t="s">
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J127" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K127" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3441,28 +3018,28 @@
       <c r="A128" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" s="8">
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
         <v>7703039347</v>
       </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="3" t="s">
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3470,28 +3047,28 @@
       <c r="A129" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F129" s="8">
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
         <v>7703039348</v>
       </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="3" t="s">
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J129" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K129" s="3" t="s">
+      <c r="K129" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3499,28 +3076,28 @@
       <c r="A130" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F130" s="8">
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5">
         <v>7703039349</v>
       </c>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="3" t="s">
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3528,28 +3105,28 @@
       <c r="A131" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131" s="8">
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5">
         <v>7703039350</v>
       </c>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="3" t="s">
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J131" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3557,28 +3134,28 @@
       <c r="A132" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" s="8">
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5">
         <v>7703039351</v>
       </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="3" t="s">
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K132" s="3" t="s">
+      <c r="K132" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3586,28 +3163,28 @@
       <c r="A133" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F133" s="8">
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5">
         <v>7703039352</v>
       </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="3" t="s">
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3615,28 +3192,28 @@
       <c r="A134" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134" s="8">
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="5">
         <v>7703039353</v>
       </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="3" t="s">
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J134" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3644,28 +3221,28 @@
       <c r="A135" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="8">
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="5">
         <v>7703039354</v>
       </c>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="3" t="s">
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3673,28 +3250,28 @@
       <c r="A136" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="8">
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="5">
         <v>7703039355</v>
       </c>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="3" t="s">
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3702,28 +3279,28 @@
       <c r="A137" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="8">
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="5">
         <v>7703039356</v>
       </c>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="3" t="s">
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J137" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3731,28 +3308,28 @@
       <c r="A138" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138" s="8">
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="5">
         <v>7703039357</v>
       </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="3" t="s">
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K138" s="3" t="s">
+      <c r="K138" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3760,28 +3337,28 @@
       <c r="A139" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="8">
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="5">
         <v>7703039358</v>
       </c>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="3" t="s">
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="K139" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3789,28 +3366,28 @@
       <c r="A140" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F140" s="8">
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="5">
         <v>7703039359</v>
       </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="3" t="s">
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="K140" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3818,28 +3395,28 @@
       <c r="A141" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141" s="8">
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="5">
         <v>7703039360</v>
       </c>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="3" t="s">
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3847,28 +3424,28 @@
       <c r="A142" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142" s="8">
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="5">
         <v>7703039361</v>
       </c>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="3" t="s">
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3876,28 +3453,28 @@
       <c r="A143" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F143" s="8">
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="5">
         <v>7703039362</v>
       </c>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="3" t="s">
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3905,28 +3482,28 @@
       <c r="A144" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144" s="8">
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="5">
         <v>7703039363</v>
       </c>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="3" t="s">
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J144" s="4" t="s">
+      <c r="J144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3934,28 +3511,28 @@
       <c r="A145" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" s="8">
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="5">
         <v>7703039364</v>
       </c>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="3" t="s">
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K145" s="3" t="s">
+      <c r="K145" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3963,28 +3540,28 @@
       <c r="A146" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" s="8">
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="5">
         <v>7703039365</v>
       </c>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="3" t="s">
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3992,28 +3569,28 @@
       <c r="A147" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="8">
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="5">
         <v>7703039366</v>
       </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="3" t="s">
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K147" s="3" t="s">
+      <c r="K147" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4021,28 +3598,28 @@
       <c r="A148" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148" s="8">
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="5">
         <v>7703039367</v>
       </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="3" t="s">
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K148" s="3" t="s">
+      <c r="K148" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4050,69 +3627,69 @@
       <c r="A149" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="8">
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="5">
         <v>7703039368</v>
       </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="3" t="s">
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="K149" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="11"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="8"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="3"/>
-      <c r="E212" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F212" s="8">
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212" s="5">
         <v>7703039429</v>
       </c>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="3" t="s">
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J212" s="4" t="s">
+      <c r="J212" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K212" s="3" t="s">
+      <c r="K212" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4120,28 +3697,28 @@
       <c r="A213" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F213" s="8">
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="5">
         <v>7703039430</v>
       </c>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="3" t="s">
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J213" s="4" t="s">
+      <c r="J213" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K213" s="3" t="s">
+      <c r="K213" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4149,28 +3726,28 @@
       <c r="A214" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F214" s="8">
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="5">
         <v>7703039431</v>
       </c>
-      <c r="G214" s="16"/>
-      <c r="H214" s="16"/>
-      <c r="I214" s="3" t="s">
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J214" s="4" t="s">
+      <c r="J214" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K214" s="3" t="s">
+      <c r="K214" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4178,28 +3755,28 @@
       <c r="A215" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F215" s="8">
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" s="5">
         <v>7703039432</v>
       </c>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="3" t="s">
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J215" s="4" t="s">
+      <c r="J215" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K215" s="3" t="s">
+      <c r="K215" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4207,28 +3784,28 @@
       <c r="A216" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F216" s="8">
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="5">
         <v>7703039433</v>
       </c>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="3" t="s">
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J216" s="4" t="s">
+      <c r="J216" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K216" s="3" t="s">
+      <c r="K216" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4236,28 +3813,28 @@
       <c r="A217" t="s">
         <v>1</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" s="3"/>
-      <c r="E217" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F217" s="8">
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="5">
         <v>7703039434</v>
       </c>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="3" t="s">
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J217" s="4" t="s">
+      <c r="J217" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K217" s="3" t="s">
+      <c r="K217" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4265,28 +3842,28 @@
       <c r="A218" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F218" s="8">
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" s="5">
         <v>7703039435</v>
       </c>
-      <c r="G218" s="16"/>
-      <c r="H218" s="16"/>
-      <c r="I218" s="3" t="s">
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J218" s="4" t="s">
+      <c r="J218" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K218" s="3" t="s">
+      <c r="K218" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4294,28 +3871,28 @@
       <c r="A219" t="s">
         <v>1</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F219" s="8">
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" s="5">
         <v>7703039436</v>
       </c>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="3" t="s">
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J219" s="4" t="s">
+      <c r="J219" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K219" s="3" t="s">
+      <c r="K219" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4323,28 +3900,28 @@
       <c r="A220" t="s">
         <v>1</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F220" s="8">
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="5">
         <v>7703039437</v>
       </c>
-      <c r="G220" s="16"/>
-      <c r="H220" s="16"/>
-      <c r="I220" s="3" t="s">
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J220" s="4" t="s">
+      <c r="J220" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K220" s="3" t="s">
+      <c r="K220" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4352,28 +3929,28 @@
       <c r="A221" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F221" s="8">
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221" s="5">
         <v>7703039438</v>
       </c>
-      <c r="G221" s="16"/>
-      <c r="H221" s="16"/>
-      <c r="I221" s="3" t="s">
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J221" s="4" t="s">
+      <c r="J221" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K221" s="3" t="s">
+      <c r="K221" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4381,28 +3958,28 @@
       <c r="A222" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F222" s="8">
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="5">
         <v>7703039439</v>
       </c>
-      <c r="G222" s="16"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="3" t="s">
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J222" s="4" t="s">
+      <c r="J222" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K222" s="3" t="s">
+      <c r="K222" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4410,28 +3987,28 @@
       <c r="A223" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F223" s="8">
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223" s="5">
         <v>7703039440</v>
       </c>
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="3" t="s">
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J223" s="4" t="s">
+      <c r="J223" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K223" s="3" t="s">
+      <c r="K223" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4439,28 +4016,28 @@
       <c r="A224" t="s">
         <v>1</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F224" s="8">
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F224" s="5">
         <v>7703039441</v>
       </c>
-      <c r="G224" s="16"/>
-      <c r="H224" s="16"/>
-      <c r="I224" s="3" t="s">
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="4" t="s">
+      <c r="J224" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K224" s="3" t="s">
+      <c r="K224" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4468,28 +4045,28 @@
       <c r="A225" t="s">
         <v>1</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D225" s="3"/>
-      <c r="E225" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F225" s="8">
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="5">
         <v>7703039442</v>
       </c>
-      <c r="G225" s="16"/>
-      <c r="H225" s="16"/>
-      <c r="I225" s="3" t="s">
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J225" s="4" t="s">
+      <c r="J225" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K225" s="3" t="s">
+      <c r="K225" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4497,28 +4074,28 @@
       <c r="A226" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D226" s="3"/>
-      <c r="E226" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F226" s="8">
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="5">
         <v>7703039443</v>
       </c>
-      <c r="G226" s="16"/>
-      <c r="H226" s="16"/>
-      <c r="I226" s="3" t="s">
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J226" s="4" t="s">
+      <c r="J226" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K226" s="3" t="s">
+      <c r="K226" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4526,28 +4103,28 @@
       <c r="A227" t="s">
         <v>1</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D227" s="3"/>
-      <c r="E227" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F227" s="8">
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227" s="5">
         <v>7703039444</v>
       </c>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="3" t="s">
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J227" s="4" t="s">
+      <c r="J227" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K227" s="3" t="s">
+      <c r="K227" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4555,28 +4132,28 @@
       <c r="A228" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D228" s="3"/>
-      <c r="E228" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F228" s="8">
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F228" s="5">
         <v>7703039445</v>
       </c>
-      <c r="G228" s="16"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="3" t="s">
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J228" s="4" t="s">
+      <c r="J228" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K228" s="3" t="s">
+      <c r="K228" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4584,28 +4161,28 @@
       <c r="A229" t="s">
         <v>1</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D229" s="3"/>
-      <c r="E229" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F229" s="8">
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="5">
         <v>7703039446</v>
       </c>
-      <c r="G229" s="16"/>
-      <c r="H229" s="16"/>
-      <c r="I229" s="3" t="s">
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J229" s="4" t="s">
+      <c r="J229" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K229" s="3" t="s">
+      <c r="K229" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4613,28 +4190,28 @@
       <c r="A230" t="s">
         <v>1</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F230" s="8">
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230" s="5">
         <v>7703039447</v>
       </c>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="3" t="s">
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J230" s="4" t="s">
+      <c r="J230" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K230" s="3" t="s">
+      <c r="K230" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4642,28 +4219,28 @@
       <c r="A231" t="s">
         <v>1</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D231" s="3"/>
-      <c r="E231" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F231" s="8">
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F231" s="5">
         <v>7703039448</v>
       </c>
-      <c r="G231" s="16"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="3" t="s">
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J231" s="4" t="s">
+      <c r="J231" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K231" s="3" t="s">
+      <c r="K231" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4671,28 +4248,28 @@
       <c r="A232" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F232" s="8">
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" s="5">
         <v>7703039449</v>
       </c>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="3" t="s">
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J232" s="4" t="s">
+      <c r="J232" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K232" s="3" t="s">
+      <c r="K232" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4700,28 +4277,28 @@
       <c r="A233" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F233" s="8">
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" s="5">
         <v>7703039450</v>
       </c>
-      <c r="G233" s="16"/>
-      <c r="H233" s="16"/>
-      <c r="I233" s="3" t="s">
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J233" s="4" t="s">
+      <c r="J233" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K233" s="3" t="s">
+      <c r="K233" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4729,28 +4306,28 @@
       <c r="A234" t="s">
         <v>1</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F234" s="8">
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F234" s="5">
         <v>7703039451</v>
       </c>
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="3" t="s">
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J234" s="4" t="s">
+      <c r="J234" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K234" s="3" t="s">
+      <c r="K234" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4758,28 +4335,28 @@
       <c r="A235" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D235" s="3"/>
-      <c r="E235" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F235" s="8">
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235" s="5">
         <v>7703039452</v>
       </c>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="3" t="s">
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J235" s="4" t="s">
+      <c r="J235" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K235" s="3" t="s">
+      <c r="K235" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4787,28 +4364,28 @@
       <c r="A236" t="s">
         <v>1</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D236" s="3"/>
-      <c r="E236" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F236" s="8">
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" s="5">
         <v>7703039453</v>
       </c>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="3" t="s">
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J236" s="4" t="s">
+      <c r="J236" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K236" s="3" t="s">
+      <c r="K236" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4816,28 +4393,28 @@
       <c r="A237" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" s="3"/>
-      <c r="E237" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F237" s="8">
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237" s="5">
         <v>7703039454</v>
       </c>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="3" t="s">
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J237" s="4" t="s">
+      <c r="J237" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K237" s="3" t="s">
+      <c r="K237" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4845,28 +4422,28 @@
       <c r="A238" t="s">
         <v>1</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F238" s="8">
+      <c r="B238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238" s="5">
         <v>7703039455</v>
       </c>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="3" t="s">
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J238" s="4" t="s">
+      <c r="J238" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K238" s="3" t="s">
+      <c r="K238" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4874,28 +4451,28 @@
       <c r="A239" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D239" s="3"/>
-      <c r="E239" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F239" s="8">
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" s="5">
         <v>7703039456</v>
       </c>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="3" t="s">
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J239" s="4" t="s">
+      <c r="J239" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K239" s="3" t="s">
+      <c r="K239" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4903,28 +4480,28 @@
       <c r="A240" t="s">
         <v>1</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D240" s="3"/>
-      <c r="E240" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F240" s="8">
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="5">
         <v>7703039457</v>
       </c>
-      <c r="G240" s="16"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="3" t="s">
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J240" s="4" t="s">
+      <c r="J240" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K240" s="3" t="s">
+      <c r="K240" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4932,28 +4509,28 @@
       <c r="A241" t="s">
         <v>1</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D241" s="3"/>
-      <c r="E241" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F241" s="8">
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241" s="5">
         <v>7703039458</v>
       </c>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="3" t="s">
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J241" s="4" t="s">
+      <c r="J241" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K241" s="3" t="s">
+      <c r="K241" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4961,28 +4538,28 @@
       <c r="A242" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D242" s="3"/>
-      <c r="E242" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F242" s="8">
+      <c r="B242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="5">
         <v>7703039459</v>
       </c>
-      <c r="G242" s="16"/>
-      <c r="H242" s="16"/>
-      <c r="I242" s="3" t="s">
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J242" s="4" t="s">
+      <c r="J242" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K242" s="3" t="s">
+      <c r="K242" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4990,28 +4567,28 @@
       <c r="A243" t="s">
         <v>1</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" s="3"/>
-      <c r="E243" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F243" s="8">
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F243" s="5">
         <v>7703039460</v>
       </c>
-      <c r="G243" s="16"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="3" t="s">
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J243" s="4" t="s">
+      <c r="J243" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K243" s="3" t="s">
+      <c r="K243" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5019,28 +4596,28 @@
       <c r="A244" t="s">
         <v>1</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D244" s="3"/>
-      <c r="E244" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F244" s="8">
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="5">
         <v>7703039461</v>
       </c>
-      <c r="G244" s="16"/>
-      <c r="H244" s="16"/>
-      <c r="I244" s="3" t="s">
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J244" s="4" t="s">
+      <c r="J244" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K244" s="3" t="s">
+      <c r="K244" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5048,28 +4625,28 @@
       <c r="A245" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D245" s="3"/>
-      <c r="E245" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F245" s="8">
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="5">
         <v>7703039462</v>
       </c>
-      <c r="G245" s="16"/>
-      <c r="H245" s="16"/>
-      <c r="I245" s="3" t="s">
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J245" s="4" t="s">
+      <c r="J245" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K245" s="3" t="s">
+      <c r="K245" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5077,28 +4654,28 @@
       <c r="A246" t="s">
         <v>1</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D246" s="3"/>
-      <c r="E246" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F246" s="8">
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" s="5">
         <v>7703039463</v>
       </c>
-      <c r="G246" s="16"/>
-      <c r="H246" s="16"/>
-      <c r="I246" s="3" t="s">
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J246" s="4" t="s">
+      <c r="J246" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K246" s="3" t="s">
+      <c r="K246" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5106,28 +4683,28 @@
       <c r="A247" t="s">
         <v>1</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D247" s="3"/>
-      <c r="E247" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F247" s="8">
+      <c r="B247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247" s="5">
         <v>7703039464</v>
       </c>
-      <c r="G247" s="16"/>
-      <c r="H247" s="16"/>
-      <c r="I247" s="3" t="s">
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J247" s="4" t="s">
+      <c r="J247" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K247" s="3" t="s">
+      <c r="K247" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5135,28 +4712,28 @@
       <c r="A248" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D248" s="3"/>
-      <c r="E248" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F248" s="8">
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" s="5">
         <v>7703039465</v>
       </c>
-      <c r="G248" s="16"/>
-      <c r="H248" s="16"/>
-      <c r="I248" s="3" t="s">
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J248" s="4" t="s">
+      <c r="J248" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K248" s="3" t="s">
+      <c r="K248" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5164,28 +4741,28 @@
       <c r="A249" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D249" s="3"/>
-      <c r="E249" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F249" s="8">
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1"/>
+      <c r="E249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249" s="5">
         <v>7703039466</v>
       </c>
-      <c r="G249" s="16"/>
-      <c r="H249" s="16"/>
-      <c r="I249" s="3" t="s">
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J249" s="4" t="s">
+      <c r="J249" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K249" s="3" t="s">
+      <c r="K249" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5193,28 +4770,28 @@
       <c r="A250" t="s">
         <v>1</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D250" s="3"/>
-      <c r="E250" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F250" s="8">
+      <c r="B250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250" s="5">
         <v>7703039467</v>
       </c>
-      <c r="G250" s="16"/>
-      <c r="H250" s="16"/>
-      <c r="I250" s="3" t="s">
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J250" s="4" t="s">
+      <c r="J250" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K250" s="3" t="s">
+      <c r="K250" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5222,28 +4799,28 @@
       <c r="A251" t="s">
         <v>1</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F251" s="9">
+      <c r="B251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251" s="6">
         <v>7703039468</v>
       </c>
-      <c r="G251" s="18"/>
-      <c r="H251" s="18"/>
-      <c r="I251" s="5" t="s">
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J251" s="6" t="s">
+      <c r="J251" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K251" s="5" t="s">
+      <c r="K251" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5258,6 +4835,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -5452,15 +5038,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5473,6 +5050,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5487,14 +5072,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A91193A-2F59-4445-BB2B-8D012006518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010FFD30-73EE-49AD-A1A7-ACFB7D2565E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="16">
-        <v>7703043038</v>
+        <v>7703043052</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>79</v>
@@ -990,7 +990,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="16">
-        <v>7703043039</v>
+        <v>7703043053</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -1025,7 +1025,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="16">
-        <v>7703043040</v>
+        <v>7703043054</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -1060,7 +1060,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="16">
-        <v>7703043041</v>
+        <v>7703043055</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>79</v>
@@ -1095,7 +1095,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="16">
-        <v>7703043042</v>
+        <v>7703043056</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>79</v>
@@ -1130,7 +1130,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="16">
-        <v>7703043043</v>
+        <v>7703043057</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>79</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF0162-2375-4727-AD9A-4F34C1C1509A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB53DAC-580A-4DDF-8AB1-E279D5BCA653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,6 +4130,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -4324,15 +4333,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4345,6 +4345,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4359,14 +4367,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB53DAC-580A-4DDF-8AB1-E279D5BCA653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C16F6-A67F-41BC-8508-990474AB328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="16">
-        <v>7703048884</v>
+        <v>7703048900</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>83</v>
@@ -1006,7 +1006,7 @@
         <v>61</v>
       </c>
       <c r="G3" s="16">
-        <v>7703048885</v>
+        <v>7703048901</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>83</v>
@@ -1044,7 +1044,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="16">
-        <v>7703048886</v>
+        <v>7703048902</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>83</v>
@@ -1082,7 +1082,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="16">
-        <v>7703048887</v>
+        <v>7703048903</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>83</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C16F6-A67F-41BC-8508-990474AB328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8704FA5-585A-4E18-88A8-C152B305A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$L$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDD!$A$1:$M$226</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="93">
   <si>
     <t>Usager</t>
   </si>
@@ -303,6 +303,21 @@
   </si>
   <si>
     <t xml:space="preserve">31/12/2022 </t>
+  </si>
+  <si>
+    <t>Perte</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>Deterioration</t>
+  </si>
+  <si>
+    <t>TraitemantAgent</t>
+  </si>
+  <si>
+    <t>Oui</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +571,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,3234 +916,3576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="45.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="16">
-        <v>7703048900</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16">
+        <v>7703048922</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="16">
-        <v>7703048901</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16">
+        <v>7703048917</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="16">
-        <v>7703048902</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16">
+        <v>7703048918</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16">
         <v>7703048903</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16">
         <v>7703048888</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="16">
         <v>7703048889</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="16">
         <v>7703048890</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="16">
+      <c r="H9" s="16">
         <v>7703048891</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>7703048892</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="16">
         <v>7703048893</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>7703048894</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="16">
+      <c r="H13" s="16">
         <v>7703048895</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="16">
+      <c r="H14" s="16">
         <v>7703048896</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H15" s="16">
         <v>7703048897</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="17">
-        <v>7703048961</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="17">
+        <v>7703048962</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="18">
-        <v>7703049049</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="18">
+        <v>7703049050</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>7703049081</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="21">
+        <v>7703046535</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="L18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>7703049082</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>7703049099</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="G20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
         <v>7703049083</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="I20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="J20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="G21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
         <v>7703049084</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="L21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="G22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
         <v>7703049085</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="L22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="G23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
         <v>7703049086</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="L23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="G24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
         <v>7703049087</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="I24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="J24" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="G25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
         <v>7703049088</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="J25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="L25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="G26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
         <v>7703049089</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="J26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="L26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="G27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
         <v>7703049090</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="J27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="L27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="G28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
         <v>7703049091</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="J28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="L28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="G29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
         <v>7703049092</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="I29" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="J29" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>7703049093</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>7703049094</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="J30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="L30" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17">
-        <v>7703049073</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="G31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>7703049075</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="J31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="L31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <v>7703049161</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="G32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18">
+        <v>7703049163</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="J32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="L32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="16">
+        <v>7703048923</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="16">
+        <v>7703048924</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="16">
+        <v>7703048925</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>7703049096</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>7703049097</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>7703049098</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G99" s="5">
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5">
         <v>7703039343</v>
       </c>
-      <c r="H99" s="10"/>
       <c r="I99" s="10"/>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="10"/>
+      <c r="K99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G100" s="5">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="5">
         <v>7703039344</v>
       </c>
-      <c r="H100" s="10"/>
       <c r="I100" s="10"/>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="10"/>
+      <c r="K100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="5">
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5">
         <v>7703039345</v>
       </c>
-      <c r="H101" s="10"/>
       <c r="I101" s="10"/>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="10"/>
+      <c r="K101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="5">
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="5">
         <v>7703039346</v>
       </c>
-      <c r="H102" s="10"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="10"/>
+      <c r="K102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="5">
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5">
         <v>7703039347</v>
       </c>
-      <c r="H103" s="10"/>
       <c r="I103" s="10"/>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="10"/>
+      <c r="K103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="5">
         <v>7703039348</v>
       </c>
-      <c r="H104" s="10"/>
       <c r="I104" s="10"/>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="10"/>
+      <c r="K104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="5">
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5">
         <v>7703039349</v>
       </c>
-      <c r="H105" s="10"/>
       <c r="I105" s="10"/>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="10"/>
+      <c r="K105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="5">
         <v>7703039350</v>
       </c>
-      <c r="H106" s="10"/>
       <c r="I106" s="10"/>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="10"/>
+      <c r="K106" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="5">
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5">
         <v>7703039351</v>
       </c>
-      <c r="H107" s="10"/>
       <c r="I107" s="10"/>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="10"/>
+      <c r="K107" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="5">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="5">
         <v>7703039352</v>
       </c>
-      <c r="H108" s="10"/>
       <c r="I108" s="10"/>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="10"/>
+      <c r="K108" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G109" s="5">
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5">
         <v>7703039353</v>
       </c>
-      <c r="H109" s="10"/>
       <c r="I109" s="10"/>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="10"/>
+      <c r="K109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
         <v>7703039354</v>
       </c>
-      <c r="H110" s="10"/>
       <c r="I110" s="10"/>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="10"/>
+      <c r="K110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="5">
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5">
         <v>7703039355</v>
       </c>
-      <c r="H111" s="10"/>
       <c r="I111" s="10"/>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="10"/>
+      <c r="K111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="5">
         <v>7703039356</v>
       </c>
-      <c r="H112" s="10"/>
       <c r="I112" s="10"/>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="10"/>
+      <c r="K112" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="5">
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
         <v>7703039357</v>
       </c>
-      <c r="H113" s="10"/>
       <c r="I113" s="10"/>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="10"/>
+      <c r="K113" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="M113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" s="5">
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="5">
         <v>7703039358</v>
       </c>
-      <c r="H114" s="10"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="10"/>
+      <c r="K114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="5">
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5">
         <v>7703039359</v>
       </c>
-      <c r="H115" s="10"/>
       <c r="I115" s="10"/>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="10"/>
+      <c r="K115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="5">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="5">
         <v>7703039360</v>
       </c>
-      <c r="H116" s="10"/>
       <c r="I116" s="10"/>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="10"/>
+      <c r="K116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" s="5">
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5">
         <v>7703039361</v>
       </c>
-      <c r="H117" s="10"/>
       <c r="I117" s="10"/>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="10"/>
+      <c r="K117" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="M117" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G118" s="5">
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="5">
         <v>7703039362</v>
       </c>
-      <c r="H118" s="10"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="10"/>
+      <c r="K118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="L118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="5">
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5">
         <v>7703039363</v>
       </c>
-      <c r="H119" s="10"/>
       <c r="I119" s="10"/>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="10"/>
+      <c r="K119" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="L119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G120" s="5">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="5">
         <v>7703039364</v>
       </c>
-      <c r="H120" s="10"/>
       <c r="I120" s="10"/>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="10"/>
+      <c r="K120" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="L120" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="M120" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="5">
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5">
         <v>7703039365</v>
       </c>
-      <c r="H121" s="10"/>
       <c r="I121" s="10"/>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="10"/>
+      <c r="K121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G122" s="5">
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
         <v>7703039366</v>
       </c>
-      <c r="H122" s="10"/>
       <c r="I122" s="10"/>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="10"/>
+      <c r="K122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="L122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="5">
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5">
         <v>7703039367</v>
       </c>
-      <c r="H123" s="10"/>
       <c r="I123" s="10"/>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="10"/>
+      <c r="K123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="L123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G124" s="5">
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" s="5">
         <v>7703039368</v>
       </c>
-      <c r="H124" s="10"/>
       <c r="I124" s="10"/>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="10"/>
+      <c r="K124" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="L124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="8"/>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="11"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="7"/>
       <c r="I125" s="11"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J125" s="11"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="8"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G187" s="5">
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H187" s="5">
         <v>7703039429</v>
       </c>
-      <c r="H187" s="10"/>
       <c r="I187" s="10"/>
-      <c r="J187" s="1" t="s">
+      <c r="J187" s="10"/>
+      <c r="K187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="L187" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="M187" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G188" s="5">
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H188" s="5">
         <v>7703039430</v>
       </c>
-      <c r="H188" s="10"/>
       <c r="I188" s="10"/>
-      <c r="J188" s="1" t="s">
+      <c r="J188" s="10"/>
+      <c r="K188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="L188" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="M188" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G189" s="5">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H189" s="5">
         <v>7703039431</v>
       </c>
-      <c r="H189" s="10"/>
       <c r="I189" s="10"/>
-      <c r="J189" s="1" t="s">
+      <c r="J189" s="10"/>
+      <c r="K189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="L189" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="M189" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" s="5">
+      <c r="C190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H190" s="5">
         <v>7703039432</v>
       </c>
-      <c r="H190" s="10"/>
       <c r="I190" s="10"/>
-      <c r="J190" s="1" t="s">
+      <c r="J190" s="10"/>
+      <c r="K190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="L190" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="M190" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G191" s="5">
+      <c r="C191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H191" s="5">
         <v>7703039433</v>
       </c>
-      <c r="H191" s="10"/>
       <c r="I191" s="10"/>
-      <c r="J191" s="1" t="s">
+      <c r="J191" s="10"/>
+      <c r="K191" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="L191" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="M191" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G192" s="5">
+      <c r="C192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H192" s="5">
         <v>7703039434</v>
       </c>
-      <c r="H192" s="10"/>
       <c r="I192" s="10"/>
-      <c r="J192" s="1" t="s">
+      <c r="J192" s="10"/>
+      <c r="K192" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="L192" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="M192" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G193" s="5">
+      <c r="C193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H193" s="5">
         <v>7703039435</v>
       </c>
-      <c r="H193" s="10"/>
       <c r="I193" s="10"/>
-      <c r="J193" s="1" t="s">
+      <c r="J193" s="10"/>
+      <c r="K193" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="L193" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="M193" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" s="5">
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="5">
         <v>7703039436</v>
       </c>
-      <c r="H194" s="10"/>
       <c r="I194" s="10"/>
-      <c r="J194" s="1" t="s">
+      <c r="J194" s="10"/>
+      <c r="K194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="L194" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="M194" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" s="5">
+      <c r="C195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H195" s="5">
         <v>7703039437</v>
       </c>
-      <c r="H195" s="10"/>
       <c r="I195" s="10"/>
-      <c r="J195" s="1" t="s">
+      <c r="J195" s="10"/>
+      <c r="K195" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="L195" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="M195" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" s="5">
+      <c r="C196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H196" s="5">
         <v>7703039438</v>
       </c>
-      <c r="H196" s="10"/>
       <c r="I196" s="10"/>
-      <c r="J196" s="1" t="s">
+      <c r="J196" s="10"/>
+      <c r="K196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="L196" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="M196" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1"/>
-      <c r="F197" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G197" s="5">
+      <c r="C197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H197" s="5">
         <v>7703039439</v>
       </c>
-      <c r="H197" s="10"/>
       <c r="I197" s="10"/>
-      <c r="J197" s="1" t="s">
+      <c r="J197" s="10"/>
+      <c r="K197" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K197" s="2" t="s">
+      <c r="L197" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="M197" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" s="5">
+      <c r="C198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H198" s="5">
         <v>7703039440</v>
       </c>
-      <c r="H198" s="10"/>
       <c r="I198" s="10"/>
-      <c r="J198" s="1" t="s">
+      <c r="J198" s="10"/>
+      <c r="K198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K198" s="2" t="s">
+      <c r="L198" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="M198" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" s="5">
+      <c r="C199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H199" s="5">
         <v>7703039441</v>
       </c>
-      <c r="H199" s="10"/>
       <c r="I199" s="10"/>
-      <c r="J199" s="1" t="s">
+      <c r="J199" s="10"/>
+      <c r="K199" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="L199" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="M199" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="5">
+      <c r="C200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H200" s="5">
         <v>7703039442</v>
       </c>
-      <c r="H200" s="10"/>
       <c r="I200" s="10"/>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="10"/>
+      <c r="K200" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K200" s="2" t="s">
+      <c r="L200" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="M200" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G201" s="5">
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H201" s="5">
         <v>7703039443</v>
       </c>
-      <c r="H201" s="10"/>
       <c r="I201" s="10"/>
-      <c r="J201" s="1" t="s">
+      <c r="J201" s="10"/>
+      <c r="K201" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="L201" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="M201" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G202" s="5">
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H202" s="5">
         <v>7703039444</v>
       </c>
-      <c r="H202" s="10"/>
       <c r="I202" s="10"/>
-      <c r="J202" s="1" t="s">
+      <c r="J202" s="10"/>
+      <c r="K202" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K202" s="2" t="s">
+      <c r="L202" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="M202" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G203" s="5">
+      <c r="C203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H203" s="5">
         <v>7703039445</v>
       </c>
-      <c r="H203" s="10"/>
       <c r="I203" s="10"/>
-      <c r="J203" s="1" t="s">
+      <c r="J203" s="10"/>
+      <c r="K203" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K203" s="2" t="s">
+      <c r="L203" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="M203" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G204" s="5">
+      <c r="C204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H204" s="5">
         <v>7703039446</v>
       </c>
-      <c r="H204" s="10"/>
       <c r="I204" s="10"/>
-      <c r="J204" s="1" t="s">
+      <c r="J204" s="10"/>
+      <c r="K204" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K204" s="2" t="s">
+      <c r="L204" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="M204" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G205" s="5">
+      <c r="C205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H205" s="5">
         <v>7703039447</v>
       </c>
-      <c r="H205" s="10"/>
       <c r="I205" s="10"/>
-      <c r="J205" s="1" t="s">
+      <c r="J205" s="10"/>
+      <c r="K205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="L205" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="M205" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G206" s="5">
+      <c r="C206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H206" s="5">
         <v>7703039448</v>
       </c>
-      <c r="H206" s="10"/>
       <c r="I206" s="10"/>
-      <c r="J206" s="1" t="s">
+      <c r="J206" s="10"/>
+      <c r="K206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K206" s="2" t="s">
+      <c r="L206" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="M206" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G207" s="5">
+      <c r="C207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H207" s="5">
         <v>7703039449</v>
       </c>
-      <c r="H207" s="10"/>
       <c r="I207" s="10"/>
-      <c r="J207" s="1" t="s">
+      <c r="J207" s="10"/>
+      <c r="K207" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K207" s="2" t="s">
+      <c r="L207" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="1"/>
-      <c r="F208" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G208" s="5">
+      <c r="C208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H208" s="5">
         <v>7703039450</v>
       </c>
-      <c r="H208" s="10"/>
       <c r="I208" s="10"/>
-      <c r="J208" s="1" t="s">
+      <c r="J208" s="10"/>
+      <c r="K208" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K208" s="2" t="s">
+      <c r="L208" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="M208" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G209" s="5">
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H209" s="5">
         <v>7703039451</v>
       </c>
-      <c r="H209" s="10"/>
       <c r="I209" s="10"/>
-      <c r="J209" s="1" t="s">
+      <c r="J209" s="10"/>
+      <c r="K209" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K209" s="2" t="s">
+      <c r="L209" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="M209" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="1"/>
-      <c r="F210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G210" s="5">
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H210" s="5">
         <v>7703039452</v>
       </c>
-      <c r="H210" s="10"/>
       <c r="I210" s="10"/>
-      <c r="J210" s="1" t="s">
+      <c r="J210" s="10"/>
+      <c r="K210" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K210" s="2" t="s">
+      <c r="L210" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="M210" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="1"/>
-      <c r="F211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G211" s="5">
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H211" s="5">
         <v>7703039453</v>
       </c>
-      <c r="H211" s="10"/>
       <c r="I211" s="10"/>
-      <c r="J211" s="1" t="s">
+      <c r="J211" s="10"/>
+      <c r="K211" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K211" s="2" t="s">
+      <c r="L211" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="M211" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" s="1"/>
-      <c r="F212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G212" s="5">
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H212" s="5">
         <v>7703039454</v>
       </c>
-      <c r="H212" s="10"/>
       <c r="I212" s="10"/>
-      <c r="J212" s="1" t="s">
+      <c r="J212" s="10"/>
+      <c r="K212" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K212" s="2" t="s">
+      <c r="L212" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="M212" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G213" s="5">
+      <c r="C213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H213" s="5">
         <v>7703039455</v>
       </c>
-      <c r="H213" s="10"/>
       <c r="I213" s="10"/>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="10"/>
+      <c r="K213" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K213" s="2" t="s">
+      <c r="L213" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="M213" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" s="1"/>
-      <c r="F214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G214" s="5">
+      <c r="C214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H214" s="5">
         <v>7703039456</v>
       </c>
-      <c r="H214" s="10"/>
       <c r="I214" s="10"/>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="10"/>
+      <c r="K214" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K214" s="2" t="s">
+      <c r="L214" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="M214" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G215" s="5">
+      <c r="C215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H215" s="5">
         <v>7703039457</v>
       </c>
-      <c r="H215" s="10"/>
       <c r="I215" s="10"/>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="10"/>
+      <c r="K215" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K215" s="2" t="s">
+      <c r="L215" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="M215" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G216" s="5">
+      <c r="C216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H216" s="5">
         <v>7703039458</v>
       </c>
-      <c r="H216" s="10"/>
       <c r="I216" s="10"/>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="10"/>
+      <c r="K216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K216" s="2" t="s">
+      <c r="L216" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="M216" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="1"/>
-      <c r="F217" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G217" s="5">
+      <c r="C217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H217" s="5">
         <v>7703039459</v>
       </c>
-      <c r="H217" s="10"/>
       <c r="I217" s="10"/>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="10"/>
+      <c r="K217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K217" s="2" t="s">
+      <c r="L217" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="M217" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="1"/>
-      <c r="F218" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G218" s="5">
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H218" s="5">
         <v>7703039460</v>
       </c>
-      <c r="H218" s="10"/>
       <c r="I218" s="10"/>
-      <c r="J218" s="1" t="s">
+      <c r="J218" s="10"/>
+      <c r="K218" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K218" s="2" t="s">
+      <c r="L218" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="M218" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="1"/>
-      <c r="F219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G219" s="5">
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F219" s="1"/>
+      <c r="G219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H219" s="5">
         <v>7703039461</v>
       </c>
-      <c r="H219" s="10"/>
       <c r="I219" s="10"/>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="10"/>
+      <c r="K219" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K219" s="2" t="s">
+      <c r="L219" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="M219" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="1"/>
-      <c r="F220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G220" s="5">
+      <c r="C220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H220" s="5">
         <v>7703039462</v>
       </c>
-      <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="10"/>
+      <c r="K220" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="L220" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="M220" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" s="1"/>
-      <c r="F221" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G221" s="5">
+      <c r="C221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H221" s="5">
         <v>7703039463</v>
       </c>
-      <c r="H221" s="10"/>
       <c r="I221" s="10"/>
-      <c r="J221" s="1" t="s">
+      <c r="J221" s="10"/>
+      <c r="K221" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K221" s="2" t="s">
+      <c r="L221" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="M221" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="1"/>
-      <c r="F222" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G222" s="5">
+      <c r="C222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H222" s="5">
         <v>7703039464</v>
       </c>
-      <c r="H222" s="10"/>
       <c r="I222" s="10"/>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="10"/>
+      <c r="K222" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K222" s="2" t="s">
+      <c r="L222" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="M222" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G223" s="5">
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H223" s="5">
         <v>7703039465</v>
       </c>
-      <c r="H223" s="10"/>
       <c r="I223" s="10"/>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="10"/>
+      <c r="K223" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K223" s="2" t="s">
+      <c r="L223" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="M223" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="1"/>
-      <c r="F224" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G224" s="5">
+      <c r="C224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H224" s="5">
         <v>7703039466</v>
       </c>
-      <c r="H224" s="10"/>
       <c r="I224" s="10"/>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="10"/>
+      <c r="K224" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K224" s="2" t="s">
+      <c r="L224" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="M224" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="1"/>
-      <c r="F225" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G225" s="5">
+      <c r="C225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F225" s="1"/>
+      <c r="G225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H225" s="5">
         <v>7703039467</v>
       </c>
-      <c r="H225" s="10"/>
       <c r="I225" s="10"/>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="10"/>
+      <c r="K225" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K225" s="2" t="s">
+      <c r="L225" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="M225" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="3"/>
-      <c r="F226" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G226" s="6">
+      <c r="C226" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F226" s="3"/>
+      <c r="G226" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H226" s="6">
         <v>7703039468</v>
       </c>
-      <c r="H226" s="12"/>
       <c r="I226" s="12"/>
-      <c r="J226" s="3" t="s">
+      <c r="J226" s="12"/>
+      <c r="K226" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K226" s="4" t="s">
+      <c r="L226" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L226" s="3" t="s">
+      <c r="M226" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhizaoui\.git\NewProject29092023\Nouveau dossier1\22_11\ANEF-AutomatizationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\ANEF-RenouvellementSejour\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8704FA5-585A-4E18-88A8-C152B305A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B56A0EA-C600-49B7-8D09-F1C11FAAACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="95">
   <si>
     <t>Usager</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Oui</t>
+  </si>
+  <si>
+    <t>16/01/2023</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
   </si>
 </sst>
 </file>
@@ -596,9 +602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,9 +642,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,26 +677,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,26 +712,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,27 +890,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="45.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="75.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -979,7 +951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,13 +974,13 @@
         <v>61</v>
       </c>
       <c r="H2" s="16">
-        <v>7703048922</v>
+        <v>7703043876</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>59</v>
@@ -1020,7 +992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1484,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -2616,7 +2588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -2646,7 +2618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2706,7 +2678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -2736,7 +2708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -2766,7 +2738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2796,7 +2768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -2826,7 +2798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -2856,7 +2828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -2886,7 +2858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +2978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -3096,7 +3068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -3156,7 +3128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -3186,7 +3158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -3216,7 +3188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -3246,7 +3218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -3276,7 +3248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -3289,7 +3261,7 @@
       <c r="L125" s="9"/>
       <c r="M125" s="8"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -3319,7 +3291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -3349,7 +3321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -3409,7 +3381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -3559,7 +3531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -3619,7 +3591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -3649,7 +3621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -3709,7 +3681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -3739,7 +3711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -3799,7 +3771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -3829,7 +3801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -3859,7 +3831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -3889,7 +3861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -3919,7 +3891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -3949,7 +3921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +3981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +4011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -4069,7 +4041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -4129,7 +4101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -4159,7 +4131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -4189,7 +4161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -4219,7 +4191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -4279,7 +4251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1</v>
       </c>
@@ -4309,7 +4281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -4339,7 +4311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -4369,7 +4341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -4399,7 +4371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -4429,7 +4401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -4500,15 +4472,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -4703,6 +4666,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4715,14 +4687,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4737,6 +4701,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\ANEF-RenouvellementSejour\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B56A0EA-C600-49B7-8D09-F1C11FAAACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D9ED2-D9B8-41E9-B9D8-F0346F47521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:M226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="16">
-        <v>7703043876</v>
+        <v>7703043875</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>93</v>

--- a/Data Files/JDD Automatisation.xlsx
+++ b/Data Files/JDD Automatisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISSAM.RHARBAOUI\git\ANEF-RenouvellementSejour\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D9ED2-D9B8-41E9-B9D8-F0346F47521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663B58E-778C-4A28-BDEE-1C161C632899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDD" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="93">
   <si>
     <t>Usager</t>
   </si>
@@ -318,12 +318,6 @@
   </si>
   <si>
     <t>Oui</t>
-  </si>
-  <si>
-    <t>16/01/2023</t>
-  </si>
-  <si>
-    <t>15/01/2024</t>
   </si>
 </sst>
 </file>
@@ -890,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,13 +968,13 @@
         <v>61</v>
       </c>
       <c r="H2" s="16">
-        <v>7703043875</v>
+        <v>7703048926</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>59</v>
@@ -1015,7 +1009,7 @@
         <v>61</v>
       </c>
       <c r="H3" s="16">
-        <v>7703048917</v>
+        <v>7703048927</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>83</v>
@@ -1056,7 +1050,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="16">
-        <v>7703048918</v>
+        <v>7703048928</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>83</v>
@@ -1097,7 +1091,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="16">
-        <v>7703048903</v>
+        <v>7703048929</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>83</v>
@@ -1138,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="16">
-        <v>7703048888</v>
+        <v>7703048930</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>83</v>
@@ -1179,7 +1173,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="16">
-        <v>7703048889</v>
+        <v>7703048931</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>83</v>
@@ -1220,7 +1214,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="16">
-        <v>7703048890</v>
+        <v>7703048932</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>83</v>
@@ -1261,7 +1255,7 @@
         <v>61</v>
       </c>
       <c r="H9" s="16">
-        <v>7703048891</v>
+        <v>7703048933</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>83</v>
@@ -1302,7 +1296,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="16">
-        <v>7703048892</v>
+        <v>7703048934</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>83</v>
@@ -1343,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="16">
-        <v>7703048893</v>
+        <v>7703048935</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>83</v>
@@ -1384,7 +1378,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="16">
-        <v>7703048894</v>
+        <v>7703048936</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>83</v>
@@ -1425,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="H13" s="16">
-        <v>7703048895</v>
+        <v>7703048937</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>83</v>
@@ -1466,7 +1460,7 @@
         <v>61</v>
       </c>
       <c r="H14" s="16">
-        <v>7703048896</v>
+        <v>7703048938</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>83</v>
@@ -1507,7 +1501,7 @@
         <v>61</v>
       </c>
       <c r="H15" s="16">
-        <v>7703048897</v>
+        <v>7703048939</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>83</v>
@@ -1548,7 +1542,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="17">
-        <v>7703048962</v>
+        <v>7703048963</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>85</v>
@@ -1589,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="H17" s="18">
-        <v>7703049050</v>
+        <v>7703049051</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>80</v>
@@ -1630,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="21">
-        <v>7703046535</v>
+        <v>7703048940</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>83</v>
@@ -1671,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="9">
-        <v>7703049099</v>
+        <v>7703049106</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>83</v>
@@ -1712,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9">
-        <v>7703049083</v>
+        <v>7703049107</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>83</v>
@@ -1753,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="9">
-        <v>7703049084</v>
+        <v>7703049108</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>83</v>
@@ -1794,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="9">
-        <v>7703049085</v>
+        <v>7703049109</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>83</v>
@@ -1835,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="9">
-        <v>7703049086</v>
+        <v>7703049110</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>83</v>
@@ -1876,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="9">
-        <v>7703049087</v>
+        <v>7703049111</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>83</v>
@@ -1917,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="9">
-        <v>7703049088</v>
+        <v>7703049112</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>83</v>
@@ -1958,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="9">
-        <v>7703049089</v>
+        <v>7703049113</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>83</v>
@@ -1999,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="9">
-        <v>7703049090</v>
+        <v>7703049114</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>83</v>
@@ -2040,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="9">
-        <v>7703049091</v>
+        <v>7703049115</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>83</v>
@@ -2081,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="9">
-        <v>7703049092</v>
+        <v>7703049116</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>83</v>
@@ -2122,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="9">
-        <v>7703049094</v>
+        <v>7703049117</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>83</v>
@@ -2163,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="17">
-        <v>7703049075</v>
+        <v>7703049076</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>80</v>
@@ -2204,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="18">
-        <v>7703049163</v>
+        <v>7703049164</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>85</v>
@@ -2245,7 +2239,7 @@
         <v>61</v>
       </c>
       <c r="H33" s="16">
-        <v>7703048923</v>
+        <v>7703048941</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>83</v>
@@ -2286,7 +2280,7 @@
         <v>61</v>
       </c>
       <c r="H34" s="16">
-        <v>7703048924</v>
+        <v>7703048942</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>83</v>
@@ -2327,7 +2321,7 @@
         <v>61</v>
       </c>
       <c r="H35" s="16">
-        <v>7703048925</v>
+        <v>7703048943</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>83</v>
@@ -2368,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="9">
-        <v>7703049096</v>
+        <v>7703049118</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>83</v>
@@ -2409,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="9">
-        <v>7703049097</v>
+        <v>7703049119</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>83</v>
@@ -2450,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="9">
-        <v>7703049098</v>
+        <v>7703049120</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>83</v>
@@ -4472,6 +4466,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A638DD4EB1C1A84A89FFB469BA74ACC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51af6b70a4447e92b009e517bae45f5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67252fe7-6b63-4403-af0d-37df51d7c3a2" xmlns:ns3="1a0cd919-d361-40f9-9afc-7bc6ff95d333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760a45eaac0c1eb6b3a790365277345f" ns2:_="" ns3:_="">
     <xsd:import namespace="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
@@ -4666,7 +4671,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4675,18 +4680,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1a0cd919-d361-40f9-9afc-7bc6ff95d333" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67252fe7-6b63-4403-af0d-37df51d7c3a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
+    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB8EA9-1E02-4059-870F-414FF031F625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4705,21 +4710,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37869A15-A724-4BC9-8EFD-824D3F82BD0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1A5563-A825-4419-97ED-5452D9012A3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a0cd919-d361-40f9-9afc-7bc6ff95d333"/>
-    <ds:schemaRef ds:uri="67252fe7-6b63-4403-af0d-37df51d7c3a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
